--- a/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\Maelstrom tools\Neue templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1045" documentId="8_{45C6AF63-7CBD-4385-8119-A8B23C6EB9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B806350-DD99-4B09-B601-26BFEF33EF89}"/>
+  <xr:revisionPtr revIDLastSave="1059" documentId="8_{45C6AF63-7CBD-4385-8119-A8B23C6EB9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A47BFA8C-7357-42A1-8D95-931A5CFF2BEE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="441">
   <si>
     <t>index</t>
   </si>
@@ -44,13 +44,16 @@
     <t>dataschema_variable</t>
   </si>
   <si>
+    <t>label</t>
+  </si>
+  <si>
     <t>valueType</t>
   </si>
   <si>
-    <t>ss_table</t>
-  </si>
-  <si>
-    <t>ss_variables</t>
+    <t>input_dataset</t>
+  </si>
+  <si>
+    <t>input_variables</t>
   </si>
   <si>
     <t>Mlstr_harmo::rule_category</t>
@@ -68,32 +71,20 @@
     <t>Mlstr_harmo::status_detail</t>
   </si>
   <si>
-    <t>Mlstr::algorithm</t>
-  </si>
-  <si>
     <t>variable_ID</t>
   </si>
   <si>
+    <t>Participant identification number</t>
+  </si>
+  <si>
     <t>KORAS1_P1</t>
   </si>
   <si>
-    <t>col_id</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
+    <t>id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 id_creation</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo"/>
-        <charset val="1"/>
-      </rPr>
-      <t> (mandatory)</t>
-    </r>
   </si>
   <si>
     <t>complete</t>
@@ -105,6 +96,9 @@
     <t>SEX</t>
   </si>
   <si>
+    <t>Sex</t>
+  </si>
+  <si>
     <t>integer</t>
   </si>
   <si>
@@ -117,18 +111,27 @@
     <t>AGE_BASE</t>
   </si>
   <si>
+    <t>Age at exposure measure</t>
+  </si>
+  <si>
     <t>atalteru</t>
   </si>
   <si>
     <t>EDU_LEVEL</t>
   </si>
   <si>
+    <t>Education</t>
+  </si>
+  <si>
     <t>atbbild</t>
   </si>
   <si>
     <t>TOT_PA_QX</t>
   </si>
   <si>
+    <t>Physical activity from questionnaire data</t>
+  </si>
+  <si>
     <t>decimal</t>
   </si>
   <si>
@@ -141,16 +144,25 @@
     <t>SMOKE_ST</t>
   </si>
   <si>
+    <t>Smoking status</t>
+  </si>
+  <si>
     <t>atcigsmk</t>
   </si>
   <si>
     <t>BMI</t>
   </si>
   <si>
+    <t>Body Mass index at baseline</t>
+  </si>
+  <si>
     <t>atbmi</t>
   </si>
   <si>
     <t>POTATOES_TUB_01</t>
+  </si>
+  <si>
+    <t>Intake of starchy roots or tubers [g/d]</t>
   </si>
   <si>
     <t>num</t>
@@ -196,6 +208,9 @@
     <t xml:space="preserve">POTATOES_0101 </t>
   </si>
   <si>
+    <t>Potatoe intake [g/d]</t>
+  </si>
+  <si>
     <t>AV410 (potato) + AV420 (potato products)</t>
   </si>
   <si>
@@ -208,10 +223,16 @@
     <t>OTHERTUB_0102</t>
   </si>
   <si>
+    <t>Other roots and tuber intake [g/d]</t>
+  </si>
+  <si>
     <t xml:space="preserve">impossible </t>
   </si>
   <si>
     <t>VEGETABLES_02</t>
+  </si>
+  <si>
+    <t>Vegetable intake [g/d]</t>
   </si>
   <si>
     <t>AV431; AV433; AV440;
@@ -230,6 +251,9 @@
   </si>
   <si>
     <t>LEAFYVEG_0201</t>
+  </si>
+  <si>
+    <t>Leafy vegetable intake [g/d]</t>
   </si>
   <si>
     <t>AV440</t>
@@ -259,6 +283,9 @@
     <t>FRUITINGVEG_0202</t>
   </si>
   <si>
+    <t>fruiting vegetable intake [g/d]</t>
+  </si>
+  <si>
     <t>AV451;
 AV455;
 AV459</t>
@@ -273,6 +300,9 @@
     <t>ROOTVEG_0203</t>
   </si>
   <si>
+    <t>root and tuber vegetable intake [g/d]</t>
+  </si>
+  <si>
     <t>AV465</t>
   </si>
   <si>
@@ -282,6 +312,9 @@
     <t>CABBAGE_0204</t>
   </si>
   <si>
+    <t>Head cabbages and similar intake [g/d]</t>
+  </si>
+  <si>
     <t>AV431; AV433</t>
   </si>
   <si>
@@ -294,12 +327,21 @@
     <t>MUSHROOMS_0205</t>
   </si>
   <si>
+    <t>mushroom intake [g/d]</t>
+  </si>
+  <si>
     <t>GRAINPODVEG_0206</t>
   </si>
   <si>
+    <t>intake of legumes with pod [g/d]</t>
+  </si>
+  <si>
     <t>ONION_GARLIC_0207</t>
   </si>
   <si>
+    <t>bulb vegetables (onions, garlic) intake [g/d]</t>
+  </si>
+  <si>
     <t>AV461</t>
   </si>
   <si>
@@ -309,12 +351,21 @@
     <t>STALKVEG_0208</t>
   </si>
   <si>
+    <t>intake of stems/stalks eaten as vegetables [g/d]</t>
+  </si>
+  <si>
     <t>MIXEDVEG_0209</t>
   </si>
   <si>
+    <t>intake of mixed vegetable salad or mixed green salad [g/d]</t>
+  </si>
+  <si>
     <t>LEGUMES_TOT_03</t>
   </si>
   <si>
+    <t>Legumes intake [g/d]</t>
+  </si>
+  <si>
     <t xml:space="preserve">AV491 </t>
   </si>
   <si>
@@ -324,7 +375,13 @@
     <t>LEGUMES_0301</t>
   </si>
   <si>
+    <t>intake fresh seeds (without pod) from legumes (beans, peas etc.) [g/d]</t>
+  </si>
+  <si>
     <t>FRUITS_TOT_04</t>
+  </si>
+  <si>
+    <t>intake of any type of RPCs of fruit nature [g/d]</t>
   </si>
   <si>
     <t>AV310; AV311; AV315; AV321; AV323;
@@ -363,6 +420,9 @@
     <t>FRUITS_0401</t>
   </si>
   <si>
+    <t>Intake of fruits used as a fruit (as part-nature) [g/d]</t>
+  </si>
+  <si>
     <t>AV310; AV311; AV315 ;
 AV321;
 AV323;
@@ -418,6 +478,9 @@
     <t>NUTS_SEEDS_0402</t>
   </si>
   <si>
+    <t>Intake of tree nuts and seeds (as plant) and from nuts and similar seeds (as part-nature) [g/d]</t>
+  </si>
+  <si>
     <t>AV351</t>
   </si>
   <si>
@@ -427,6 +490,9 @@
     <t>MIXEDFRUITS_0403</t>
   </si>
   <si>
+    <t>Intake of candied fruit/mixed fruit, canned, jarred mixed fruit and miscellaneous fruits [g/d]</t>
+  </si>
+  <si>
     <t>AV360; AV390</t>
   </si>
   <si>
@@ -439,9 +505,15 @@
     <t>OLIVES_0404</t>
   </si>
   <si>
+    <t>Intake of processed olives, table olives and similar and olives for oil production and similar [g/d]</t>
+  </si>
+  <si>
     <t>DAIRY_05</t>
   </si>
   <si>
+    <t>Intake of milk and dairy products and milk and milk products (dairy) [g/d]</t>
+  </si>
+  <si>
     <t>AV210; AV220; AV231; AV232; AV233; AV245; AV248</t>
   </si>
   <si>
@@ -454,6 +526,9 @@
     <t>MILK_0501</t>
   </si>
   <si>
+    <t>Intake of (whole) cow and cattle milk [g/d]</t>
+  </si>
+  <si>
     <t xml:space="preserve">AV210 </t>
   </si>
   <si>
@@ -463,9 +538,15 @@
     <t>MILKBEV_0502</t>
   </si>
   <si>
+    <t>Intake of buttermilk, traditional buttermilk, flavoured milk, flavoured whey and milk-based drinks (as part-nature) [g/d]</t>
+  </si>
+  <si>
     <t>YOGURT_0503</t>
   </si>
   <si>
+    <t>Intake of fermented milk [g/d]</t>
+  </si>
+  <si>
     <t>AV232</t>
   </si>
   <si>
@@ -475,6 +556,9 @@
     <t>CURD_0504</t>
   </si>
   <si>
+    <t>Intake of cheese curd, quark and cottage [g/d]</t>
+  </si>
+  <si>
     <t>AV245</t>
   </si>
   <si>
@@ -484,6 +568,9 @@
     <t>CHEESE_0505</t>
   </si>
   <si>
+    <t>Intake of Cheese [g/d]</t>
+  </si>
+  <si>
     <t>AV248</t>
   </si>
   <si>
@@ -493,12 +580,22 @@
     <t>DAIRYDESSERT_0506</t>
   </si>
   <si>
+    <t>Intake of dairy dessert and similar
+Starchy pudding [g/d]</t>
+  </si>
+  <si>
     <t>CREAM_PROD_0507</t>
   </si>
   <si>
+    <t>Intake of cream and cream products [g/d]</t>
+  </si>
+  <si>
     <t>DAIRYCREAM_050701</t>
   </si>
   <si>
+    <t>Cream intake (as part-nature) [g/d]</t>
+  </si>
+  <si>
     <t>AV231</t>
   </si>
   <si>
@@ -508,9 +605,15 @@
     <t>NONDAIRYCREAM_050702</t>
   </si>
   <si>
+    <t>Intake of Imitation cream, non-dairy coffee creamers and dairy imitates other than milk [g/d]</t>
+  </si>
+  <si>
     <t>MILK_FOR_COFFEE_0508</t>
   </si>
   <si>
+    <t>Intake of condensed milk (sometimes with added sugars) and milk and dairy powders and concentrates [g/d]</t>
+  </si>
+  <si>
     <t>AV220</t>
   </si>
   <si>
@@ -520,6 +623,10 @@
     <t>CEREAL_PROD_06</t>
   </si>
   <si>
+    <t>Intake of cereals and cereal primary derivatives
+Cereal grains (and cereal-like grains) [g/d]</t>
+  </si>
+  <si>
     <t>AV711; AV715; AV719; AV731; AV511; AV512; AV515; AV517; AV540</t>
   </si>
   <si>
@@ -532,6 +639,9 @@
     <t>FLOUR_FLAKES_0601</t>
   </si>
   <si>
+    <t>Intake of flours and other milled products and starches [g/d]</t>
+  </si>
+  <si>
     <t>AV711; AV719</t>
   </si>
   <si>
@@ -544,6 +654,9 @@
     <t>PASTA_RICE_0602</t>
   </si>
   <si>
+    <t>Intake of pastas and rice (or other cereal) –based dishes and pastas and rice (or other cereal) –based dishes (as part-nature) [g/d]</t>
+  </si>
+  <si>
     <t>AV731; AV715</t>
   </si>
   <si>
@@ -556,6 +669,9 @@
     <t>BREAD_PROD_0603</t>
   </si>
   <si>
+    <t>Intake of bread (as part-nature), bread products (as part-nature), bread and similar [g/d]</t>
+  </si>
+  <si>
     <t>AV511; AV512; AV515; AV517</t>
   </si>
   <si>
@@ -568,6 +684,9 @@
     <t>BREAD_060301</t>
   </si>
   <si>
+    <t>Intake of bread [g/d]</t>
+  </si>
+  <si>
     <t>AV511; AV512; AV517</t>
   </si>
   <si>
@@ -580,6 +699,9 @@
     <t>CRISPBREAD_060302</t>
   </si>
   <si>
+    <t>Intake of crisp bread and rusk [g/d]</t>
+  </si>
+  <si>
     <t>AV515</t>
   </si>
   <si>
@@ -589,16 +711,28 @@
     <t>BREAKF_CEREALS_0604</t>
   </si>
   <si>
+    <t>Intake of breakfast cereals and breakfast cereals, plain [g/d]</t>
+  </si>
+  <si>
     <t>SALT_BISCUIT_0605</t>
   </si>
   <si>
+    <t>Intake of crackers and breadsticks [g/d]</t>
+  </si>
+  <si>
     <t>DOUGH_PASTRY_0606</t>
   </si>
   <si>
+    <t>Intake of fine bakery wares [g/d]</t>
+  </si>
+  <si>
     <t>AV540 (fine bakery products) zu CAKES_12</t>
   </si>
   <si>
     <t>MEAT_PROD_07</t>
+  </si>
+  <si>
+    <t>Intake of meat and meat products [g/d]</t>
   </si>
   <si>
     <t>AV111; AV112; AV113; AV115; AV117;
@@ -617,6 +751,9 @@
     <t>RED_MEAT_0701</t>
   </si>
   <si>
+    <t>Intake of red meat (mammals meat) [g/d]</t>
+  </si>
+  <si>
     <t>AV111; AV112; AV113; AV115; AV117;
 AV119; AV131</t>
   </si>
@@ -631,6 +768,9 @@
     <t>BEEF_070101</t>
   </si>
   <si>
+    <t>Intake of cow, ox or bull fresh meat [g/d]</t>
+  </si>
+  <si>
     <t>AV111</t>
   </si>
   <si>
@@ -640,6 +780,9 @@
     <t>VEAL_070102</t>
   </si>
   <si>
+    <t>Intake of calf fresh meat [g/d]</t>
+  </si>
+  <si>
     <t>AV112</t>
   </si>
   <si>
@@ -649,6 +792,9 @@
     <t>PORK_070103</t>
   </si>
   <si>
+    <t>Intake of pig fresh meat [g/d]</t>
+  </si>
+  <si>
     <t>AV113</t>
   </si>
   <si>
@@ -656,6 +802,9 @@
   </si>
   <si>
     <t>MUTTON_LAMB_070104</t>
+  </si>
+  <si>
+    <t>Intake of Lamb and Sheep (adult) fresh meat [g/d]</t>
   </si>
   <si>
     <t>AV115</t>
@@ -685,12 +834,21 @@
     <t>HORSE_070105</t>
   </si>
   <si>
+    <t>Intake of Horse fresh meat [g/d]</t>
+  </si>
+  <si>
     <t>GOAT_070106</t>
   </si>
   <si>
+    <t>Intake of Goat fresh meat, meat food and meat products [g/d]</t>
+  </si>
+  <si>
     <t>POULTRY_0702</t>
   </si>
   <si>
+    <t>Intake of poultry fresh meat (muscle meat) and poultry meat food [g/d]</t>
+  </si>
+  <si>
     <t>AV120</t>
   </si>
   <si>
@@ -700,24 +858,45 @@
     <t>OTHERPOULTRY_070200</t>
   </si>
   <si>
+    <t>Intake of other poultry fresh meat, meat products, meat preparations and other poultry meat food [g/d]</t>
+  </si>
+  <si>
     <t>CHICKEN_070201</t>
   </si>
   <si>
+    <t>Intake of chicken fresh meat, meat food and meat products [g/d]</t>
+  </si>
+  <si>
     <t>TURKEY_070202</t>
   </si>
   <si>
+    <t>Intake of turkey fresh meat, meat food, meat products and meat preparations [g/d]</t>
+  </si>
+  <si>
     <t>DUCK_070203</t>
   </si>
   <si>
+    <t>Intake of duck fresh meat, meat food, meat products, meat preparations [g/d]</t>
+  </si>
+  <si>
     <t>GOOSE_070204</t>
   </si>
   <si>
+    <t>Intake of goose fresh meat, meat food, meat products and  meat preparations [g/d]</t>
+  </si>
+  <si>
     <t>RABBIT_070205</t>
   </si>
   <si>
+    <t>Intake of rabbit fresh meat, meat food, meat products and meat preparations [g/d]</t>
+  </si>
+  <si>
     <t>GAME_0703</t>
   </si>
   <si>
+    <t>Intake of Game mammals fresh meat/fat tissue, meat food, meat products, meat preparations, Game birds fresh meat, meat food, meat products, meat preparations and other game birds fresh meat [g/d]</t>
+  </si>
+  <si>
     <t>AV117</t>
   </si>
   <si>
@@ -727,6 +906,9 @@
     <t>PROCMEAT_0704</t>
   </si>
   <si>
+    <t>Intake of processed or preserved meat [g/d]</t>
+  </si>
+  <si>
     <t>AV131; AV141; AV145; AV147; AV150; AV160</t>
   </si>
   <si>
@@ -739,6 +921,9 @@
     <t>OFFALS_0705</t>
   </si>
   <si>
+    <t>Intake of animal offal and other slaughtering [g/d]</t>
+  </si>
+  <si>
     <t>AV135</t>
   </si>
   <si>
@@ -748,6 +933,9 @@
     <t>FISH_SHELLFISH_08</t>
   </si>
   <si>
+    <t>Intake of fish, seafood, amphibians, reptiles and invertebrates, products of animal origin - fish, fish products and any other marine and freshwater food products [g/d]</t>
+  </si>
+  <si>
     <t>AV170; AV180; AV190</t>
   </si>
   <si>
@@ -760,6 +948,9 @@
     <t>FISH_0801</t>
   </si>
   <si>
+    <t>Intake of Fish (meat) [g/d]</t>
+  </si>
+  <si>
     <t>AV170</t>
   </si>
   <si>
@@ -769,9 +960,16 @@
     <t>CRUSTACEANS_0802</t>
   </si>
   <si>
+    <t>Intake of seafood and products thereof [g/d]</t>
+  </si>
+  <si>
     <t>FISH_PROD_0803</t>
   </si>
   <si>
+    <t>Intake of fish and seafood processed
+Fish fingers, breaded [g/d]</t>
+  </si>
+  <si>
     <t>AV180; AV190</t>
   </si>
   <si>
@@ -784,6 +982,9 @@
     <t>EGG_PROD_09</t>
   </si>
   <si>
+    <t>Intake of eggs and egg products [g/d]</t>
+  </si>
+  <si>
     <t>AV250; AV255</t>
   </si>
   <si>
@@ -796,6 +997,9 @@
     <t>EGGS_0901</t>
   </si>
   <si>
+    <t>Intake of liquid egg products, hardened egg products, boiled eggs products, fried eggs products and processed eggs and egg products [g/d]</t>
+  </si>
+  <si>
     <t>AV255</t>
   </si>
   <si>
@@ -805,6 +1009,9 @@
     <t>FAT_10</t>
   </si>
   <si>
+    <t>Intake of animal and vegetable fats and oils and primary derivatives thereof [g/d]</t>
+  </si>
+  <si>
     <t>AV270; AV291; AV293; AV295</t>
   </si>
   <si>
@@ -817,6 +1024,9 @@
     <t>VEGOILS_1001</t>
   </si>
   <si>
+    <t>Intake of vegetable fats and oils, edible [g/d]</t>
+  </si>
+  <si>
     <t>AV293</t>
   </si>
   <si>
@@ -826,6 +1036,9 @@
     <t>BUTTER_1002</t>
   </si>
   <si>
+    <t>Intake of butter [g/d]</t>
+  </si>
+  <si>
     <t>AV270</t>
   </si>
   <si>
@@ -835,6 +1048,9 @@
     <t>MARGARINE_1003</t>
   </si>
   <si>
+    <t>Intake of margarines and similar [g/d]</t>
+  </si>
+  <si>
     <t>AV291</t>
   </si>
   <si>
@@ -844,15 +1060,27 @@
     <t>FRYFAT_1004</t>
   </si>
   <si>
+    <t>Intake of blended frying oil/fats [g/d]</t>
+  </si>
+  <si>
     <t>MARINEOILS_1005</t>
   </si>
   <si>
+    <t>Intake of fats and oils from marine animals [g/d]</t>
+  </si>
+  <si>
     <t>OTHER_ANIMALFAT_1006</t>
   </si>
   <si>
+    <t>Intake of animal fats and oils (processed fat from animal tissue) [g/d]</t>
+  </si>
+  <si>
     <t>SUGAR_CONFECT_11</t>
   </si>
   <si>
+    <t>Intake of sugar and similar, confectionery and water-based sweet desserts [g/d]</t>
+  </si>
+  <si>
     <t>AV610; AV681; AV684; AV687; AV620; AV630; AV650; AV670</t>
   </si>
   <si>
@@ -865,6 +1093,9 @@
     <t>HONEY_JAM_1101</t>
   </si>
   <si>
+    <t>Intake of sugars, syrups, honey and table-top sweeteners [g/d]</t>
+  </si>
+  <si>
     <t>AV681; AV684</t>
   </si>
   <si>
@@ -877,6 +1108,9 @@
     <t>CHOCOLATE_1102</t>
   </si>
   <si>
+    <t>Intake of chocolate, chocolate products and chocolate coated conectionary [g/d]</t>
+  </si>
+  <si>
     <t>AV620; AV630</t>
   </si>
   <si>
@@ -889,6 +1123,9 @@
     <t>NONCHOC_SWEETS_1103</t>
   </si>
   <si>
+    <t>Intake of sweet bars and other formed sweet masses, candies (soft and hard) and other confectionery including breath refreshening microsweets [g/d]</t>
+  </si>
+  <si>
     <t>AV650</t>
   </si>
   <si>
@@ -898,12 +1135,21 @@
     <t>SYRUP_1104</t>
   </si>
   <si>
+    <t xml:space="preserve">Intake of corn syrup and sugar beet syrup [g/d]	</t>
+  </si>
+  <si>
     <t>ICECREAM_1105</t>
   </si>
   <si>
+    <t>Intake of spoonable desserts and ice creams (generic) [g/d]</t>
+  </si>
+  <si>
     <t>ICECREAM_MILK_110501</t>
   </si>
   <si>
+    <t>Intake of milk-based ice cream [g/d]</t>
+  </si>
+  <si>
     <t>AV670</t>
   </si>
   <si>
@@ -913,12 +1159,21 @@
     <t>SORBET_110502</t>
   </si>
   <si>
+    <t>Sorbet intake [g/d]</t>
+  </si>
+  <si>
     <t>WATER_ICE_110503</t>
   </si>
   <si>
+    <t>Intake of water-based ice creams [g/d]</t>
+  </si>
+  <si>
     <t>CAKES_12</t>
   </si>
   <si>
+    <t>Intake of cakes and fine bakery wares [g/d]</t>
+  </si>
+  <si>
     <t>AV540; AV570</t>
   </si>
   <si>
@@ -931,10 +1186,19 @@
     <t>VARPASTRY_1201</t>
   </si>
   <si>
+    <t>Intake of various pastry [g/d]</t>
+  </si>
+  <si>
     <t>DRYCAKE_1202</t>
   </si>
   <si>
+    <t>Intake of sponge biscuits and plain cakes [g/d]</t>
+  </si>
+  <si>
     <t>NONALC_BEV_13</t>
+  </si>
+  <si>
+    <t>Intake of non-alcoholic beverages [g/d]</t>
   </si>
   <si>
     <t>AV810; AV821; AV825; AV829</t>
@@ -952,6 +1216,9 @@
     <t>FRUITVEG_JUICE_1301</t>
   </si>
   <si>
+    <t>Intake of fruit and vegetable juices and nectars [g/d]</t>
+  </si>
+  <si>
     <t>AV810</t>
   </si>
   <si>
@@ -961,6 +1228,9 @@
     <t>SOFTDRINKS_1302</t>
   </si>
   <si>
+    <t>Intake of soft drinks (flavoured, no fruit) [g/d]</t>
+  </si>
+  <si>
     <t>AV825; AV829</t>
   </si>
   <si>
@@ -973,6 +1243,9 @@
     <t>HOTDRINKS_1303</t>
   </si>
   <si>
+    <t>Intake of hot drinks and similar (coffee, cocoa, tea and herbal infusions) [g/d]</t>
+  </si>
+  <si>
     <t>AV841; AV845; AV850</t>
   </si>
   <si>
@@ -985,6 +1258,9 @@
     <t>COFFEE_130301</t>
   </si>
   <si>
+    <t>Coffee intake [g/d]</t>
+  </si>
+  <si>
     <t>AV841; AV845</t>
   </si>
   <si>
@@ -997,6 +1273,9 @@
     <t>TEA_130302</t>
   </si>
   <si>
+    <t>Tea intake [g/d]</t>
+  </si>
+  <si>
     <t>AV850</t>
   </si>
   <si>
@@ -1006,12 +1285,21 @@
     <t>HERBALTEA_130303</t>
   </si>
   <si>
+    <t>Intake of herbal and other non-tea infusions [g/d]</t>
+  </si>
+  <si>
     <t>COFFEE_IMITATE_130304</t>
   </si>
   <si>
+    <t>Intake of chicory coffee infusion and coffee imitate beverages [g/d]</t>
+  </si>
+  <si>
     <t>WATER_1304</t>
   </si>
   <si>
+    <t>Intake of water and water-based beverages [g/d]</t>
+  </si>
+  <si>
     <t>AV821</t>
   </si>
   <si>
@@ -1019,6 +1307,9 @@
   </si>
   <si>
     <t>ALC_BEV_14</t>
+  </si>
+  <si>
+    <t>Alcoholic beverage intake [g/d]</t>
   </si>
   <si>
     <t>AV860; AV870;  AV881; 
@@ -1036,6 +1327,9 @@
     <t>WINE_1401</t>
   </si>
   <si>
+    <t>Intake of wine and wine-like drinks [g/d]</t>
+  </si>
+  <si>
     <t>AV881;  
 AV885; AV889</t>
   </si>
@@ -1051,9 +1345,15 @@
     <t>FORTWINE_1402</t>
   </si>
   <si>
+    <t>Intake of fortified/liqueur wine (as part-nature) [g/d]</t>
+  </si>
+  <si>
     <t>BEER_1403</t>
   </si>
   <si>
+    <t>Intake of beer and beer-like beverage [g/d]</t>
+  </si>
+  <si>
     <t>AV870</t>
   </si>
   <si>
@@ -1063,6 +1363,9 @@
     <t>SPIRITS_1404</t>
   </si>
   <si>
+    <t>Intake of unsweetened spirits [g/d]</t>
+  </si>
+  <si>
     <t>AV860</t>
   </si>
   <si>
@@ -1072,74 +1375,141 @@
     <t>HERBLIQUEUR_1405</t>
   </si>
   <si>
+    <t>Intake of herb liqueur [g/d]</t>
+  </si>
+  <si>
     <t>LIQUEURS_1406</t>
   </si>
   <si>
+    <t>Intake of liqueurs [g/d]</t>
+  </si>
+  <si>
     <t>COCKTAILS_1407</t>
   </si>
   <si>
+    <t>Intake of mixed alcoholic drinks [g/d]</t>
+  </si>
+  <si>
     <t>CONDIMENT_SAUCES_15</t>
   </si>
   <si>
+    <t>Intake of seasoning, sauces and condiments [g/d]</t>
+  </si>
+  <si>
     <t>SAUCES_1501</t>
   </si>
   <si>
+    <t>Intake of savoury sauces [g/d]</t>
+  </si>
+  <si>
     <t>TOMATOSAUCE_150101</t>
   </si>
   <si>
+    <t>Intake of tomato-containing cooked sauces [g/d]</t>
+  </si>
+  <si>
     <t>DRESSINGS_150102</t>
   </si>
   <si>
+    <t>Salad dressing intake [g/d]</t>
+  </si>
+  <si>
     <t>MAYONNAISE_150103</t>
   </si>
   <si>
+    <t>Intake of mayonnaise, hollandaise and related sauces [g/d]</t>
+  </si>
+  <si>
     <t>DESSERTSAUCE_150104</t>
   </si>
   <si>
+    <t>Intakes of dessert sauces/toppings [g/d]</t>
+  </si>
+  <si>
     <t>YEAST_1502</t>
   </si>
   <si>
+    <t>Intake of yeast cultures [g/d]</t>
+  </si>
+  <si>
     <t>HERBS_SPICES_1503</t>
   </si>
   <si>
+    <t>Intakes of berbs, spices and similar [g/d]</t>
+  </si>
+  <si>
     <t>CONDIMENTS_1504</t>
   </si>
   <si>
+    <t>Condiments (including table-top formats) intakes [g/d]</t>
+  </si>
+  <si>
     <t>SOUP_BOUILLON_16</t>
   </si>
   <si>
+    <t>Intake of soups and broths [g/d]</t>
+  </si>
+  <si>
     <t>SOUP_1601</t>
   </si>
   <si>
+    <t>Intake of soups (ready-to-eat) [g/d]</t>
+  </si>
+  <si>
     <t>BOUILLON_1602</t>
   </si>
   <si>
+    <t>Intake of mixed vegetables soup, clear
+Meat soup, clear [g/d]</t>
+  </si>
+  <si>
     <t>MISCELLANEOUS_17</t>
   </si>
   <si>
+    <t>Intake of miscellaneous [g/d]</t>
+  </si>
+  <si>
     <t>VEG_DISHES_1700</t>
   </si>
   <si>
+    <t>Intake of vegetarian products and dishes [g/d]</t>
+  </si>
+  <si>
     <t>SOY_PROD_1701</t>
   </si>
   <si>
+    <t>Intake of Soya drink and yoghurt [g/d]</t>
+  </si>
+  <si>
     <t>DIET_PROD_1702</t>
   </si>
   <si>
+    <t>Intake of food for weight reduction [g/d]</t>
+  </si>
+  <si>
     <t>ART_SWEETENER_170201</t>
   </si>
   <si>
+    <t>Intake of artificial sweeteners (e.g., aspartam, saccharine) [g/d]</t>
+  </si>
+  <si>
     <t>SNACKS_1703</t>
   </si>
   <si>
+    <t>Intake of snacks other than chips and similar [g/d]</t>
+  </si>
+  <si>
     <t>AMPHIBIANS_1704</t>
+  </si>
+  <si>
+    <t>intake of amphibians, reptiles, snails, insects [g/d]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1370,15 +1740,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Menlo"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1564,6 +1927,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1726,7 +2095,7 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1838,15 +2207,36 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1854,49 +2244,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Link" xfId="42" builtinId="8"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2208,3948 +2598,4327 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K127"/>
+  <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="J89" sqref="B89:J89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="26"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="26"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="26"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15">
+    <row r="2" spans="1:12" ht="30.75">
       <c r="A2" s="26">
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="21" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="31" t="s">
+      <c r="G2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="H2" s="60" t="s">
         <v>15</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>16</v>
       </c>
       <c r="J2" s="21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15">
+      <c r="K2" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="26">
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="22" t="s">
+      <c r="C3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="D3" s="28" t="s">
         <v>20</v>
       </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="23" t="s">
-        <v>15</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="27"/>
       <c r="J3" s="23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15">
+      <c r="K3" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="26">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="23" t="s">
-        <v>15</v>
-      </c>
+      <c r="H4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="27"/>
       <c r="J4" s="23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="23" customFormat="1" ht="15">
+      <c r="K4" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="23" customFormat="1">
       <c r="A5" s="26">
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="23" t="s">
-        <v>15</v>
-      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="27"/>
       <c r="J5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="27"/>
-    </row>
-    <row r="6" spans="1:11" ht="15">
+      <c r="K5" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="57"/>
+    </row>
+    <row r="6" spans="1:12" ht="30.75">
       <c r="A6" s="26">
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="23" t="s">
-        <v>27</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="27"/>
       <c r="J6" s="23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="26">
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="23" t="s">
-        <v>15</v>
-      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="32"/>
       <c r="J7" s="23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15">
+      <c r="K7" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="26">
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
+      <c r="E8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="28"/>
       <c r="J8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="76.5">
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="45.75">
       <c r="A9" s="26">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="30.75">
+      <c r="C9" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30.75">
       <c r="A10" s="26">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="G10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>51</v>
+      </c>
       <c r="J10" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30.75">
       <c r="A11" s="26">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="34"/>
       <c r="J11" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="167.25">
+        <v>56</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="152.25">
       <c r="A12" s="26">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="30.75">
+        <v>52</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30.75">
       <c r="A13" s="26">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="45.75">
+      <c r="A14" s="26">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="18" t="s">
+      <c r="K14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="45.75">
-      <c r="A14" s="26">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15">
+    </row>
+    <row r="15" spans="1:12" ht="30.75">
       <c r="A15" s="26">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30.75">
+        <v>52</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30.75">
       <c r="A16" s="26">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>43</v>
+        <v>76</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>80</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="26">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>46</v>
+        <v>81</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15">
+        <v>56</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30.75">
       <c r="A18" s="26">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>46</v>
+        <v>83</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="34"/>
       <c r="J18" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15">
+        <v>56</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30.75">
       <c r="A19" s="26">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>20</v>
+        <v>85</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="30.75">
+        <v>22</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30.75">
       <c r="A20" s="26">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>52</v>
+        <v>89</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15">
+        <v>64</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="45.75">
       <c r="A21" s="26">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>46</v>
+        <v>91</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="34"/>
       <c r="J21" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15">
+        <v>56</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="26">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>20</v>
+        <v>93</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>96</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="45.75">
       <c r="A23" s="26">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>46</v>
+        <v>97</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="34"/>
-      <c r="I23" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="34"/>
       <c r="J23" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="290.25">
+        <v>56</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="290.25">
       <c r="A24" s="26">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>43</v>
+        <v>99</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>103</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="244.5">
+        <v>52</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="244.5">
       <c r="A25" s="26">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="H25" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>43</v>
+        <v>104</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" s="40" t="s">
+        <v>108</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="60.75">
       <c r="A26" s="26">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
+        <v>109</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>111</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>112</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="30.75">
+        <v>52</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="60.75">
       <c r="A27" s="26">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>89</v>
+        <v>113</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" s="41" t="s">
+        <v>117</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="60.75">
       <c r="A28" s="26">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>46</v>
+        <v>118</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="42"/>
-      <c r="I28" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="42"/>
       <c r="J28" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="91.5">
+        <v>56</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="76.5">
       <c r="A29" s="26">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="H29" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>43</v>
+        <v>120</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="43" t="s">
+        <v>124</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="30.75">
       <c r="A30" s="26">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>43</v>
+        <v>125</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="44" t="s">
+        <v>128</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="76.5">
       <c r="A31" s="26">
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>46</v>
+        <v>129</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="28"/>
       <c r="J31" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15">
+        <v>56</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="30.75">
       <c r="A32" s="26">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" t="s">
-        <v>12</v>
+        <v>131</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>133</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>134</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="30.75">
       <c r="A33" s="26">
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>43</v>
+        <v>135</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="26">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" t="s">
-        <v>12</v>
+        <v>139</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>142</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="45.75">
       <c r="A35" s="26">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>46</v>
+        <v>143</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="30.75">
       <c r="A36" s="26">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>46</v>
+        <v>145</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" s="34"/>
-      <c r="I36" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="34"/>
       <c r="J36" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="30.75">
       <c r="A37" s="26">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" t="s">
-        <v>12</v>
+        <v>147</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="E37" t="s">
-        <v>113</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>150</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="60.75">
       <c r="A38" s="26">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>46</v>
+        <v>151</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" s="34"/>
-      <c r="I38" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" s="34"/>
       <c r="J38" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="76.5">
       <c r="A39" s="26">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" t="s">
-        <v>12</v>
+        <v>153</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>117</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>155</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="34" t="s">
+        <v>156</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="106.5">
+        <v>52</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="91.5">
       <c r="A40" s="26">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="H40" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>43</v>
+        <v>157</v>
+      </c>
+      <c r="C40" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="I40" s="43" t="s">
+        <v>161</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="30.75">
+        <v>52</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="45.75">
       <c r="A41" s="26">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H41" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>43</v>
+        <v>162</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="I41" s="43" t="s">
+        <v>166</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="76.5">
       <c r="A42" s="26">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H42" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>43</v>
+        <v>167</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="I42" s="42" t="s">
+        <v>171</v>
       </c>
       <c r="J42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="60.75">
+      <c r="A43" s="26">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="45.75">
-      <c r="A43" s="26">
-        <v>42</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G43" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="H43" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>43</v>
+      <c r="H43" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="I43" s="44" t="s">
+        <v>176</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K43" s="28"/>
-    </row>
-    <row r="44" spans="1:11" ht="30.75">
+        <v>52</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L43" s="58"/>
+    </row>
+    <row r="44" spans="1:12" ht="30.75">
       <c r="A44" s="26">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="H44" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>43</v>
+        <v>177</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="I44" s="44" t="s">
+        <v>181</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="30.75">
+        <v>52</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="30.75">
       <c r="A45" s="26">
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>43</v>
+        <v>182</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="42" t="s">
+        <v>185</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="45.75">
       <c r="A46" s="26">
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>46</v>
+        <v>186</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="30.75">
       <c r="A47" s="26">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>46</v>
+        <v>188</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="21" customFormat="1" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="21" customFormat="1" ht="30.75">
       <c r="A48" s="26">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C48" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>27</v>
+        <v>190</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" s="45" t="s">
+        <v>192</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K48" s="31"/>
-    </row>
-    <row r="49" spans="1:10" ht="152.25">
+        <v>32</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L48" s="59"/>
+    </row>
+    <row r="49" spans="1:11" ht="121.5">
       <c r="A49" s="26">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H49" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>43</v>
+        <v>193</v>
+      </c>
+      <c r="C49" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="I49" s="33" t="s">
+        <v>197</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="60.75">
+        <v>52</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="60.75">
       <c r="A50" s="26">
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H50" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>43</v>
+        <v>198</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I50" s="43" t="s">
+        <v>202</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="30.75">
       <c r="A51" s="26">
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>43</v>
+        <v>203</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="34" t="s">
+        <v>206</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="30.75">
       <c r="A52" s="26">
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>43</v>
+        <v>207</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" s="34" t="s">
+        <v>210</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="30.75">
       <c r="A53" s="26">
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H53" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>43</v>
+        <v>211</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="34" t="s">
+        <v>214</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="30.75">
+        <v>52</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="30.75">
       <c r="A54" s="26">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G54" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="H54" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>39</v>
+        <v>215</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="I54" s="46" t="s">
+        <v>219</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="15">
+        <v>47</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="30.75">
       <c r="A55" s="26">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D55" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>46</v>
+        <v>220</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H55" s="34"/>
-      <c r="I55" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I55" s="34"/>
       <c r="J55" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="30.75">
+        <v>56</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="45.75">
       <c r="A56" s="26">
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="H56" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>39</v>
+        <v>222</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="I56" s="46" t="s">
+        <v>219</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="15">
+        <v>47</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="45.75">
       <c r="A57" s="26">
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D57" t="s">
-        <v>12</v>
+        <v>224</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="E57" t="s">
-        <v>170</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
+        <v>226</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" s="42" t="s">
+        <v>227</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="76.5">
       <c r="A58" s="26">
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D58" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>46</v>
+        <v>228</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H58" s="34"/>
-      <c r="I58" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I58" s="34"/>
       <c r="J58" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="45.75">
       <c r="A59" s="26">
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D59" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>46</v>
+        <v>230</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H59" s="34"/>
-      <c r="I59" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I59" s="34"/>
       <c r="J59" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="60.75">
       <c r="A60" s="26">
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D60" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>46</v>
+        <v>232</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H60" s="34"/>
-      <c r="I60" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I60" s="34"/>
       <c r="J60" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="45.75">
       <c r="A61" s="26">
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>46</v>
+        <v>234</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H61" s="34"/>
-      <c r="I61" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I61" s="34"/>
       <c r="J61" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="60.75">
       <c r="A62" s="26">
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D62" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>46</v>
+        <v>236</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H62" s="34"/>
-      <c r="I62" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I62" s="34"/>
       <c r="J62" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="60.75">
       <c r="A63" s="26">
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D63" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>46</v>
+        <v>238</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H63" s="34"/>
-      <c r="I63" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I63" s="34"/>
       <c r="J63" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="121.5">
       <c r="A64" s="26">
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D64" t="s">
-        <v>12</v>
+        <v>240</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="E64" t="s">
-        <v>179</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>242</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64" s="34" t="s">
+        <v>243</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="76.5">
+        <v>52</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="60.75">
       <c r="A65" s="26">
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D65" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H65" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J65" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G65" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="15">
+      <c r="H65" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="I65" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="30.75">
       <c r="A66" s="26">
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D66" t="s">
-        <v>12</v>
+        <v>249</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="E66" t="s">
-        <v>186</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" s="42" t="s">
-        <v>187</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
+        <v>251</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66" s="42" t="s">
+        <v>252</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="30.75">
+        <v>52</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="106.5">
       <c r="A67" s="26">
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G67" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="H67" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>43</v>
+        <v>253</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="I67" s="33" t="s">
+        <v>257</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="26">
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D68" t="s">
-        <v>12</v>
+        <v>258</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="E68" t="s">
-        <v>193</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H68" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="F68" t="s">
+        <v>260</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I68" s="42" t="s">
+        <v>261</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="30.75">
       <c r="A69" s="26">
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D69" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>46</v>
+        <v>262</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H69" s="34"/>
-      <c r="I69" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I69" s="34"/>
       <c r="J69" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="30.75">
+        <v>32</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="45.75">
       <c r="A70" s="26">
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="H70" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>43</v>
+        <v>264</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="I70" s="43" t="s">
+        <v>268</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="30.75">
       <c r="A71" s="26">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>200</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D71" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="H71" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>43</v>
+        <v>269</v>
+      </c>
+      <c r="C71" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="I71" s="42" t="s">
+        <v>273</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="106.5">
       <c r="A72" s="26">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>204</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D72" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>43</v>
+        <v>274</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I72" s="42" t="s">
+        <v>277</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="45.75">
+        <v>52</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="60.75">
       <c r="A73" s="26">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>207</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D73" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G73" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="H73" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>43</v>
+        <v>278</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="I73" s="43" t="s">
+        <v>282</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="30.75">
       <c r="A74" s="26">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>211</v>
-      </c>
-      <c r="C74" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D74" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H74" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>43</v>
+        <v>283</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E74" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I74" s="42" t="s">
+        <v>286</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="26">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>214</v>
-      </c>
-      <c r="C75" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D75" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H75" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>43</v>
+        <v>287</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I75" s="42" t="s">
+        <v>290</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="30.75">
       <c r="A76" s="26">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>217</v>
-      </c>
-      <c r="C76" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D76" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H76" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>43</v>
+        <v>291</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I76" s="42" t="s">
+        <v>294</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="30.75">
       <c r="A77" s="26">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>220</v>
-      </c>
-      <c r="C77" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D77" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>46</v>
+        <v>295</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H77" s="34"/>
-      <c r="I77" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I77" s="34"/>
       <c r="J77" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="30.75">
       <c r="A78" s="26">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>221</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D78" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>46</v>
+        <v>297</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" t="s">
+        <v>13</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="45.75">
       <c r="A79" s="26">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>222</v>
-      </c>
-      <c r="C79" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D79" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>46</v>
+        <v>299</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="91.5">
+        <v>32</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="76.5">
       <c r="A80" s="26">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>223</v>
-      </c>
-      <c r="C80" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D80" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G80" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="H80" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>43</v>
+        <v>301</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H80" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="I80" s="43" t="s">
+        <v>305</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="45.75">
       <c r="A81" s="26">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>227</v>
-      </c>
-      <c r="C81" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D81" t="s">
-        <v>12</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="H81" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>43</v>
+        <v>306</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E81" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I81" s="42" t="s">
+        <v>310</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="30.75">
+        <v>52</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="60.75">
       <c r="A82" s="26">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>231</v>
-      </c>
-      <c r="C82" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D82" t="s">
-        <v>12</v>
+        <v>311</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="E82" t="s">
-        <v>232</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G82" t="s">
-        <v>233</v>
-      </c>
-      <c r="H82" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>313</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H82" t="s">
+        <v>314</v>
+      </c>
+      <c r="I82" s="43" t="s">
+        <v>315</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="30.75">
+        <v>52</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="106.5">
       <c r="A83" s="26">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C83" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D83" t="s">
-        <v>12</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H83" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>43</v>
+        <v>316</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I83" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="30.75">
       <c r="A84" s="26">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>238</v>
-      </c>
-      <c r="C84" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D84" t="s">
-        <v>12</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>46</v>
+        <v>320</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H84" s="34"/>
-      <c r="I84" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I84" s="34"/>
       <c r="J84" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="45.75">
       <c r="A85" s="26">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>239</v>
-      </c>
-      <c r="C85" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D85" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>46</v>
+        <v>322</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="30.75">
       <c r="A86" s="26">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>240</v>
-      </c>
-      <c r="C86" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D86" t="s">
-        <v>12</v>
+        <v>324</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D86" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="E86" t="s">
-        <v>241</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H86" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="F86" t="s">
+        <v>326</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I86" s="34" t="s">
+        <v>327</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="26">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>243</v>
-      </c>
-      <c r="C87" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D87" t="s">
-        <v>12</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>46</v>
+        <v>328</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D87" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H87" s="34"/>
-      <c r="I87" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I87" s="34"/>
       <c r="J87" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="30.75">
       <c r="A88" s="26">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>244</v>
-      </c>
-      <c r="C88" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D88" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>46</v>
+        <v>330</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="D88" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E88" t="s">
+        <v>13</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H88" s="34"/>
-      <c r="I88" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I88" s="34"/>
       <c r="J88" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" s="21" customFormat="1" ht="30.75">
+        <v>32</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" s="21" customFormat="1" ht="30.75">
       <c r="A89" s="26">
         <v>88</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C89" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>246</v>
+        <v>332</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="D89" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>36</v>
+        <v>334</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H89" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="I89" s="44" t="s">
+        <v>336</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K89" s="31"/>
-    </row>
-    <row r="90" spans="1:11" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L89" s="59"/>
+    </row>
+    <row r="90" spans="1:12" ht="30.75">
       <c r="A90" s="26">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>249</v>
-      </c>
-      <c r="C90" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D90" t="s">
-        <v>12</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>46</v>
+        <v>337</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E90" t="s">
+        <v>13</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H90" s="34"/>
-      <c r="I90" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I90" s="34"/>
       <c r="J90" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="30.75">
       <c r="A91" s="26">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>250</v>
-      </c>
-      <c r="C91" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D91" t="s">
-        <v>12</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>46</v>
+        <v>339</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="D91" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E91" t="s">
+        <v>13</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H91" s="34"/>
-      <c r="I91" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I91" s="34"/>
       <c r="J91" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="60.75">
+        <v>32</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="60.75">
       <c r="A92" s="26">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>251</v>
-      </c>
-      <c r="C92" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H92" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>43</v>
+        <v>341</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="D92" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="I92" s="47" t="s">
+        <v>345</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="45.75">
       <c r="A93" s="26">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>255</v>
-      </c>
-      <c r="C93" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D93" t="s">
-        <v>12</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H93" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>43</v>
+        <v>346</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="D93" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E93" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I93" s="42" t="s">
+        <v>349</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="30.75">
+        <v>52</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="30.75">
       <c r="A94" s="26">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>258</v>
-      </c>
-      <c r="C94" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D94" t="s">
-        <v>12</v>
+        <v>350</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="D94" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="E94" t="s">
-        <v>259</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G94" t="s">
-        <v>260</v>
-      </c>
-      <c r="H94" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="F94" t="s">
+        <v>352</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H94" t="s">
+        <v>353</v>
+      </c>
+      <c r="I94" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="30.75">
+        <v>52</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="45.75">
       <c r="A95" s="26">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>262</v>
-      </c>
-      <c r="C95" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D95" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G95" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="H95" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>43</v>
+        <v>355</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="D95" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="I95" s="43" t="s">
+        <v>359</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="30.75">
+        <v>52</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="30.75">
       <c r="A96" s="26">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>266</v>
-      </c>
-      <c r="C96" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D96" t="s">
-        <v>12</v>
+        <v>360</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="E96" t="s">
-        <v>267</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G96" t="s">
-        <v>268</v>
-      </c>
-      <c r="H96" s="43" t="s">
-        <v>269</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="F96" t="s">
+        <v>362</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H96" t="s">
+        <v>363</v>
+      </c>
+      <c r="I96" s="43" t="s">
+        <v>364</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="26">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>270</v>
-      </c>
-      <c r="C97" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D97" t="s">
-        <v>12</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H97" s="42" t="s">
-        <v>272</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>43</v>
+        <v>365</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="D97" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I97" s="42" t="s">
+        <v>368</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="30.75">
       <c r="A98" s="26">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>273</v>
-      </c>
-      <c r="C98" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D98" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>46</v>
+        <v>369</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="D98" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E98" t="s">
+        <v>13</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="30.75">
+        <v>32</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="45.75">
       <c r="A99" s="26">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C99" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D99" t="s">
-        <v>12</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>46</v>
+        <v>371</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="D99" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H99" s="34"/>
-      <c r="I99" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I99" s="34"/>
       <c r="J99" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="30.75">
       <c r="A100" s="26">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>275</v>
-      </c>
-      <c r="C100" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D100" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H100" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="I100" s="4" t="s">
-        <v>43</v>
+        <v>373</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="D100" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E100" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I100" s="42" t="s">
+        <v>376</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="60.75">
+        <v>52</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="60.75">
       <c r="A101" s="26">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>278</v>
-      </c>
-      <c r="C101" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D101" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H101" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="I101" s="4" t="s">
-        <v>43</v>
+        <v>377</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="D101" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I101" s="47" t="s">
+        <v>381</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="45.75">
+        <v>52</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="45.75">
       <c r="A102" s="26">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>282</v>
-      </c>
-      <c r="C102" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D102" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="H102" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>43</v>
+        <v>382</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="D102" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I102" s="47" t="s">
+        <v>386</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="30.75">
       <c r="A103" s="26">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>286</v>
-      </c>
-      <c r="C103" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D103" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>46</v>
+        <v>387</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="D103" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E103" t="s">
+        <v>13</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H103" s="34"/>
-      <c r="I103" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I103" s="34"/>
       <c r="J103" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K103" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="30.75">
       <c r="A104" s="26">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>287</v>
-      </c>
-      <c r="C104" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D104" t="s">
-        <v>12</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H104" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>43</v>
+        <v>389</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I104" s="26" t="s">
+        <v>392</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="30.75">
       <c r="A105" s="26">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>290</v>
-      </c>
-      <c r="C105" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D105" t="s">
-        <v>12</v>
+        <v>393</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="D105" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="E105" t="s">
-        <v>291</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H105" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
+        <v>395</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I105" s="26" t="s">
+        <v>396</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="15">
+        <v>52</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="26">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>293</v>
-      </c>
-      <c r="C106" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D106" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>46</v>
+        <v>397</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="D106" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E106" t="s">
+        <v>13</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="26">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>294</v>
-      </c>
-      <c r="C107" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D107" t="s">
-        <v>12</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>46</v>
+        <v>399</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="D107" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E107" t="s">
+        <v>13</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="30.75">
       <c r="A108" s="26">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>295</v>
-      </c>
-      <c r="C108" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D108" t="s">
-        <v>12</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>46</v>
+        <v>401</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E108" t="s">
+        <v>13</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I108" s="4" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="30.75">
       <c r="A109" s="26">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>296</v>
-      </c>
-      <c r="C109" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D109" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>46</v>
+        <v>403</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="D109" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E109" t="s">
+        <v>13</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I109" s="4" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="30.75">
       <c r="A110" s="26">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>297</v>
-      </c>
-      <c r="C110" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D110" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>46</v>
+        <v>405</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="D110" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E110" t="s">
+        <v>13</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H110" s="34"/>
-      <c r="I110" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I110" s="34"/>
       <c r="J110" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="30.75">
       <c r="A111" s="26">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>298</v>
-      </c>
-      <c r="C111" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D111" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>46</v>
+        <v>407</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="D111" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E111" t="s">
+        <v>13</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H111" s="34"/>
-      <c r="I111" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I111" s="34"/>
       <c r="J111" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="26">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>299</v>
-      </c>
-      <c r="C112" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D112" t="s">
-        <v>12</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>46</v>
+        <v>409</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="D112" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H112" s="34"/>
-      <c r="I112" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I112" s="34"/>
       <c r="J112" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K112" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="45.75">
       <c r="A113" s="26">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>300</v>
-      </c>
-      <c r="C113" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D113" t="s">
-        <v>12</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>46</v>
+        <v>411</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="D113" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E113" t="s">
+        <v>13</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H113" s="34"/>
-      <c r="I113" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I113" s="34"/>
       <c r="J113" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="30.75">
       <c r="A114" s="26">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>301</v>
-      </c>
-      <c r="C114" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D114" t="s">
-        <v>12</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>46</v>
+        <v>413</v>
+      </c>
+      <c r="C114" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="D114" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E114" t="s">
+        <v>13</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H114" s="34"/>
-      <c r="I114" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I114" s="34"/>
       <c r="J114" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K114" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="30.75">
       <c r="A115" s="26">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>302</v>
-      </c>
-      <c r="C115" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D115" t="s">
-        <v>12</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>46</v>
+        <v>415</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="D115" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E115" t="s">
+        <v>13</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H115" s="34"/>
-      <c r="I115" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I115" s="34"/>
       <c r="J115" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K115" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="30.75">
       <c r="A116" s="26">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>303</v>
-      </c>
-      <c r="C116" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D116" t="s">
-        <v>12</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>46</v>
+        <v>417</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="D116" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E116" t="s">
+        <v>13</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H116" s="34"/>
-      <c r="I116" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I116" s="34"/>
       <c r="J116" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K116" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="45.75">
       <c r="A117" s="26">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>304</v>
-      </c>
-      <c r="C117" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D117" t="s">
-        <v>12</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>46</v>
+        <v>419</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="D117" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E117" t="s">
+        <v>13</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H117" s="34"/>
-      <c r="I117" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I117" s="34"/>
       <c r="J117" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K117" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="30.75">
       <c r="A118" s="26">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>305</v>
-      </c>
-      <c r="C118" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D118" t="s">
-        <v>12</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>46</v>
+        <v>421</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="D118" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E118" t="s">
+        <v>13</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I118" s="4" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="30.75">
       <c r="A119" s="26">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>306</v>
-      </c>
-      <c r="C119" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D119" t="s">
-        <v>12</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>46</v>
+        <v>423</v>
+      </c>
+      <c r="C119" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="D119" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E119" t="s">
+        <v>13</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I119" s="4" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K119" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="45.75">
       <c r="A120" s="26">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>307</v>
-      </c>
-      <c r="C120" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D120" t="s">
-        <v>12</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>46</v>
+        <v>425</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="D120" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E120" t="s">
+        <v>13</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K120" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="30.75">
       <c r="A121" s="26">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>308</v>
-      </c>
-      <c r="C121" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D121" t="s">
-        <v>12</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>46</v>
+        <v>427</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="D121" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E121" t="s">
+        <v>13</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I121" s="4" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="30.75">
       <c r="A122" s="26">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>309</v>
-      </c>
-      <c r="C122" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D122" t="s">
-        <v>12</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>46</v>
+        <v>429</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="D122" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E122" t="s">
+        <v>13</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I122" s="4" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="30.75">
       <c r="A123" s="26">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>310</v>
-      </c>
-      <c r="C123" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D123" t="s">
-        <v>12</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>46</v>
+        <v>431</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="D123" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E123" t="s">
+        <v>13</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I123" s="4" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="30.75">
       <c r="A124" s="26">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>311</v>
-      </c>
-      <c r="C124" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D124" t="s">
-        <v>12</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>46</v>
+        <v>433</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="D124" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E124" t="s">
+        <v>13</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I124" s="4" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K124" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="45.75">
       <c r="A125" s="26">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>312</v>
-      </c>
-      <c r="C125" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D125" t="s">
-        <v>12</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>46</v>
+        <v>435</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="D125" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E125" t="s">
+        <v>13</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I125" s="4" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K125" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="30.75">
       <c r="A126" s="26">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>313</v>
-      </c>
-      <c r="C126" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D126" t="s">
-        <v>12</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>46</v>
+        <v>437</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="D126" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E126" t="s">
+        <v>13</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I126" s="4" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="30.75">
       <c r="A127" s="26">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>314</v>
-      </c>
-      <c r="C127" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D127" t="s">
-        <v>12</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>46</v>
+        <v>439</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="D127" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E127" t="s">
+        <v>13</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I127" s="4" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -6162,15 +6931,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
@@ -6180,6 +6940,15 @@
     <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6424,11 +7193,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\Maelstrom tools\Neue templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1059" documentId="8_{45C6AF63-7CBD-4385-8119-A8B23C6EB9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A47BFA8C-7357-42A1-8D95-931A5CFF2BEE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D6E2E7-FEF6-4394-8E87-C9220789D812}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements_templa" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="442">
   <si>
     <t>index</t>
   </si>
@@ -77,14 +66,7 @@
     <t>Participant identification number</t>
   </si>
   <si>
-    <t>KORAS1_P1</t>
-  </si>
-  <si>
     <t>id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-id_creation</t>
   </si>
   <si>
     <t>complete</t>
@@ -183,6 +165,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">AV410 (potato) + AV420 (potato products)
@@ -193,6 +176,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>in this case, this combined group only consists of potatoes and no other tubers</t>
@@ -267,6 +251,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>AV440 (leafy and stem vegetables)</t>
     </r>
@@ -275,6 +260,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Gewichtung mit 0,5 sinnvoll?</t>
     </r>
@@ -818,6 +804,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">AV115 (sheep or goat meat) </t>
     </r>
@@ -826,6 +813,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Gewichtung mit 0,5 sinnvoll?</t>
     </r>
@@ -1503,13 +1491,22 @@
   </si>
   <si>
     <t>intake of amphibians, reptiles, snails, insects [g/d]</t>
+  </si>
+  <si>
+    <t>KORA_S1_P1</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>id_creation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1521,6 +1518,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1666,33 +1664,32 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1724,7 +1721,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -2093,9 +2090,9 @@
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2120,11 +2117,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2140,8 +2137,8 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2151,20 +2148,19 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2174,16 +2170,16 @@
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2197,15 +2193,12 @@
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2213,28 +2206,22 @@
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2242,51 +2229,60 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Link" xfId="42" builtinId="8"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2302,7 +2298,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2601,10 +2597,10 @@
   <dimension ref="A1:L127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="26"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
@@ -2616,10 +2612,10 @@
     <col min="9" max="9" width="39.28515625" style="26" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2654,4271 +2650,4274 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30.75">
-      <c r="A2" s="26">
+    <row r="2" spans="1:12" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="61">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="63" t="s">
+        <v>440</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>439</v>
+      </c>
+      <c r="F2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="G2" s="62" t="s">
+        <v>441</v>
+      </c>
+      <c r="H2" s="62" t="s">
+        <v>441</v>
+      </c>
+      <c r="I2" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="J2" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2" s="65"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="E3" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="G3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="H3" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I3" s="27"/>
       <c r="J3" s="23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="28" t="s">
+      <c r="G4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="H4" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="23" customFormat="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="27" t="s">
+      <c r="G5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="H5" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="57"/>
-    </row>
-    <row r="6" spans="1:12" ht="30.75">
+        <v>15</v>
+      </c>
+      <c r="L5" s="54"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="E6" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="H6" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="28" t="s">
+      <c r="G7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>22</v>
-      </c>
       <c r="H7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="32"/>
+        <v>20</v>
+      </c>
+      <c r="I7" s="31"/>
       <c r="J7" s="23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>39</v>
-      </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I8" s="28"/>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="45.75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="G9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="I9" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="J9" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="K9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="30.75">
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="J10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="33" t="s">
+      <c r="K10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="30.75">
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>53</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I11" s="33"/>
       <c r="J11" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="152.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="G12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="I12" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>61</v>
-      </c>
       <c r="J12" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30.75">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="G13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="I13" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="36" t="s">
-        <v>66</v>
-      </c>
       <c r="J13" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="45.75">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="G14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="I14" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>71</v>
-      </c>
       <c r="J14" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="30.75">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="G15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="29" t="s">
-        <v>75</v>
-      </c>
       <c r="J15" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="30.75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="G16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="11" t="s">
+      <c r="I16" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" s="38" t="s">
-        <v>80</v>
-      </c>
       <c r="J16" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="30.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I18" s="33"/>
       <c r="J18" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="30.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="G19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="39" t="s">
-        <v>88</v>
-      </c>
       <c r="J19" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="30.75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D20" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="H20" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="36" t="s">
-        <v>66</v>
-      </c>
       <c r="J20" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="45.75">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I21" s="33"/>
       <c r="J21" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="G22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="39" t="s">
-        <v>96</v>
-      </c>
       <c r="J22" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="45.75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I23" s="33"/>
       <c r="J23" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="290.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="285" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F24" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="G24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="62" t="s">
+      <c r="I24" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>103</v>
-      </c>
       <c r="J24" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="244.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="240" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F25" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="G25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="20" t="s">
+      <c r="I25" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="I25" s="40" t="s">
-        <v>108</v>
-      </c>
       <c r="J25" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="60.75">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F26" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="G26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" t="s">
-        <v>111</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>112</v>
-      </c>
       <c r="J26" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="60.75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="G27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="I27" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I27" s="41" t="s">
-        <v>117</v>
-      </c>
       <c r="J27" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="60.75">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I28" s="42"/>
+        <v>54</v>
+      </c>
+      <c r="I28" s="41"/>
       <c r="J28" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="76.5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="G29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="I29" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="I29" s="43" t="s">
-        <v>124</v>
-      </c>
       <c r="J29" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="30.75">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="G30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="44" t="s">
-        <v>128</v>
-      </c>
       <c r="J30" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="76.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I31" s="28"/>
       <c r="J31" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="30.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F32" t="s">
         <v>131</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="G32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="D32" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" t="s">
-        <v>133</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>134</v>
-      </c>
       <c r="J32" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="30.75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="26">
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F33" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="G33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="J33" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="26">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F34" t="s">
         <v>139</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="G34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D34" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="J34" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="45.75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="30.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="26">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I36" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I36" s="33"/>
       <c r="J36" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="30.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="26">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F37" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="G37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="D37" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" t="s">
-        <v>149</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" s="34" t="s">
-        <v>150</v>
-      </c>
       <c r="J37" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="60.75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="26">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I38" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I38" s="33"/>
       <c r="J38" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="76.5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="26">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F39" t="s">
         <v>153</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="G39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="D39" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" t="s">
-        <v>155</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" s="34" t="s">
-        <v>156</v>
-      </c>
       <c r="J39" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="91.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="26">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="54" t="s">
+      <c r="G40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="I40" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="26">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="I40" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="45.75">
-      <c r="A41" s="26">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C41" s="20" t="s">
+      <c r="H41" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D41" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="17" t="s">
+      <c r="I41" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I41" s="43" t="s">
-        <v>166</v>
-      </c>
       <c r="J41" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="76.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="26">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="G42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D42" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="6" t="s">
+      <c r="I42" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I42" s="42" t="s">
-        <v>171</v>
-      </c>
       <c r="J42" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="60.75">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="26">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F43" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="G43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="D43" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="62" t="s">
+      <c r="I43" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H43" s="62" t="s">
-        <v>175</v>
-      </c>
-      <c r="I43" s="44" t="s">
-        <v>176</v>
-      </c>
       <c r="J43" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L43" s="58"/>
-    </row>
-    <row r="44" spans="1:12" ht="30.75">
+        <v>51</v>
+      </c>
+      <c r="L43" s="55"/>
+    </row>
+    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="26">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F44" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="G44" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="D44" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="13" t="s">
+      <c r="I44" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="I44" s="44" t="s">
-        <v>181</v>
-      </c>
       <c r="J44" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="30.75">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="26">
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F45" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="G45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="D45" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I45" s="42" t="s">
-        <v>185</v>
-      </c>
       <c r="J45" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="45.75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="26">
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="30.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="26">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" s="21" customFormat="1" ht="30.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="26">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D48" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I48" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="C48" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="D48" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I48" s="45" t="s">
-        <v>192</v>
-      </c>
       <c r="J48" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L48" s="59"/>
-    </row>
-    <row r="49" spans="1:11" ht="121.5">
+        <v>31</v>
+      </c>
+      <c r="L48" s="56"/>
+    </row>
+    <row r="49" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A49" s="26">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C49" s="53" t="s">
+      <c r="G49" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D49" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="7" t="s">
+      <c r="I49" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="I49" s="33" t="s">
-        <v>197</v>
-      </c>
       <c r="J49" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="60.75">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="26">
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="G50" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D50" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E50" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="1" t="s">
+      <c r="I50" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I50" s="43" t="s">
-        <v>202</v>
-      </c>
       <c r="J50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="30.75">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="26">
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="G51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="D51" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E51" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I51" s="34" t="s">
-        <v>206</v>
-      </c>
       <c r="J51" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="30.75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="26">
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F52" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="G52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="D52" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I52" s="34" t="s">
-        <v>210</v>
-      </c>
       <c r="J52" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="30.75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="26">
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="G53" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="D53" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I53" s="34" t="s">
-        <v>214</v>
-      </c>
       <c r="J53" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="30.75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="26">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F54" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="G54" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="D54" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E54" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="13" t="s">
+      <c r="I54" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H54" s="18" t="s">
+      <c r="J54" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="26">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="I54" s="46" t="s">
+      <c r="C55" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="J54" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="30.75">
-      <c r="A55" s="26">
-        <v>54</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>221</v>
-      </c>
       <c r="D55" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E55" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I55" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I55" s="33"/>
       <c r="J55" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="45.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="26">
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D56" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E56" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="13" t="s">
+      <c r="H56" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="I56" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H56" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="I56" s="46" t="s">
-        <v>219</v>
-      </c>
       <c r="J56" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="45.75">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="26">
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F57" t="s">
         <v>224</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="G57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="D57" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E57" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" t="s">
-        <v>226</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I57" s="42" t="s">
-        <v>227</v>
-      </c>
       <c r="J57" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="76.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="26">
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E58" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I58" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I58" s="33"/>
       <c r="J58" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="45.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="26">
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I59" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I59" s="33"/>
       <c r="J59" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="60.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E60" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I60" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I60" s="33"/>
       <c r="J60" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="45.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="26">
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E61" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I61" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I61" s="33"/>
       <c r="J61" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="60.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="26">
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E62" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I62" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I62" s="33"/>
       <c r="J62" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="60.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="26">
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E63" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I63" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I63" s="33"/>
       <c r="J63" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="121.5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A64" s="26">
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F64" t="s">
         <v>240</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="G64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="D64" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E64" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" t="s">
-        <v>242</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I64" s="34" t="s">
-        <v>243</v>
-      </c>
       <c r="J64" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="60.75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="26">
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="G65" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H65" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="D65" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E65" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="7" t="s">
+      <c r="I65" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="I65" s="33" t="s">
-        <v>248</v>
-      </c>
       <c r="J65" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="30.75">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="26">
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F66" t="s">
         <v>249</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="G66" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="D66" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E66" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" t="s">
-        <v>251</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I66" s="42" t="s">
-        <v>252</v>
-      </c>
       <c r="J66" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="106.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A67" s="26">
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F67" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="G67" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H67" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="D67" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E67" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="14" t="s">
+      <c r="I67" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="G67" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H67" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="I67" s="33" t="s">
-        <v>257</v>
-      </c>
       <c r="J67" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="26">
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F68" t="s">
         <v>258</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="G68" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="D68" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E68" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" t="s">
-        <v>260</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I68" s="42" t="s">
-        <v>261</v>
-      </c>
       <c r="J68" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="30.75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="26">
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E69" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I69" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I69" s="33"/>
       <c r="J69" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="45.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="26">
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F70" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="G70" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H70" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="D70" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E70" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="13" t="s">
+      <c r="I70" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="I70" s="43" t="s">
-        <v>268</v>
-      </c>
       <c r="J70" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="30.75">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="26">
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>267</v>
+      </c>
+      <c r="C71" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F71" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C71" s="53" t="s">
+      <c r="G71" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H71" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D71" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E71" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="6" t="s">
+      <c r="I71" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="G71" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="I71" s="42" t="s">
-        <v>273</v>
-      </c>
       <c r="J71" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="106.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A72" s="26">
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>272</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F72" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="G72" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="D72" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E72" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I72" s="42" t="s">
-        <v>277</v>
-      </c>
       <c r="J72" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="60.75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="26">
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>276</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F73" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="G73" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H73" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D73" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E73" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="14" t="s">
+      <c r="I73" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="G73" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H73" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="I73" s="43" t="s">
-        <v>282</v>
-      </c>
       <c r="J73" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="30.75">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="26">
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>281</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F74" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="G74" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="D74" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E74" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I74" s="42" t="s">
-        <v>286</v>
-      </c>
       <c r="J74" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="26">
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>285</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F75" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="G75" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="D75" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E75" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I75" s="42" t="s">
-        <v>290</v>
-      </c>
       <c r="J75" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="30.75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="26">
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F76" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="G76" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="D76" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E76" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I76" s="42" t="s">
-        <v>294</v>
-      </c>
       <c r="J76" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="30.75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="26">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E77" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I77" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I77" s="33"/>
       <c r="J77" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="30.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="26">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E78" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="45.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="26">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E79" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="76.5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="26">
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>299</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F80" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="G80" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H80" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D80" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="17" t="s">
+      <c r="I80" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="G80" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H80" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="I80" s="43" t="s">
-        <v>305</v>
-      </c>
       <c r="J80" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="45.75">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="26">
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>304</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F81" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="G81" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H81" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="D81" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E81" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="6" t="s">
+      <c r="I81" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="G81" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="I81" s="42" t="s">
-        <v>310</v>
-      </c>
       <c r="J81" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="60.75">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="26">
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>309</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F82" t="s">
         <v>311</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="G82" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H82" t="s">
         <v>312</v>
       </c>
-      <c r="D82" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E82" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="I82" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="G82" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H82" t="s">
-        <v>314</v>
-      </c>
-      <c r="I82" s="43" t="s">
-        <v>315</v>
-      </c>
       <c r="J82" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="106.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A83" s="26">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E83" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F83" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="G83" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="D83" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E83" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I83" s="26" t="s">
-        <v>319</v>
-      </c>
       <c r="J83" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="30.75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="26">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E84" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I84" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I84" s="33"/>
       <c r="J84" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="45.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="26">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E85" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="30.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="26">
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>322</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="D86" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F86" t="s">
         <v>324</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="G86" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I86" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="D86" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E86" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" t="s">
-        <v>326</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I86" s="34" t="s">
-        <v>327</v>
-      </c>
       <c r="J86" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="26">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E87" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I87" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I87" s="33"/>
       <c r="J87" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="30.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="26">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E88" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E88" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I88" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I88" s="33"/>
       <c r="J88" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" s="21" customFormat="1" ht="30.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="26">
         <v>88</v>
       </c>
       <c r="B89" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="D89" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E89" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="G89" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H89" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D89" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" s="2" t="s">
+      <c r="I89" s="43" t="s">
         <v>334</v>
       </c>
-      <c r="G89" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="I89" s="44" t="s">
-        <v>336</v>
-      </c>
       <c r="J89" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L89" s="59"/>
-    </row>
-    <row r="90" spans="1:12" ht="30.75">
+        <v>51</v>
+      </c>
+      <c r="L89" s="56"/>
+    </row>
+    <row r="90" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="26">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E90" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E90" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I90" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I90" s="33"/>
       <c r="J90" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="30.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="26">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E91" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E91" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I91" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I91" s="33"/>
       <c r="J91" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="60.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="26">
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>339</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="D92" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E92" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F92" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="G92" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H92" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="D92" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="7" t="s">
+      <c r="I92" s="46" t="s">
         <v>343</v>
       </c>
-      <c r="G92" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="I92" s="47" t="s">
-        <v>345</v>
-      </c>
       <c r="J92" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="45.75">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="26">
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>344</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="D93" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E93" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F93" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C93" s="20" t="s">
+      <c r="G93" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I93" s="41" t="s">
         <v>347</v>
       </c>
-      <c r="D93" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E93" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I93" s="42" t="s">
-        <v>349</v>
-      </c>
       <c r="J93" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="30.75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="26">
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>348</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="D94" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E94" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F94" t="s">
         <v>350</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="G94" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H94" t="s">
         <v>351</v>
       </c>
-      <c r="D94" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E94" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="I94" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="G94" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H94" t="s">
-        <v>353</v>
-      </c>
-      <c r="I94" s="33" t="s">
-        <v>354</v>
-      </c>
       <c r="J94" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="45.75">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="26">
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>353</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="D95" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E95" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F95" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="G95" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H95" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="D95" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E95" t="s">
-        <v>13</v>
-      </c>
-      <c r="F95" s="13" t="s">
+      <c r="I95" s="42" t="s">
         <v>357</v>
       </c>
-      <c r="G95" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H95" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="I95" s="43" t="s">
-        <v>359</v>
-      </c>
       <c r="J95" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="30.75">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="26">
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>358</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E96" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F96" t="s">
         <v>360</v>
       </c>
-      <c r="C96" s="20" t="s">
+      <c r="G96" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H96" t="s">
         <v>361</v>
       </c>
-      <c r="D96" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E96" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="I96" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="G96" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H96" t="s">
-        <v>363</v>
-      </c>
-      <c r="I96" s="43" t="s">
-        <v>364</v>
-      </c>
       <c r="J96" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="26">
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>363</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="D97" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E97" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F97" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="C97" s="20" t="s">
+      <c r="G97" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I97" s="41" t="s">
         <v>366</v>
       </c>
-      <c r="D97" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E97" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I97" s="42" t="s">
-        <v>368</v>
-      </c>
       <c r="J97" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="30.75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="26">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E98" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E98" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="45.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="26">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E99" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E99" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I99" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I99" s="33"/>
       <c r="J99" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="30.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="26">
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>371</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="D100" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E100" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F100" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="C100" s="20" t="s">
+      <c r="G100" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I100" s="41" t="s">
         <v>374</v>
       </c>
-      <c r="D100" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E100" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I100" s="42" t="s">
-        <v>376</v>
-      </c>
       <c r="J100" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="60.75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="26">
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>375</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="D101" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E101" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C101" s="20" t="s">
+      <c r="G101" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H101" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D101" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E101" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="1" t="s">
+      <c r="I101" s="46" t="s">
         <v>379</v>
       </c>
-      <c r="G101" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="I101" s="47" t="s">
-        <v>381</v>
-      </c>
       <c r="J101" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="45.75">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="26">
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>380</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="D102" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E102" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C102" s="20" t="s">
+      <c r="G102" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H102" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D102" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E102" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" s="1" t="s">
+      <c r="I102" s="46" t="s">
         <v>384</v>
       </c>
-      <c r="G102" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="I102" s="47" t="s">
-        <v>386</v>
-      </c>
       <c r="J102" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="30.75">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="26">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E103" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E103" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I103" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I103" s="33"/>
       <c r="J103" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="30.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="26">
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>387</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F104" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="C104" s="20" t="s">
+      <c r="G104" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I104" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="D104" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I104" s="26" t="s">
-        <v>392</v>
-      </c>
       <c r="J104" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="30.75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="26">
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>391</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="D105" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E105" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F105" t="s">
         <v>393</v>
       </c>
-      <c r="C105" s="20" t="s">
+      <c r="G105" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I105" s="26" t="s">
         <v>394</v>
       </c>
-      <c r="D105" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E105" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" t="s">
-        <v>395</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I105" s="26" t="s">
-        <v>396</v>
-      </c>
       <c r="J105" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="26">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E106" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E106" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="26">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D107" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E107" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E107" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K107" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="30.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="26">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E108" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E108" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="30.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="26">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D109" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E109" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E109" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="30.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="26">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E110" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E110" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I110" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I110" s="33"/>
       <c r="J110" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K110" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="30.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="26">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E111" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E111" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I111" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I111" s="33"/>
       <c r="J111" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="26">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E112" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E112" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I112" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I112" s="33"/>
       <c r="J112" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="45.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="26">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D113" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E113" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E113" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I113" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I113" s="33"/>
       <c r="J113" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="30.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="26">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D114" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E114" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E114" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I114" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I114" s="33"/>
       <c r="J114" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="30.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="26">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D115" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E115" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E115" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I115" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I115" s="33"/>
       <c r="J115" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="30.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="26">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D116" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E116" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E116" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I116" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I116" s="33"/>
       <c r="J116" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K116" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="45.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="26">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D117" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E117" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E117" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I117" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="I117" s="33"/>
       <c r="J117" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K117" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="30.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="26">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D118" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E118" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E118" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K118" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="30.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="26">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D119" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E119" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E119" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="45.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="26">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D120" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E120" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E120" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="30.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="26">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D121" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E121" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E121" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="30.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="26">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D122" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E122" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E122" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K122" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="30.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="26">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D123" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E123" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E123" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K123" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="30.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="26">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D124" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E124" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E124" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="45.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="26">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D125" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E125" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E125" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="30.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="26">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D126" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E126" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E126" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="30.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="26">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D127" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E127" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E127" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -6931,18 +6930,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6951,7 +6938,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -7192,14 +7179,52 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8FD927B-486E-4736-8E9F-ABBC39C726CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8FD927B-486E-4736-8E9F-ABBC39C726CA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D6E2E7-FEF6-4394-8E87-C9220789D812}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BDD348-190A-4576-95F9-28088677D4E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements_templa" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="444">
   <si>
     <t>index</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>Intake of starchy roots or tubers [g/d]</t>
-  </si>
-  <si>
-    <t>num</t>
   </si>
   <si>
     <t>AV410;
@@ -158,29 +155,6 @@
   </si>
   <si>
     <t>AV410 + AV420</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">AV410 (potato) + AV420 (potato products)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>in this case, this combined group only consists of potatoes and no other tubers</t>
-    </r>
   </si>
   <si>
     <t>partial</t>
@@ -244,26 +218,6 @@
   </si>
   <si>
     <t>0,5*AV440</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AV440 (leafy and stem vegetables)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Gewichtung mit 0,5 sinnvoll?</t>
-    </r>
   </si>
   <si>
     <t>FRUITINGVEG_0202</t>
@@ -796,7 +750,694 @@
     <t>AV115</t>
   </si>
   <si>
-    <t>0,5 * AV115</t>
+    <t>HORSE_070105</t>
+  </si>
+  <si>
+    <t>Intake of Horse fresh meat [g/d]</t>
+  </si>
+  <si>
+    <t>GOAT_070106</t>
+  </si>
+  <si>
+    <t>Intake of Goat fresh meat, meat food and meat products [g/d]</t>
+  </si>
+  <si>
+    <t>POULTRY_0702</t>
+  </si>
+  <si>
+    <t>Intake of poultry fresh meat (muscle meat) and poultry meat food [g/d]</t>
+  </si>
+  <si>
+    <t>AV120</t>
+  </si>
+  <si>
+    <t>AV120 (poultry meat)</t>
+  </si>
+  <si>
+    <t>OTHERPOULTRY_070200</t>
+  </si>
+  <si>
+    <t>Intake of other poultry fresh meat, meat products, meat preparations and other poultry meat food [g/d]</t>
+  </si>
+  <si>
+    <t>CHICKEN_070201</t>
+  </si>
+  <si>
+    <t>Intake of chicken fresh meat, meat food and meat products [g/d]</t>
+  </si>
+  <si>
+    <t>TURKEY_070202</t>
+  </si>
+  <si>
+    <t>Intake of turkey fresh meat, meat food, meat products and meat preparations [g/d]</t>
+  </si>
+  <si>
+    <t>DUCK_070203</t>
+  </si>
+  <si>
+    <t>Intake of duck fresh meat, meat food, meat products, meat preparations [g/d]</t>
+  </si>
+  <si>
+    <t>GOOSE_070204</t>
+  </si>
+  <si>
+    <t>Intake of goose fresh meat, meat food, meat products and  meat preparations [g/d]</t>
+  </si>
+  <si>
+    <t>RABBIT_070205</t>
+  </si>
+  <si>
+    <t>Intake of rabbit fresh meat, meat food, meat products and meat preparations [g/d]</t>
+  </si>
+  <si>
+    <t>GAME_0703</t>
+  </si>
+  <si>
+    <t>Intake of Game mammals fresh meat/fat tissue, meat food, meat products, meat preparations, Game birds fresh meat, meat food, meat products, meat preparations and other game birds fresh meat [g/d]</t>
+  </si>
+  <si>
+    <t>AV117</t>
+  </si>
+  <si>
+    <t>AV117 (game meat)</t>
+  </si>
+  <si>
+    <t>PROCMEAT_0704</t>
+  </si>
+  <si>
+    <t>Intake of processed or preserved meat [g/d]</t>
+  </si>
+  <si>
+    <t>AV131; AV141; AV145; AV147; AV150; AV160</t>
+  </si>
+  <si>
+    <t>AV131 + AV141 + AV145 + AV147 + AV150 + AV160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AV131 (all kinds of minced meat) + AV141 (sausage) + AV145 (ham) + AV147 (bacon) + AV150 (canned, frozen meat or meat products) + AV160 (other meat products) </t>
+  </si>
+  <si>
+    <t>OFFALS_0705</t>
+  </si>
+  <si>
+    <t>Intake of animal offal and other slaughtering [g/d]</t>
+  </si>
+  <si>
+    <t>AV135</t>
+  </si>
+  <si>
+    <t>AV135 (animal offal)</t>
+  </si>
+  <si>
+    <t>FISH_SHELLFISH_08</t>
+  </si>
+  <si>
+    <t>Intake of fish, seafood, amphibians, reptiles and invertebrates, products of animal origin - fish, fish products and any other marine and freshwater food products [g/d]</t>
+  </si>
+  <si>
+    <t>AV170; AV180; AV190</t>
+  </si>
+  <si>
+    <t>AV170 + AV180 + AV190</t>
+  </si>
+  <si>
+    <t>AV170 (fish) + AV180 (canned fish) + AV190 (other fish products)</t>
+  </si>
+  <si>
+    <t>FISH_0801</t>
+  </si>
+  <si>
+    <t>Intake of Fish (meat) [g/d]</t>
+  </si>
+  <si>
+    <t>AV170</t>
+  </si>
+  <si>
+    <t>AV170 (fish)</t>
+  </si>
+  <si>
+    <t>CRUSTACEANS_0802</t>
+  </si>
+  <si>
+    <t>Intake of seafood and products thereof [g/d]</t>
+  </si>
+  <si>
+    <t>FISH_PROD_0803</t>
+  </si>
+  <si>
+    <t>Intake of fish and seafood processed
+Fish fingers, breaded [g/d]</t>
+  </si>
+  <si>
+    <t>AV180; AV190</t>
+  </si>
+  <si>
+    <t>AV180 + AV190</t>
+  </si>
+  <si>
+    <t>AV180 (canned fish) + AV190 (other fish products)</t>
+  </si>
+  <si>
+    <t>EGG_PROD_09</t>
+  </si>
+  <si>
+    <t>Intake of eggs and egg products [g/d]</t>
+  </si>
+  <si>
+    <t>AV250; AV255</t>
+  </si>
+  <si>
+    <t>AV250 + AV255</t>
+  </si>
+  <si>
+    <t>AV250 (fresh eggs) + AV255 (egg products)</t>
+  </si>
+  <si>
+    <t>EGGS_0901</t>
+  </si>
+  <si>
+    <t>Intake of liquid egg products, hardened egg products, boiled eggs products, fried eggs products and processed eggs and egg products [g/d]</t>
+  </si>
+  <si>
+    <t>AV255</t>
+  </si>
+  <si>
+    <t>AV255 (egg products)</t>
+  </si>
+  <si>
+    <t>FAT_10</t>
+  </si>
+  <si>
+    <t>Intake of animal and vegetable fats and oils and primary derivatives thereof [g/d]</t>
+  </si>
+  <si>
+    <t>AV270; AV291; AV293; AV295</t>
+  </si>
+  <si>
+    <t>AV270 + AV291 + AV293 + AV295</t>
+  </si>
+  <si>
+    <t>AV270 (butter) + AV291 (margarines) + AV293 (vegetable edible oils) + AV295 (other edible oils)</t>
+  </si>
+  <si>
+    <t>VEGOILS_1001</t>
+  </si>
+  <si>
+    <t>Intake of vegetable fats and oils, edible [g/d]</t>
+  </si>
+  <si>
+    <t>AV293</t>
+  </si>
+  <si>
+    <t>AV293 (vegetable edible oils)</t>
+  </si>
+  <si>
+    <t>BUTTER_1002</t>
+  </si>
+  <si>
+    <t>Intake of butter [g/d]</t>
+  </si>
+  <si>
+    <t>AV270</t>
+  </si>
+  <si>
+    <t>AV270 (butter)</t>
+  </si>
+  <si>
+    <t>MARGARINE_1003</t>
+  </si>
+  <si>
+    <t>Intake of margarines and similar [g/d]</t>
+  </si>
+  <si>
+    <t>AV291</t>
+  </si>
+  <si>
+    <t>AV291 (margarines)</t>
+  </si>
+  <si>
+    <t>FRYFAT_1004</t>
+  </si>
+  <si>
+    <t>Intake of blended frying oil/fats [g/d]</t>
+  </si>
+  <si>
+    <t>MARINEOILS_1005</t>
+  </si>
+  <si>
+    <t>Intake of fats and oils from marine animals [g/d]</t>
+  </si>
+  <si>
+    <t>OTHER_ANIMALFAT_1006</t>
+  </si>
+  <si>
+    <t>Intake of animal fats and oils (processed fat from animal tissue) [g/d]</t>
+  </si>
+  <si>
+    <t>SUGAR_CONFECT_11</t>
+  </si>
+  <si>
+    <t>Intake of sugar and similar, confectionery and water-based sweet desserts [g/d]</t>
+  </si>
+  <si>
+    <t>AV610; AV681; AV684; AV687; AV620; AV630; AV650; AV670</t>
+  </si>
+  <si>
+    <t>AV610 + AV681 + AV684, AV687 +AV620 + AV630 + AV650 + AV670</t>
+  </si>
+  <si>
+    <t>AV610 (sugar) + AV681 (honey) + AV684 (jam) + AV687 (other sweet spreads) + AV620 (cacao products) + AV630 (chocolate products) + AV650 (confectionary) + AV670 (all ice cream)</t>
+  </si>
+  <si>
+    <t>HONEY_JAM_1101</t>
+  </si>
+  <si>
+    <t>Intake of sugars, syrups, honey and table-top sweeteners [g/d]</t>
+  </si>
+  <si>
+    <t>AV681; AV684</t>
+  </si>
+  <si>
+    <t>AV681 + AV684</t>
+  </si>
+  <si>
+    <t>AV681 (honey) + AV684 (jam)</t>
+  </si>
+  <si>
+    <t>CHOCOLATE_1102</t>
+  </si>
+  <si>
+    <t>Intake of chocolate, chocolate products and chocolate coated conectionary [g/d]</t>
+  </si>
+  <si>
+    <t>AV620; AV630</t>
+  </si>
+  <si>
+    <t>AV620 + AV630</t>
+  </si>
+  <si>
+    <t>AV620 (cacao products) + AV630 (chocolate products)</t>
+  </si>
+  <si>
+    <t>NONCHOC_SWEETS_1103</t>
+  </si>
+  <si>
+    <t>Intake of sweet bars and other formed sweet masses, candies (soft and hard) and other confectionery including breath refreshening microsweets [g/d]</t>
+  </si>
+  <si>
+    <t>AV650</t>
+  </si>
+  <si>
+    <t>AV650 (confectionary)</t>
+  </si>
+  <si>
+    <t>SYRUP_1104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intake of corn syrup and sugar beet syrup [g/d]	</t>
+  </si>
+  <si>
+    <t>ICECREAM_1105</t>
+  </si>
+  <si>
+    <t>Intake of spoonable desserts and ice creams (generic) [g/d]</t>
+  </si>
+  <si>
+    <t>ICECREAM_MILK_110501</t>
+  </si>
+  <si>
+    <t>Intake of milk-based ice cream [g/d]</t>
+  </si>
+  <si>
+    <t>AV670</t>
+  </si>
+  <si>
+    <t>AV670 (all ice cream)</t>
+  </si>
+  <si>
+    <t>SORBET_110502</t>
+  </si>
+  <si>
+    <t>Sorbet intake [g/d]</t>
+  </si>
+  <si>
+    <t>WATER_ICE_110503</t>
+  </si>
+  <si>
+    <t>Intake of water-based ice creams [g/d]</t>
+  </si>
+  <si>
+    <t>CAKES_12</t>
+  </si>
+  <si>
+    <t>Intake of cakes and fine bakery wares [g/d]</t>
+  </si>
+  <si>
+    <t>AV540; AV570</t>
+  </si>
+  <si>
+    <t>AV540 + AV570</t>
+  </si>
+  <si>
+    <t>AV540 (fine bakery wares) + AV570 (long-life baked goods)</t>
+  </si>
+  <si>
+    <t>VARPASTRY_1201</t>
+  </si>
+  <si>
+    <t>Intake of various pastry [g/d]</t>
+  </si>
+  <si>
+    <t>DRYCAKE_1202</t>
+  </si>
+  <si>
+    <t>Intake of sponge biscuits and plain cakes [g/d]</t>
+  </si>
+  <si>
+    <t>NONALC_BEV_13</t>
+  </si>
+  <si>
+    <t>Intake of non-alcoholic beverages [g/d]</t>
+  </si>
+  <si>
+    <t>AV810; AV821; AV825; AV829</t>
+  </si>
+  <si>
+    <t>AV810 + AV821 + AV825 + AV829</t>
+  </si>
+  <si>
+    <t>AV810 (fruit / vegetable juice) +
+AV821 (table water) +
+AV825 (caffeinated lemonade) +
+AV829 (other soft drinks)</t>
+  </si>
+  <si>
+    <t>FRUITVEG_JUICE_1301</t>
+  </si>
+  <si>
+    <t>Intake of fruit and vegetable juices and nectars [g/d]</t>
+  </si>
+  <si>
+    <t>AV810</t>
+  </si>
+  <si>
+    <t>AV810 (fruit / vegetable juice)</t>
+  </si>
+  <si>
+    <t>SOFTDRINKS_1302</t>
+  </si>
+  <si>
+    <t>Intake of soft drinks (flavoured, no fruit) [g/d]</t>
+  </si>
+  <si>
+    <t>AV825; AV829</t>
+  </si>
+  <si>
+    <t>AV825 + AV829</t>
+  </si>
+  <si>
+    <t>AV825 (caffeinated lemonade) + AV829 (other soft drinks)</t>
+  </si>
+  <si>
+    <t>HOTDRINKS_1303</t>
+  </si>
+  <si>
+    <t>Intake of hot drinks and similar (coffee, cocoa, tea and herbal infusions) [g/d]</t>
+  </si>
+  <si>
+    <t>AV841; AV845; AV850</t>
+  </si>
+  <si>
+    <t>AV841 + AV845 + AV850</t>
+  </si>
+  <si>
+    <t>AV841 (roasted coffee) + AV845 (coffee extracts) + AV850 (tea)</t>
+  </si>
+  <si>
+    <t>COFFEE_130301</t>
+  </si>
+  <si>
+    <t>Coffee intake [g/d]</t>
+  </si>
+  <si>
+    <t>AV841; AV845</t>
+  </si>
+  <si>
+    <t>AV841 + AV845</t>
+  </si>
+  <si>
+    <t>AV841 (roasted coffee) + AV845 (coffee extracts)</t>
+  </si>
+  <si>
+    <t>TEA_130302</t>
+  </si>
+  <si>
+    <t>Tea intake [g/d]</t>
+  </si>
+  <si>
+    <t>AV850</t>
+  </si>
+  <si>
+    <t>AV850 (tea)</t>
+  </si>
+  <si>
+    <t>HERBALTEA_130303</t>
+  </si>
+  <si>
+    <t>Intake of herbal and other non-tea infusions [g/d]</t>
+  </si>
+  <si>
+    <t>COFFEE_IMITATE_130304</t>
+  </si>
+  <si>
+    <t>Intake of chicory coffee infusion and coffee imitate beverages [g/d]</t>
+  </si>
+  <si>
+    <t>WATER_1304</t>
+  </si>
+  <si>
+    <t>Intake of water and water-based beverages [g/d]</t>
+  </si>
+  <si>
+    <t>AV821</t>
+  </si>
+  <si>
+    <t>AV821 (table water)</t>
+  </si>
+  <si>
+    <t>ALC_BEV_14</t>
+  </si>
+  <si>
+    <t>Alcoholic beverage intake [g/d]</t>
+  </si>
+  <si>
+    <t>AV860; AV870;  AV881; 
+AV885; AV889</t>
+  </si>
+  <si>
+    <t>AV860 + AV870 +  AV881 +  
+AV885 + AV889</t>
+  </si>
+  <si>
+    <t>AV860 (spirits) + AV870 (beer) + AV881 (grape wine) + 
+AV885 (grape sparkling wine) + AV889 (fruitwine)</t>
+  </si>
+  <si>
+    <t>WINE_1401</t>
+  </si>
+  <si>
+    <t>Intake of wine and wine-like drinks [g/d]</t>
+  </si>
+  <si>
+    <t>AV881;  
+AV885; AV889</t>
+  </si>
+  <si>
+    <t>AV881 +  
+AV885 + AV889</t>
+  </si>
+  <si>
+    <t>AV881 (grape wine) + 
+AV885 (grape sparkling wine) + AV889 (fruitwine)</t>
+  </si>
+  <si>
+    <t>FORTWINE_1402</t>
+  </si>
+  <si>
+    <t>Intake of fortified/liqueur wine (as part-nature) [g/d]</t>
+  </si>
+  <si>
+    <t>BEER_1403</t>
+  </si>
+  <si>
+    <t>Intake of beer and beer-like beverage [g/d]</t>
+  </si>
+  <si>
+    <t>AV870</t>
+  </si>
+  <si>
+    <t>AV870 (beer)</t>
+  </si>
+  <si>
+    <t>SPIRITS_1404</t>
+  </si>
+  <si>
+    <t>Intake of unsweetened spirits [g/d]</t>
+  </si>
+  <si>
+    <t>AV860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AV860 (spirits) </t>
+  </si>
+  <si>
+    <t>HERBLIQUEUR_1405</t>
+  </si>
+  <si>
+    <t>Intake of herb liqueur [g/d]</t>
+  </si>
+  <si>
+    <t>LIQUEURS_1406</t>
+  </si>
+  <si>
+    <t>Intake of liqueurs [g/d]</t>
+  </si>
+  <si>
+    <t>COCKTAILS_1407</t>
+  </si>
+  <si>
+    <t>Intake of mixed alcoholic drinks [g/d]</t>
+  </si>
+  <si>
+    <t>CONDIMENT_SAUCES_15</t>
+  </si>
+  <si>
+    <t>Intake of seasoning, sauces and condiments [g/d]</t>
+  </si>
+  <si>
+    <t>SAUCES_1501</t>
+  </si>
+  <si>
+    <t>Intake of savoury sauces [g/d]</t>
+  </si>
+  <si>
+    <t>TOMATOSAUCE_150101</t>
+  </si>
+  <si>
+    <t>Intake of tomato-containing cooked sauces [g/d]</t>
+  </si>
+  <si>
+    <t>DRESSINGS_150102</t>
+  </si>
+  <si>
+    <t>Salad dressing intake [g/d]</t>
+  </si>
+  <si>
+    <t>MAYONNAISE_150103</t>
+  </si>
+  <si>
+    <t>Intake of mayonnaise, hollandaise and related sauces [g/d]</t>
+  </si>
+  <si>
+    <t>DESSERTSAUCE_150104</t>
+  </si>
+  <si>
+    <t>Intakes of dessert sauces/toppings [g/d]</t>
+  </si>
+  <si>
+    <t>YEAST_1502</t>
+  </si>
+  <si>
+    <t>Intake of yeast cultures [g/d]</t>
+  </si>
+  <si>
+    <t>HERBS_SPICES_1503</t>
+  </si>
+  <si>
+    <t>Intakes of berbs, spices and similar [g/d]</t>
+  </si>
+  <si>
+    <t>CONDIMENTS_1504</t>
+  </si>
+  <si>
+    <t>Condiments (including table-top formats) intakes [g/d]</t>
+  </si>
+  <si>
+    <t>SOUP_BOUILLON_16</t>
+  </si>
+  <si>
+    <t>Intake of soups and broths [g/d]</t>
+  </si>
+  <si>
+    <t>SOUP_1601</t>
+  </si>
+  <si>
+    <t>Intake of soups (ready-to-eat) [g/d]</t>
+  </si>
+  <si>
+    <t>BOUILLON_1602</t>
+  </si>
+  <si>
+    <t>Intake of mixed vegetables soup, clear
+Meat soup, clear [g/d]</t>
+  </si>
+  <si>
+    <t>MISCELLANEOUS_17</t>
+  </si>
+  <si>
+    <t>Intake of miscellaneous [g/d]</t>
+  </si>
+  <si>
+    <t>VEG_DISHES_1700</t>
+  </si>
+  <si>
+    <t>Intake of vegetarian products and dishes [g/d]</t>
+  </si>
+  <si>
+    <t>SOY_PROD_1701</t>
+  </si>
+  <si>
+    <t>Intake of Soya drink and yoghurt [g/d]</t>
+  </si>
+  <si>
+    <t>DIET_PROD_1702</t>
+  </si>
+  <si>
+    <t>Intake of food for weight reduction [g/d]</t>
+  </si>
+  <si>
+    <t>ART_SWEETENER_170201</t>
+  </si>
+  <si>
+    <t>Intake of artificial sweeteners (e.g., aspartam, saccharine) [g/d]</t>
+  </si>
+  <si>
+    <t>SNACKS_1703</t>
+  </si>
+  <si>
+    <t>Intake of snacks other than chips and similar [g/d]</t>
+  </si>
+  <si>
+    <t>AMPHIBIANS_1704</t>
+  </si>
+  <si>
+    <t>intake of amphibians, reptiles, snails, insects [g/d]</t>
+  </si>
+  <si>
+    <t>KORA_S1_P1</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>id_creation</t>
+  </si>
+  <si>
+    <t>AV410 (potato) + AV420 (potato products)
+in this case, this combined group only consists of potatoes and no other tubers</t>
+  </si>
+  <si>
+    <t>AV440 (leafy and stem vegetables)</t>
   </si>
   <si>
     <r>
@@ -806,7 +1447,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">AV115 (sheep or goat meat) </t>
+      <t>AV440 (leafy and stem vegetables)</t>
     </r>
     <r>
       <rPr>
@@ -815,698 +1456,27 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Gewichtung mit 0,5 sinnvoll?</t>
+      <t xml:space="preserve"> </t>
     </r>
   </si>
   <si>
-    <t>HORSE_070105</t>
-  </si>
-  <si>
-    <t>Intake of Horse fresh meat [g/d]</t>
-  </si>
-  <si>
-    <t>GOAT_070106</t>
-  </si>
-  <si>
-    <t>Intake of Goat fresh meat, meat food and meat products [g/d]</t>
-  </si>
-  <si>
-    <t>POULTRY_0702</t>
-  </si>
-  <si>
-    <t>Intake of poultry fresh meat (muscle meat) and poultry meat food [g/d]</t>
-  </si>
-  <si>
-    <t>AV120</t>
-  </si>
-  <si>
-    <t>AV120 (poultry meat)</t>
-  </si>
-  <si>
-    <t>OTHERPOULTRY_070200</t>
-  </si>
-  <si>
-    <t>Intake of other poultry fresh meat, meat products, meat preparations and other poultry meat food [g/d]</t>
-  </si>
-  <si>
-    <t>CHICKEN_070201</t>
-  </si>
-  <si>
-    <t>Intake of chicken fresh meat, meat food and meat products [g/d]</t>
-  </si>
-  <si>
-    <t>TURKEY_070202</t>
-  </si>
-  <si>
-    <t>Intake of turkey fresh meat, meat food, meat products and meat preparations [g/d]</t>
-  </si>
-  <si>
-    <t>DUCK_070203</t>
-  </si>
-  <si>
-    <t>Intake of duck fresh meat, meat food, meat products, meat preparations [g/d]</t>
-  </si>
-  <si>
-    <t>GOOSE_070204</t>
-  </si>
-  <si>
-    <t>Intake of goose fresh meat, meat food, meat products and  meat preparations [g/d]</t>
-  </si>
-  <si>
-    <t>RABBIT_070205</t>
-  </si>
-  <si>
-    <t>Intake of rabbit fresh meat, meat food, meat products and meat preparations [g/d]</t>
-  </si>
-  <si>
-    <t>GAME_0703</t>
-  </si>
-  <si>
-    <t>Intake of Game mammals fresh meat/fat tissue, meat food, meat products, meat preparations, Game birds fresh meat, meat food, meat products, meat preparations and other game birds fresh meat [g/d]</t>
-  </si>
-  <si>
-    <t>AV117</t>
-  </si>
-  <si>
-    <t>AV117 (game meat)</t>
-  </si>
-  <si>
-    <t>PROCMEAT_0704</t>
-  </si>
-  <si>
-    <t>Intake of processed or preserved meat [g/d]</t>
-  </si>
-  <si>
-    <t>AV131; AV141; AV145; AV147; AV150; AV160</t>
-  </si>
-  <si>
-    <t>AV131 + AV141 + AV145 + AV147 + AV150 + AV160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AV131 (all kinds of minced meat) + AV141 (sausage) + AV145 (ham) + AV147 (bacon) + AV150 (canned, frozen meat or meat products) + AV160 (other meat products) </t>
-  </si>
-  <si>
-    <t>OFFALS_0705</t>
-  </si>
-  <si>
-    <t>Intake of animal offal and other slaughtering [g/d]</t>
-  </si>
-  <si>
-    <t>AV135</t>
-  </si>
-  <si>
-    <t>AV135 (animal offal)</t>
-  </si>
-  <si>
-    <t>FISH_SHELLFISH_08</t>
-  </si>
-  <si>
-    <t>Intake of fish, seafood, amphibians, reptiles and invertebrates, products of animal origin - fish, fish products and any other marine and freshwater food products [g/d]</t>
-  </si>
-  <si>
-    <t>AV170; AV180; AV190</t>
-  </si>
-  <si>
-    <t>AV170 + AV180 + AV190</t>
-  </si>
-  <si>
-    <t>AV170 (fish) + AV180 (canned fish) + AV190 (other fish products)</t>
-  </si>
-  <si>
-    <t>FISH_0801</t>
-  </si>
-  <si>
-    <t>Intake of Fish (meat) [g/d]</t>
-  </si>
-  <si>
-    <t>AV170</t>
-  </si>
-  <si>
-    <t>AV170 (fish)</t>
-  </si>
-  <si>
-    <t>CRUSTACEANS_0802</t>
-  </si>
-  <si>
-    <t>Intake of seafood and products thereof [g/d]</t>
-  </si>
-  <si>
-    <t>FISH_PROD_0803</t>
-  </si>
-  <si>
-    <t>Intake of fish and seafood processed
-Fish fingers, breaded [g/d]</t>
-  </si>
-  <si>
-    <t>AV180; AV190</t>
-  </si>
-  <si>
-    <t>AV180 + AV190</t>
-  </si>
-  <si>
-    <t>AV180 (canned fish) + AV190 (other fish products)</t>
-  </si>
-  <si>
-    <t>EGG_PROD_09</t>
-  </si>
-  <si>
-    <t>Intake of eggs and egg products [g/d]</t>
-  </si>
-  <si>
-    <t>AV250; AV255</t>
-  </si>
-  <si>
-    <t>AV250 + AV255</t>
-  </si>
-  <si>
-    <t>AV250 (fresh eggs) + AV255 (egg products)</t>
-  </si>
-  <si>
-    <t>EGGS_0901</t>
-  </si>
-  <si>
-    <t>Intake of liquid egg products, hardened egg products, boiled eggs products, fried eggs products and processed eggs and egg products [g/d]</t>
-  </si>
-  <si>
-    <t>AV255</t>
-  </si>
-  <si>
-    <t>AV255 (egg products)</t>
-  </si>
-  <si>
-    <t>FAT_10</t>
-  </si>
-  <si>
-    <t>Intake of animal and vegetable fats and oils and primary derivatives thereof [g/d]</t>
-  </si>
-  <si>
-    <t>AV270; AV291; AV293; AV295</t>
-  </si>
-  <si>
-    <t>AV270 + AV291 + AV293 + AV295</t>
-  </si>
-  <si>
-    <t>AV270 (butter) + AV291 (margarines) + AV293 (vegetable edible oils) + AV295 (other edible oils)</t>
-  </si>
-  <si>
-    <t>VEGOILS_1001</t>
-  </si>
-  <si>
-    <t>Intake of vegetable fats and oils, edible [g/d]</t>
-  </si>
-  <si>
-    <t>AV293</t>
-  </si>
-  <si>
-    <t>AV293 (vegetable edible oils)</t>
-  </si>
-  <si>
-    <t>BUTTER_1002</t>
-  </si>
-  <si>
-    <t>Intake of butter [g/d]</t>
-  </si>
-  <si>
-    <t>AV270</t>
-  </si>
-  <si>
-    <t>AV270 (butter)</t>
-  </si>
-  <si>
-    <t>MARGARINE_1003</t>
-  </si>
-  <si>
-    <t>Intake of margarines and similar [g/d]</t>
-  </si>
-  <si>
-    <t>AV291</t>
-  </si>
-  <si>
-    <t>AV291 (margarines)</t>
-  </si>
-  <si>
-    <t>FRYFAT_1004</t>
-  </si>
-  <si>
-    <t>Intake of blended frying oil/fats [g/d]</t>
-  </si>
-  <si>
-    <t>MARINEOILS_1005</t>
-  </si>
-  <si>
-    <t>Intake of fats and oils from marine animals [g/d]</t>
-  </si>
-  <si>
-    <t>OTHER_ANIMALFAT_1006</t>
-  </si>
-  <si>
-    <t>Intake of animal fats and oils (processed fat from animal tissue) [g/d]</t>
-  </si>
-  <si>
-    <t>SUGAR_CONFECT_11</t>
-  </si>
-  <si>
-    <t>Intake of sugar and similar, confectionery and water-based sweet desserts [g/d]</t>
-  </si>
-  <si>
-    <t>AV610; AV681; AV684; AV687; AV620; AV630; AV650; AV670</t>
-  </si>
-  <si>
-    <t>AV610 + AV681 + AV684, AV687 +AV620 + AV630 + AV650 + AV670</t>
-  </si>
-  <si>
-    <t>AV610 (sugar) + AV681 (honey) + AV684 (jam) + AV687 (other sweet spreads) + AV620 (cacao products) + AV630 (chocolate products) + AV650 (confectionary) + AV670 (all ice cream)</t>
-  </si>
-  <si>
-    <t>HONEY_JAM_1101</t>
-  </si>
-  <si>
-    <t>Intake of sugars, syrups, honey and table-top sweeteners [g/d]</t>
-  </si>
-  <si>
-    <t>AV681; AV684</t>
-  </si>
-  <si>
-    <t>AV681 + AV684</t>
-  </si>
-  <si>
-    <t>AV681 (honey) + AV684 (jam)</t>
-  </si>
-  <si>
-    <t>CHOCOLATE_1102</t>
-  </si>
-  <si>
-    <t>Intake of chocolate, chocolate products and chocolate coated conectionary [g/d]</t>
-  </si>
-  <si>
-    <t>AV620; AV630</t>
-  </si>
-  <si>
-    <t>AV620 + AV630</t>
-  </si>
-  <si>
-    <t>AV620 (cacao products) + AV630 (chocolate products)</t>
-  </si>
-  <si>
-    <t>NONCHOC_SWEETS_1103</t>
-  </si>
-  <si>
-    <t>Intake of sweet bars and other formed sweet masses, candies (soft and hard) and other confectionery including breath refreshening microsweets [g/d]</t>
-  </si>
-  <si>
-    <t>AV650</t>
-  </si>
-  <si>
-    <t>AV650 (confectionary)</t>
-  </si>
-  <si>
-    <t>SYRUP_1104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intake of corn syrup and sugar beet syrup [g/d]	</t>
-  </si>
-  <si>
-    <t>ICECREAM_1105</t>
-  </si>
-  <si>
-    <t>Intake of spoonable desserts and ice creams (generic) [g/d]</t>
-  </si>
-  <si>
-    <t>ICECREAM_MILK_110501</t>
-  </si>
-  <si>
-    <t>Intake of milk-based ice cream [g/d]</t>
-  </si>
-  <si>
-    <t>AV670</t>
-  </si>
-  <si>
-    <t>AV670 (all ice cream)</t>
-  </si>
-  <si>
-    <t>SORBET_110502</t>
-  </si>
-  <si>
-    <t>Sorbet intake [g/d]</t>
-  </si>
-  <si>
-    <t>WATER_ICE_110503</t>
-  </si>
-  <si>
-    <t>Intake of water-based ice creams [g/d]</t>
-  </si>
-  <si>
-    <t>CAKES_12</t>
-  </si>
-  <si>
-    <t>Intake of cakes and fine bakery wares [g/d]</t>
-  </si>
-  <si>
-    <t>AV540; AV570</t>
-  </si>
-  <si>
-    <t>AV540 + AV570</t>
-  </si>
-  <si>
-    <t>AV540 (fine bakery wares) + AV570 (long-life baked goods)</t>
-  </si>
-  <si>
-    <t>VARPASTRY_1201</t>
-  </si>
-  <si>
-    <t>Intake of various pastry [g/d]</t>
-  </si>
-  <si>
-    <t>DRYCAKE_1202</t>
-  </si>
-  <si>
-    <t>Intake of sponge biscuits and plain cakes [g/d]</t>
-  </si>
-  <si>
-    <t>NONALC_BEV_13</t>
-  </si>
-  <si>
-    <t>Intake of non-alcoholic beverages [g/d]</t>
-  </si>
-  <si>
-    <t>AV810; AV821; AV825; AV829</t>
-  </si>
-  <si>
-    <t>AV810 + AV821 + AV825 + AV829</t>
-  </si>
-  <si>
-    <t>AV810 (fruit / vegetable juice) +
-AV821 (table water) +
-AV825 (caffeinated lemonade) +
-AV829 (other soft drinks)</t>
-  </si>
-  <si>
-    <t>FRUITVEG_JUICE_1301</t>
-  </si>
-  <si>
-    <t>Intake of fruit and vegetable juices and nectars [g/d]</t>
-  </si>
-  <si>
-    <t>AV810</t>
-  </si>
-  <si>
-    <t>AV810 (fruit / vegetable juice)</t>
-  </si>
-  <si>
-    <t>SOFTDRINKS_1302</t>
-  </si>
-  <si>
-    <t>Intake of soft drinks (flavoured, no fruit) [g/d]</t>
-  </si>
-  <si>
-    <t>AV825; AV829</t>
-  </si>
-  <si>
-    <t>AV825 + AV829</t>
-  </si>
-  <si>
-    <t>AV825 (caffeinated lemonade) + AV829 (other soft drinks)</t>
-  </si>
-  <si>
-    <t>HOTDRINKS_1303</t>
-  </si>
-  <si>
-    <t>Intake of hot drinks and similar (coffee, cocoa, tea and herbal infusions) [g/d]</t>
-  </si>
-  <si>
-    <t>AV841; AV845; AV850</t>
-  </si>
-  <si>
-    <t>AV841 + AV845 + AV850</t>
-  </si>
-  <si>
-    <t>AV841 (roasted coffee) + AV845 (coffee extracts) + AV850 (tea)</t>
-  </si>
-  <si>
-    <t>COFFEE_130301</t>
-  </si>
-  <si>
-    <t>Coffee intake [g/d]</t>
-  </si>
-  <si>
-    <t>AV841; AV845</t>
-  </si>
-  <si>
-    <t>AV841 + AV845</t>
-  </si>
-  <si>
-    <t>AV841 (roasted coffee) + AV845 (coffee extracts)</t>
-  </si>
-  <si>
-    <t>TEA_130302</t>
-  </si>
-  <si>
-    <t>Tea intake [g/d]</t>
-  </si>
-  <si>
-    <t>AV850</t>
-  </si>
-  <si>
-    <t>AV850 (tea)</t>
-  </si>
-  <si>
-    <t>HERBALTEA_130303</t>
-  </si>
-  <si>
-    <t>Intake of herbal and other non-tea infusions [g/d]</t>
-  </si>
-  <si>
-    <t>COFFEE_IMITATE_130304</t>
-  </si>
-  <si>
-    <t>Intake of chicory coffee infusion and coffee imitate beverages [g/d]</t>
-  </si>
-  <si>
-    <t>WATER_1304</t>
-  </si>
-  <si>
-    <t>Intake of water and water-based beverages [g/d]</t>
-  </si>
-  <si>
-    <t>AV821</t>
-  </si>
-  <si>
-    <t>AV821 (table water)</t>
-  </si>
-  <si>
-    <t>ALC_BEV_14</t>
-  </si>
-  <si>
-    <t>Alcoholic beverage intake [g/d]</t>
-  </si>
-  <si>
-    <t>AV860; AV870;  AV881; 
-AV885; AV889</t>
-  </si>
-  <si>
-    <t>AV860 + AV870 +  AV881 +  
-AV885 + AV889</t>
-  </si>
-  <si>
-    <t>AV860 (spirits) + AV870 (beer) + AV881 (grape wine) + 
-AV885 (grape sparkling wine) + AV889 (fruitwine)</t>
-  </si>
-  <si>
-    <t>WINE_1401</t>
-  </si>
-  <si>
-    <t>Intake of wine and wine-like drinks [g/d]</t>
-  </si>
-  <si>
-    <t>AV881;  
-AV885; AV889</t>
-  </si>
-  <si>
-    <t>AV881 +  
-AV885 + AV889</t>
-  </si>
-  <si>
-    <t>AV881 (grape wine) + 
-AV885 (grape sparkling wine) + AV889 (fruitwine)</t>
-  </si>
-  <si>
-    <t>FORTWINE_1402</t>
-  </si>
-  <si>
-    <t>Intake of fortified/liqueur wine (as part-nature) [g/d]</t>
-  </si>
-  <si>
-    <t>BEER_1403</t>
-  </si>
-  <si>
-    <t>Intake of beer and beer-like beverage [g/d]</t>
-  </si>
-  <si>
-    <t>AV870</t>
-  </si>
-  <si>
-    <t>AV870 (beer)</t>
-  </si>
-  <si>
-    <t>SPIRITS_1404</t>
-  </si>
-  <si>
-    <t>Intake of unsweetened spirits [g/d]</t>
-  </si>
-  <si>
-    <t>AV860</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AV860 (spirits) </t>
-  </si>
-  <si>
-    <t>HERBLIQUEUR_1405</t>
-  </si>
-  <si>
-    <t>Intake of herb liqueur [g/d]</t>
-  </si>
-  <si>
-    <t>LIQUEURS_1406</t>
-  </si>
-  <si>
-    <t>Intake of liqueurs [g/d]</t>
-  </si>
-  <si>
-    <t>COCKTAILS_1407</t>
-  </si>
-  <si>
-    <t>Intake of mixed alcoholic drinks [g/d]</t>
-  </si>
-  <si>
-    <t>CONDIMENT_SAUCES_15</t>
-  </si>
-  <si>
-    <t>Intake of seasoning, sauces and condiments [g/d]</t>
-  </si>
-  <si>
-    <t>SAUCES_1501</t>
-  </si>
-  <si>
-    <t>Intake of savoury sauces [g/d]</t>
-  </si>
-  <si>
-    <t>TOMATOSAUCE_150101</t>
-  </si>
-  <si>
-    <t>Intake of tomato-containing cooked sauces [g/d]</t>
-  </si>
-  <si>
-    <t>DRESSINGS_150102</t>
-  </si>
-  <si>
-    <t>Salad dressing intake [g/d]</t>
-  </si>
-  <si>
-    <t>MAYONNAISE_150103</t>
-  </si>
-  <si>
-    <t>Intake of mayonnaise, hollandaise and related sauces [g/d]</t>
-  </si>
-  <si>
-    <t>DESSERTSAUCE_150104</t>
-  </si>
-  <si>
-    <t>Intakes of dessert sauces/toppings [g/d]</t>
-  </si>
-  <si>
-    <t>YEAST_1502</t>
-  </si>
-  <si>
-    <t>Intake of yeast cultures [g/d]</t>
-  </si>
-  <si>
-    <t>HERBS_SPICES_1503</t>
-  </si>
-  <si>
-    <t>Intakes of berbs, spices and similar [g/d]</t>
-  </si>
-  <si>
-    <t>CONDIMENTS_1504</t>
-  </si>
-  <si>
-    <t>Condiments (including table-top formats) intakes [g/d]</t>
-  </si>
-  <si>
-    <t>SOUP_BOUILLON_16</t>
-  </si>
-  <si>
-    <t>Intake of soups and broths [g/d]</t>
-  </si>
-  <si>
-    <t>SOUP_1601</t>
-  </si>
-  <si>
-    <t>Intake of soups (ready-to-eat) [g/d]</t>
-  </si>
-  <si>
-    <t>BOUILLON_1602</t>
-  </si>
-  <si>
-    <t>Intake of mixed vegetables soup, clear
-Meat soup, clear [g/d]</t>
-  </si>
-  <si>
-    <t>MISCELLANEOUS_17</t>
-  </si>
-  <si>
-    <t>Intake of miscellaneous [g/d]</t>
-  </si>
-  <si>
-    <t>VEG_DISHES_1700</t>
-  </si>
-  <si>
-    <t>Intake of vegetarian products and dishes [g/d]</t>
-  </si>
-  <si>
-    <t>SOY_PROD_1701</t>
-  </si>
-  <si>
-    <t>Intake of Soya drink and yoghurt [g/d]</t>
-  </si>
-  <si>
-    <t>DIET_PROD_1702</t>
-  </si>
-  <si>
-    <t>Intake of food for weight reduction [g/d]</t>
-  </si>
-  <si>
-    <t>ART_SWEETENER_170201</t>
-  </si>
-  <si>
-    <t>Intake of artificial sweeteners (e.g., aspartam, saccharine) [g/d]</t>
-  </si>
-  <si>
-    <t>SNACKS_1703</t>
-  </si>
-  <si>
-    <t>Intake of snacks other than chips and similar [g/d]</t>
-  </si>
-  <si>
-    <t>AMPHIBIANS_1704</t>
-  </si>
-  <si>
-    <t>intake of amphibians, reptiles, snails, insects [g/d]</t>
-  </si>
-  <si>
-    <t>KORA_S1_P1</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>id_creation</t>
+    <t>0,9 * AV115</t>
+  </si>
+  <si>
+    <t>0,1 * AV115</t>
+  </si>
+  <si>
+    <t>AV115 (sheep or goat meat)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AV115 (sheep or goat meat) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1669,13 +1639,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1683,11 +1646,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1710,18 +1668,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -2090,9 +2036,9 @@
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2109,7 +2055,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2117,15 +2063,15 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2137,8 +2083,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2148,19 +2093,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2170,61 +2112,45 @@
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2235,9 +2161,16 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2596,27 +2529,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54:K56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="26"/>
+    <col min="1" max="1" width="11.44140625" style="25"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="26"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="25"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2625,7 +2558,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
@@ -2640,7 +2573,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -2650,59 +2583,59 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61">
+    <row r="2" spans="1:12" s="58" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="53">
         <v>1</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="54" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="63" t="s">
-        <v>440</v>
-      </c>
-      <c r="E2" s="64" t="s">
-        <v>439</v>
-      </c>
-      <c r="F2" s="60" t="s">
+      <c r="D2" s="55" t="s">
+        <v>435</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>434</v>
+      </c>
+      <c r="F2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="62" t="s">
-        <v>441</v>
-      </c>
-      <c r="H2" s="62" t="s">
-        <v>441</v>
-      </c>
-      <c r="I2" s="63" t="s">
+      <c r="G2" s="54" t="s">
+        <v>436</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>436</v>
+      </c>
+      <c r="I2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J2" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="65"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+      <c r="L2" s="57"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="25">
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F3" s="22" t="s">
+      <c r="E3" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -2711,31 +2644,31 @@
       <c r="H3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="23" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+    <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="25">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F4" s="22" t="s">
+      <c r="E4" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -2744,31 +2677,31 @@
       <c r="H4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="23" t="s">
+      <c r="I4" s="26"/>
+      <c r="J4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+    <row r="5" spans="1:12" s="22" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="25">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F5" s="22" t="s">
+      <c r="E5" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -2777,30 +2710,30 @@
       <c r="H5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="23" t="s">
+      <c r="I5" s="26"/>
+      <c r="J5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="54"/>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+      <c r="L5" s="47"/>
+    </row>
+    <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
         <v>5</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>439</v>
+      <c r="D6" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>30</v>
@@ -2808,64 +2741,64 @@
       <c r="H6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="23" t="s">
+      <c r="I6" s="26"/>
+      <c r="J6" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+    <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
         <v>6</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>439</v>
+      <c r="E7" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="22" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="23" t="s">
+      <c r="I7" s="29"/>
+      <c r="J7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+    <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="25">
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F8" s="25" t="s">
+      <c r="D8" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>37</v>
       </c>
       <c r="G8" t="s">
@@ -2874,7 +2807,7 @@
       <c r="H8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="28"/>
+      <c r="I8" s="27"/>
       <c r="J8" t="s">
         <v>14</v>
       </c>
@@ -2882,232 +2815,232 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
+    <row r="9" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="25">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="59" t="s">
+        <v>437</v>
+      </c>
+      <c r="J9" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="K9" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="47" t="s">
+    </row>
+    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="25">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="C10" s="42" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="D10" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="J10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="32" t="s">
+      <c r="K10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="4" t="s">
+    </row>
+    <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="25">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="C11" s="42" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>439</v>
+      <c r="D11" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="I11" s="31"/>
       <c r="J11" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
+    <row r="12" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="25">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="G12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="I12" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="16" t="s">
+      <c r="J12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="25">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="C13" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="D13" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="G13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="I13" s="39" t="s">
+        <v>438</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="25">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="18" t="s">
+      <c r="C14" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="35" t="s">
+      <c r="D14" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="G14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="I14" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="J14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="25">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="19" t="s">
+      <c r="C15" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="D15" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>20</v>
@@ -3115,134 +3048,134 @@
       <c r="H15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="29" t="s">
-        <v>73</v>
+      <c r="I15" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
+    <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="25">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="I16" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F16" s="11" t="s">
+      <c r="J16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="25">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="6" t="s">
+      <c r="C17" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>439</v>
+      <c r="D17" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
+    <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="25">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>439</v>
+        <v>78</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="I18" s="31"/>
       <c r="J18" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="26">
+    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="25">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>439</v>
+        <v>80</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>20</v>
@@ -3250,102 +3183,102 @@
       <c r="H19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="38" t="s">
-        <v>86</v>
+      <c r="I19" s="35" t="s">
+        <v>83</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
+    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="25">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="25">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="26">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>439</v>
+      <c r="D21" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="I21" s="31"/>
       <c r="J21" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
+    <row r="22" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="25">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>439</v>
+        <v>88</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>20</v>
@@ -3353,137 +3286,137 @@
       <c r="H22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="38" t="s">
-        <v>94</v>
+      <c r="I22" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="26">
+    <row r="23" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="25">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>439</v>
+        <v>92</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I23" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="I23" s="31"/>
       <c r="J23" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="285" x14ac:dyDescent="0.25">
-      <c r="A24" s="26">
+    <row r="24" spans="1:11" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A24" s="25">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="I24" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F24" s="58" t="s">
+      <c r="J24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" s="7" t="s">
+      <c r="C25" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="I24" s="32" t="s">
+      <c r="D25" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F25" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="240" x14ac:dyDescent="0.25">
-      <c r="A25" s="26">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="G25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="I25" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F25" s="20" t="s">
+      <c r="J25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="25">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="20" t="s">
+      <c r="C26" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="I25" s="39" t="s">
+      <c r="D26" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F26" t="s">
         <v>106</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F26" t="s">
-        <v>109</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>20</v>
@@ -3491,137 +3424,137 @@
       <c r="H26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="28" t="s">
-        <v>110</v>
+      <c r="I26" s="27" t="s">
+        <v>107</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="26">
+    <row r="27" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="25">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="I27" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="D27" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="J27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="25">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27" s="4" t="s">
+      <c r="C28" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="I27" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="26">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>439</v>
+      <c r="D28" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I28" s="41"/>
+        <v>52</v>
+      </c>
+      <c r="I28" s="38"/>
       <c r="J28" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="26">
+    <row r="29" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="25">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="I29" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="D29" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="J29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="25">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" s="14" t="s">
+      <c r="C30" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="I29" s="42" t="s">
+      <c r="D30" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="26">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>20</v>
@@ -3629,67 +3562,67 @@
       <c r="H30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="43" t="s">
-        <v>126</v>
+      <c r="I30" s="40" t="s">
+        <v>123</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="26">
+    <row r="31" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" s="25">
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>439</v>
+        <v>124</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I31" s="28"/>
+        <v>52</v>
+      </c>
+      <c r="I31" s="27"/>
       <c r="J31" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="26">
+    <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="25">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>439</v>
+        <v>126</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F32" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>20</v>
@@ -3697,34 +3630,34 @@
       <c r="H32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="28" t="s">
-        <v>132</v>
+      <c r="I32" s="27" t="s">
+        <v>129</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="26">
+    <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="25">
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F33" s="59" t="s">
-        <v>135</v>
+        <v>130</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F33" s="51" t="s">
+        <v>132</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>20</v>
@@ -3732,34 +3665,34 @@
       <c r="H33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="26" t="s">
-        <v>136</v>
+      <c r="I33" s="25" t="s">
+        <v>133</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="26">
+    <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="25">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>439</v>
+        <v>134</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F34" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>20</v>
@@ -3767,40 +3700,40 @@
       <c r="H34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="26" t="s">
-        <v>140</v>
+      <c r="I34" s="25" t="s">
+        <v>137</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="26">
+    <row r="35" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="25">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>439</v>
+        <v>138</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>30</v>
@@ -3809,32 +3742,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="26">
+    <row r="36" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="25">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>439</v>
+        <v>140</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I36" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="I36" s="31"/>
       <c r="J36" s="4" t="s">
         <v>30</v>
       </c>
@@ -3842,24 +3775,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="26">
+    <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="25">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>439</v>
+        <v>142</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F37" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>20</v>
@@ -3867,42 +3800,42 @@
       <c r="H37" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I37" s="33" t="s">
-        <v>148</v>
+      <c r="I37" s="31" t="s">
+        <v>145</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="26">
+    <row r="38" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="25">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>439</v>
+        <v>146</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I38" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="I38" s="31"/>
       <c r="J38" s="4" t="s">
         <v>30</v>
       </c>
@@ -3910,24 +3843,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="26">
+    <row r="39" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A39" s="25">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>439</v>
+        <v>148</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F39" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>20</v>
@@ -3935,210 +3868,210 @@
       <c r="H39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I39" s="33" t="s">
-        <v>154</v>
+      <c r="I39" s="31" t="s">
+        <v>151</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" s="26">
+    <row r="40" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A40" s="25">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="I40" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="J40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="25">
         <v>40</v>
       </c>
-      <c r="E40" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F40" s="7" t="s">
+      <c r="B41" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="C41" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I41" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A42" s="25">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="I42" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="25">
         <v>42</v>
       </c>
-      <c r="H40" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="I40" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="26">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="I41" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A42" s="26">
+      <c r="B43" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F43" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I42" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="26">
-        <v>42</v>
-      </c>
-      <c r="B43" s="4" t="s">
+      <c r="H43" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="I43" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="D43" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F43" s="58" t="s">
+      <c r="J43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L43" s="48"/>
+    </row>
+    <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="25">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H43" s="58" t="s">
+      <c r="C44" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="I43" s="43" t="s">
+      <c r="D44" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F44" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L43" s="55"/>
-    </row>
-    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="26">
-        <v>43</v>
-      </c>
-      <c r="B44" s="4" t="s">
+      <c r="G44" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="I44" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="D44" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F44" s="13" t="s">
+      <c r="J44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="25">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H44" s="13" t="s">
+      <c r="C45" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="I44" s="43" t="s">
+      <c r="D45" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F45" s="51" t="s">
         <v>179</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="26">
-        <v>44</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F45" s="59" t="s">
-        <v>182</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>20</v>
@@ -4146,40 +4079,40 @@
       <c r="H45" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I45" s="41" t="s">
-        <v>183</v>
+      <c r="I45" s="38" t="s">
+        <v>180</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="26">
+    <row r="46" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="25">
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>439</v>
+        <v>181</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>30</v>
@@ -4188,30 +4121,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="26">
+    <row r="47" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="25">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>439</v>
+        <v>183</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>30</v>
@@ -4220,21 +4153,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="26">
+    <row r="48" spans="1:12" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="25">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D48" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>439</v>
+        <v>185</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>30</v>
@@ -4245,8 +4178,8 @@
       <c r="H48" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I48" s="44" t="s">
-        <v>190</v>
+      <c r="I48" s="31" t="s">
+        <v>187</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>30</v>
@@ -4254,96 +4187,96 @@
       <c r="K48" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L48" s="56"/>
-    </row>
-    <row r="49" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A49" s="26">
+      <c r="L48" s="49"/>
+    </row>
+    <row r="49" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="25">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H49" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C49" s="51" t="s">
+      <c r="I49" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="D49" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F49" s="7" t="s">
+      <c r="J49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="25">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H49" s="7" t="s">
+      <c r="C50" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="I49" s="32" t="s">
+      <c r="D50" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="G50" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I50" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="25">
         <v>50</v>
       </c>
-      <c r="K49" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="26">
-        <v>49</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F50" s="1" t="s">
+      <c r="B51" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H50" s="1" t="s">
+      <c r="C51" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="I50" s="42" t="s">
+      <c r="D51" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="26">
-        <v>50</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>20</v>
@@ -4351,34 +4284,34 @@
       <c r="H51" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I51" s="33" t="s">
-        <v>204</v>
+      <c r="I51" s="31" t="s">
+        <v>201</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="26">
+    <row r="52" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="25">
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>439</v>
+        <v>202</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>20</v>
@@ -4386,34 +4319,34 @@
       <c r="H52" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I52" s="33" t="s">
-        <v>208</v>
+      <c r="I52" s="31" t="s">
+        <v>205</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="26">
+    <row r="53" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="25">
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>439</v>
+        <v>206</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>20</v>
@@ -4421,137 +4354,137 @@
       <c r="H53" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I53" s="33" t="s">
-        <v>212</v>
+      <c r="I53" s="31" t="s">
+        <v>209</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="26">
+    <row r="54" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="25">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H54" s="61" t="s">
+        <v>440</v>
+      </c>
+      <c r="I54" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="J54" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="K54" s="60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="25">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C55" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="D54" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F54" s="13" t="s">
+      <c r="D55" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H55" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" s="31"/>
+      <c r="J55" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="K55" s="60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="25">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H54" s="18" t="s">
+      <c r="C56" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="I54" s="45" t="s">
+      <c r="D56" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" s="61" t="s">
+        <v>441</v>
+      </c>
+      <c r="I56" s="39" t="s">
+        <v>443</v>
+      </c>
+      <c r="J56" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="K56" s="60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="25">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="J54" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="26">
-        <v>54</v>
-      </c>
-      <c r="B55" s="4" t="s">
+      <c r="C57" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="D57" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F57" t="s">
         <v>219</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E55" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I55" s="33"/>
-      <c r="J55" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="26">
-        <v>55</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="D56" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H56" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="I56" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="26">
-        <v>56</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F57" t="s">
-        <v>224</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>20</v>
@@ -4559,42 +4492,42 @@
       <c r="H57" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I57" s="41" t="s">
-        <v>225</v>
+      <c r="I57" s="38" t="s">
+        <v>220</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="26">
+    <row r="58" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="25">
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>439</v>
+        <v>221</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I58" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="I58" s="31"/>
       <c r="J58" s="4" t="s">
         <v>30</v>
       </c>
@@ -4602,32 +4535,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="26">
+    <row r="59" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="25">
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>439</v>
+        <v>223</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I59" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="I59" s="31"/>
       <c r="J59" s="4" t="s">
         <v>30</v>
       </c>
@@ -4635,32 +4568,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="26">
+    <row r="60" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="25">
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>439</v>
+        <v>225</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I60" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="I60" s="31"/>
       <c r="J60" s="4" t="s">
         <v>30</v>
       </c>
@@ -4668,32 +4601,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="26">
+    <row r="61" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="25">
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E61" s="23" t="s">
-        <v>439</v>
+        <v>227</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I61" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="I61" s="31"/>
       <c r="J61" s="4" t="s">
         <v>30</v>
       </c>
@@ -4701,32 +4634,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="26">
+    <row r="62" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="25">
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E62" s="23" t="s">
-        <v>439</v>
+        <v>229</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I62" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="I62" s="31"/>
       <c r="J62" s="4" t="s">
         <v>30</v>
       </c>
@@ -4734,32 +4667,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="26">
+    <row r="63" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="25">
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E63" s="23" t="s">
-        <v>439</v>
+        <v>231</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I63" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="I63" s="31"/>
       <c r="J63" s="4" t="s">
         <v>30</v>
       </c>
@@ -4767,24 +4700,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A64" s="26">
+    <row r="64" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="25">
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E64" s="23" t="s">
-        <v>439</v>
+        <v>233</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F64" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>20</v>
@@ -4792,69 +4725,69 @@
       <c r="H64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I64" s="33" t="s">
-        <v>241</v>
+      <c r="I64" s="31" t="s">
+        <v>236</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="26">
+    <row r="65" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="25">
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="I65" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="25">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C66" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="D65" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E65" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F65" s="7" t="s">
+      <c r="D66" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F66" t="s">
         <v>244</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="I65" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="26">
-        <v>65</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E66" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F66" t="s">
-        <v>249</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>20</v>
@@ -4862,69 +4795,69 @@
       <c r="H66" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I66" s="41" t="s">
-        <v>250</v>
+      <c r="I66" s="38" t="s">
+        <v>245</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A67" s="26">
+    <row r="67" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="25">
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="I67" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="25">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C68" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D67" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F67" s="14" t="s">
+      <c r="D68" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F68" t="s">
         <v>253</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H67" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="I67" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="26">
-        <v>67</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E68" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F68" t="s">
-        <v>258</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>20</v>
@@ -4932,42 +4865,42 @@
       <c r="H68" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I68" s="41" t="s">
-        <v>259</v>
+      <c r="I68" s="38" t="s">
+        <v>254</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K68" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="26">
+    <row r="69" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="25">
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E69" s="23" t="s">
-        <v>439</v>
+        <v>255</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I69" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="I69" s="31"/>
       <c r="J69" s="4" t="s">
         <v>30</v>
       </c>
@@ -4975,94 +4908,94 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="26">
+    <row r="70" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="25">
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="I70" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="25">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
         <v>262</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C71" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="D70" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E70" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F70" s="13" t="s">
+      <c r="D71" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F71" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H70" s="13" t="s">
+      <c r="G71" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H71" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="I70" s="42" t="s">
+      <c r="I71" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="26">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="J71" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A72" s="25">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
         <v>267</v>
       </c>
-      <c r="C71" s="51" t="s">
+      <c r="C72" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="D71" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E71" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F71" s="6" t="s">
+      <c r="D72" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F72" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="I71" s="41" t="s">
-        <v>271</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A72" s="26">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>272</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="D72" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E72" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>274</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>20</v>
@@ -5070,69 +5003,69 @@
       <c r="H72" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I72" s="41" t="s">
-        <v>275</v>
+      <c r="I72" s="38" t="s">
+        <v>270</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K72" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="26">
+    <row r="73" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="25">
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>271</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="I73" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="25">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
         <v>276</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C74" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="D73" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E73" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F73" s="14" t="s">
+      <c r="D74" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F74" s="6" t="s">
         <v>278</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H73" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I73" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K73" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="26">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>281</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D74" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E74" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>20</v>
@@ -5140,34 +5073,34 @@
       <c r="H74" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I74" s="41" t="s">
-        <v>284</v>
+      <c r="I74" s="38" t="s">
+        <v>279</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K74" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="26">
+    <row r="75" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A75" s="25">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>285</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="D75" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E75" s="23" t="s">
-        <v>439</v>
+        <v>280</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>20</v>
@@ -5175,34 +5108,34 @@
       <c r="H75" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I75" s="41" t="s">
-        <v>288</v>
+      <c r="I75" s="38" t="s">
+        <v>283</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K75" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="26">
+    <row r="76" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="25">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>289</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="D76" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E76" s="23" t="s">
-        <v>439</v>
+        <v>284</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>20</v>
@@ -5210,42 +5143,42 @@
       <c r="H76" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I76" s="41" t="s">
-        <v>292</v>
+      <c r="I76" s="38" t="s">
+        <v>287</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K76" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="26">
+    <row r="77" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="25">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>293</v>
-      </c>
-      <c r="C77" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="D77" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E77" s="23" t="s">
-        <v>439</v>
+        <v>288</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I77" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="I77" s="31"/>
       <c r="J77" s="4" t="s">
         <v>30</v>
       </c>
@@ -5253,30 +5186,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="26">
+    <row r="78" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="25">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>295</v>
-      </c>
-      <c r="C78" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E78" s="23" t="s">
-        <v>439</v>
+        <v>290</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J78" s="4" t="s">
         <v>30</v>
@@ -5285,30 +5218,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="26">
+    <row r="79" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="25">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>297</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="D79" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E79" s="23" t="s">
-        <v>439</v>
+        <v>292</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>30</v>
@@ -5317,129 +5250,129 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A80" s="26">
+    <row r="80" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="25">
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>294</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H80" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="I80" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="25">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
         <v>299</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C81" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="D80" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E80" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F80" s="17" t="s">
+      <c r="D81" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F81" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="G80" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H80" s="17" t="s">
+      <c r="G81" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H81" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="I80" s="42" t="s">
+      <c r="I81" s="38" t="s">
         <v>303</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="26">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="J81" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="25">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
         <v>304</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C82" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="D81" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E81" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F81" s="6" t="s">
+      <c r="D82" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F82" t="s">
         <v>306</v>
       </c>
-      <c r="G81" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H81" s="6" t="s">
+      <c r="G82" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H82" t="s">
         <v>307</v>
       </c>
-      <c r="I81" s="41" t="s">
+      <c r="I82" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="J81" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="26">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="J82" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A83" s="25">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C83" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="D82" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E82" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="D83" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F83" s="6" t="s">
         <v>311</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H82" t="s">
-        <v>312</v>
-      </c>
-      <c r="I82" s="42" t="s">
-        <v>313</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A83" s="26">
-        <v>82</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="D83" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E83" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>316</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>20</v>
@@ -5447,42 +5380,42 @@
       <c r="H83" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I83" s="26" t="s">
-        <v>317</v>
+      <c r="I83" s="25" t="s">
+        <v>312</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K83" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="26">
+    <row r="84" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="25">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>318</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="D84" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E84" s="23" t="s">
-        <v>439</v>
+        <v>313</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I84" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="I84" s="31"/>
       <c r="J84" s="4" t="s">
         <v>30</v>
       </c>
@@ -5490,30 +5423,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="26">
+    <row r="85" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="25">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>320</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="D85" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E85" s="23" t="s">
-        <v>439</v>
+        <v>315</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>30</v>
@@ -5522,24 +5455,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="26">
+    <row r="86" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="25">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>322</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="D86" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E86" s="23" t="s">
-        <v>439</v>
+        <v>317</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F86" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>20</v>
@@ -5547,42 +5480,42 @@
       <c r="H86" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I86" s="33" t="s">
-        <v>325</v>
+      <c r="I86" s="31" t="s">
+        <v>320</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K86" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="26">
+    <row r="87" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A87" s="25">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>326</v>
-      </c>
-      <c r="C87" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="D87" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E87" s="23" t="s">
-        <v>439</v>
+        <v>321</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="D87" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I87" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="I87" s="31"/>
       <c r="J87" s="4" t="s">
         <v>30</v>
       </c>
@@ -5590,32 +5523,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="26">
+    <row r="88" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="25">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>328</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="D88" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E88" s="23" t="s">
-        <v>439</v>
+        <v>323</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D88" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I88" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="I88" s="31"/>
       <c r="J88" s="4" t="s">
         <v>30</v>
       </c>
@@ -5623,68 +5556,68 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:12" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="26">
+    <row r="89" spans="1:12" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="25">
         <v>88</v>
       </c>
       <c r="B89" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="D89" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E89" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="I89" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L89" s="49"/>
+    </row>
+    <row r="90" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A90" s="25">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
         <v>330</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C90" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="D89" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E89" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="I89" s="43" t="s">
-        <v>334</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L89" s="56"/>
-    </row>
-    <row r="90" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="26">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>335</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="D90" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E90" s="23" t="s">
-        <v>439</v>
+      <c r="D90" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I90" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="I90" s="31"/>
       <c r="J90" s="4" t="s">
         <v>30</v>
       </c>
@@ -5692,32 +5625,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="26">
+    <row r="91" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="25">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>337</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="D91" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E91" s="23" t="s">
-        <v>439</v>
+        <v>332</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E91" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I91" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="I91" s="31"/>
       <c r="J91" s="4" t="s">
         <v>30</v>
       </c>
@@ -5725,59 +5658,59 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A92" s="26">
+    <row r="92" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="25">
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>334</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="I92" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="25">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
         <v>339</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="C93" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="D92" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E92" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F92" s="7" t="s">
+      <c r="D93" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F93" s="6" t="s">
         <v>341</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="I92" s="46" t="s">
-        <v>343</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="26">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>344</v>
-      </c>
-      <c r="C93" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="D93" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E93" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>346</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>20</v>
@@ -5785,139 +5718,139 @@
       <c r="H93" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I93" s="41" t="s">
-        <v>347</v>
+      <c r="I93" s="38" t="s">
+        <v>342</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K93" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="26">
+    <row r="94" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="25">
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>343</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D94" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E94" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F94" t="s">
+        <v>345</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H94" t="s">
+        <v>346</v>
+      </c>
+      <c r="I94" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A95" s="25">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
         <v>348</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="C95" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="D94" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E94" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="D95" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E95" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F95" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="G94" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H94" t="s">
+      <c r="G95" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H95" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="I94" s="32" t="s">
+      <c r="I95" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="J94" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K94" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="26">
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="J95" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="25">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
         <v>353</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="C96" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="D95" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E95" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F95" s="13" t="s">
+      <c r="D96" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E96" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F96" t="s">
         <v>355</v>
       </c>
-      <c r="G95" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H95" s="13" t="s">
+      <c r="G96" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H96" t="s">
         <v>356</v>
       </c>
-      <c r="I95" s="42" t="s">
+      <c r="I96" s="39" t="s">
         <v>357</v>
       </c>
-      <c r="J95" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="26">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="J96" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A97" s="25">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
         <v>358</v>
       </c>
-      <c r="C96" s="20" t="s">
+      <c r="C97" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="D96" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E96" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="D97" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E97" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F97" s="6" t="s">
         <v>360</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H96" t="s">
-        <v>361</v>
-      </c>
-      <c r="I96" s="42" t="s">
-        <v>362</v>
-      </c>
-      <c r="J96" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K96" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="26">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>363</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="D97" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E97" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>365</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>20</v>
@@ -5925,40 +5858,40 @@
       <c r="H97" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I97" s="41" t="s">
-        <v>366</v>
+      <c r="I97" s="38" t="s">
+        <v>361</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K97" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="26">
+    <row r="98" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="25">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>367</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="D98" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E98" s="23" t="s">
-        <v>439</v>
+        <v>362</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="D98" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J98" s="4" t="s">
         <v>30</v>
@@ -5967,32 +5900,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="26">
+    <row r="99" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="25">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="D99" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E99" s="23" t="s">
-        <v>439</v>
+        <v>364</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E99" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I99" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="I99" s="31"/>
       <c r="J99" s="4" t="s">
         <v>30</v>
       </c>
@@ -6000,24 +5933,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="26">
+    <row r="100" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="25">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>371</v>
-      </c>
-      <c r="C100" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="D100" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E100" s="23" t="s">
-        <v>439</v>
+        <v>366</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="D100" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>20</v>
@@ -6025,112 +5958,112 @@
       <c r="H100" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I100" s="41" t="s">
-        <v>374</v>
+      <c r="I100" s="38" t="s">
+        <v>369</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K100" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A101" s="26">
+    <row r="101" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="25">
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>370</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="D101" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I101" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A102" s="25">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
         <v>375</v>
       </c>
-      <c r="C101" s="20" t="s">
+      <c r="C102" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="D101" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E101" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F101" s="1" t="s">
+      <c r="D102" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E102" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="G101" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H101" s="1" t="s">
+      <c r="G102" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H102" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="I101" s="46" t="s">
+      <c r="I102" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="J101" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K101" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="26">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
+      <c r="J102" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="25">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
         <v>380</v>
       </c>
-      <c r="C102" s="20" t="s">
+      <c r="C103" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="D102" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E102" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="I102" s="46" t="s">
-        <v>384</v>
-      </c>
-      <c r="J102" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K102" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="26">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>385</v>
-      </c>
-      <c r="C103" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="D103" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E103" s="23" t="s">
-        <v>439</v>
+      <c r="D103" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I103" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="I103" s="31"/>
       <c r="J103" s="4" t="s">
         <v>30</v>
       </c>
@@ -6138,24 +6071,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="26">
+    <row r="104" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="25">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>387</v>
-      </c>
-      <c r="C104" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="D104" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E104" s="23" t="s">
-        <v>439</v>
+        <v>382</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E104" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>20</v>
@@ -6163,34 +6096,34 @@
       <c r="H104" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I104" s="26" t="s">
-        <v>390</v>
+      <c r="I104" s="25" t="s">
+        <v>385</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K104" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="26">
+    <row r="105" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="25">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>391</v>
-      </c>
-      <c r="C105" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="D105" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E105" s="23" t="s">
-        <v>439</v>
+        <v>386</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E105" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F105" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>20</v>
@@ -6198,40 +6131,40 @@
       <c r="H105" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I105" s="26" t="s">
-        <v>394</v>
+      <c r="I105" s="25" t="s">
+        <v>389</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K105" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="26">
+    <row r="106" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A106" s="25">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>395</v>
-      </c>
-      <c r="C106" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="D106" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E106" s="23" t="s">
-        <v>439</v>
+        <v>390</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E106" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J106" s="4" t="s">
         <v>30</v>
@@ -6240,30 +6173,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="26">
+    <row r="107" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A107" s="25">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>397</v>
-      </c>
-      <c r="C107" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="D107" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E107" s="23" t="s">
-        <v>439</v>
+        <v>392</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="D107" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J107" s="4" t="s">
         <v>30</v>
@@ -6272,30 +6205,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="26">
+    <row r="108" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="25">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>399</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="D108" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E108" s="23" t="s">
-        <v>439</v>
+        <v>394</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="D108" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E108" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J108" s="4" t="s">
         <v>30</v>
@@ -6304,30 +6237,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="26">
+    <row r="109" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="25">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>401</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="D109" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E109" s="23" t="s">
-        <v>439</v>
+        <v>396</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="D109" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E109" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J109" s="4" t="s">
         <v>30</v>
@@ -6336,32 +6269,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="26">
+    <row r="110" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="25">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>403</v>
-      </c>
-      <c r="C110" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="D110" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E110" s="23" t="s">
-        <v>439</v>
+        <v>398</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="D110" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I110" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="I110" s="31"/>
       <c r="J110" s="4" t="s">
         <v>30</v>
       </c>
@@ -6369,32 +6302,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A111" s="26">
+    <row r="111" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="25">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>405</v>
-      </c>
-      <c r="C111" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="D111" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E111" s="23" t="s">
-        <v>439</v>
+        <v>400</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="D111" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E111" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I111" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="I111" s="31"/>
       <c r="J111" s="4" t="s">
         <v>30</v>
       </c>
@@ -6402,32 +6335,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="26">
+    <row r="112" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A112" s="25">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>407</v>
-      </c>
-      <c r="C112" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="D112" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E112" s="23" t="s">
-        <v>439</v>
+        <v>402</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="D112" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E112" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I112" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="I112" s="31"/>
       <c r="J112" s="4" t="s">
         <v>30</v>
       </c>
@@ -6435,32 +6368,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="26">
+    <row r="113" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A113" s="25">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>409</v>
-      </c>
-      <c r="C113" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="D113" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E113" s="23" t="s">
-        <v>439</v>
+        <v>404</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="D113" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E113" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I113" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="I113" s="31"/>
       <c r="J113" s="4" t="s">
         <v>30</v>
       </c>
@@ -6468,32 +6401,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="26">
+    <row r="114" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="25">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>411</v>
-      </c>
-      <c r="C114" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="D114" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E114" s="23" t="s">
-        <v>439</v>
+        <v>406</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="D114" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E114" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I114" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="I114" s="31"/>
       <c r="J114" s="4" t="s">
         <v>30</v>
       </c>
@@ -6501,32 +6434,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="26">
+    <row r="115" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A115" s="25">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>413</v>
-      </c>
-      <c r="C115" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="D115" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E115" s="23" t="s">
-        <v>439</v>
+        <v>408</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="D115" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E115" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I115" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="I115" s="31"/>
       <c r="J115" s="4" t="s">
         <v>30</v>
       </c>
@@ -6534,32 +6467,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="26">
+    <row r="116" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="25">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>415</v>
-      </c>
-      <c r="C116" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="D116" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E116" s="23" t="s">
-        <v>439</v>
+        <v>410</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="D116" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E116" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I116" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="I116" s="31"/>
       <c r="J116" s="4" t="s">
         <v>30</v>
       </c>
@@ -6567,32 +6500,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A117" s="26">
+    <row r="117" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A117" s="25">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>417</v>
-      </c>
-      <c r="C117" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="D117" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E117" s="23" t="s">
-        <v>439</v>
+        <v>412</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="D117" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E117" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I117" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="I117" s="31"/>
       <c r="J117" s="4" t="s">
         <v>30</v>
       </c>
@@ -6600,30 +6533,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="26">
+    <row r="118" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A118" s="25">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>419</v>
-      </c>
-      <c r="C118" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="D118" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E118" s="23" t="s">
-        <v>439</v>
+        <v>414</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="D118" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E118" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J118" s="4" t="s">
         <v>30</v>
@@ -6632,30 +6565,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="26">
+    <row r="119" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A119" s="25">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>421</v>
-      </c>
-      <c r="C119" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="D119" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E119" s="23" t="s">
-        <v>439</v>
+        <v>416</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="D119" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E119" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J119" s="4" t="s">
         <v>30</v>
@@ -6664,30 +6597,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="26">
+    <row r="120" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A120" s="25">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>423</v>
-      </c>
-      <c r="C120" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="D120" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E120" s="23" t="s">
-        <v>439</v>
+        <v>418</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="D120" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E120" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J120" s="4" t="s">
         <v>30</v>
@@ -6696,30 +6629,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="26">
+    <row r="121" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A121" s="25">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>425</v>
-      </c>
-      <c r="C121" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="D121" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E121" s="23" t="s">
-        <v>439</v>
+        <v>420</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="D121" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E121" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J121" s="4" t="s">
         <v>30</v>
@@ -6728,30 +6661,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="26">
+    <row r="122" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A122" s="25">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>427</v>
-      </c>
-      <c r="C122" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="D122" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E122" s="23" t="s">
-        <v>439</v>
+        <v>422</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="D122" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E122" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J122" s="4" t="s">
         <v>30</v>
@@ -6760,30 +6693,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="26">
+    <row r="123" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A123" s="25">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>429</v>
-      </c>
-      <c r="C123" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="D123" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E123" s="23" t="s">
-        <v>439</v>
+        <v>424</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="D123" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E123" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J123" s="4" t="s">
         <v>30</v>
@@ -6792,30 +6725,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="26">
+    <row r="124" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A124" s="25">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>431</v>
-      </c>
-      <c r="C124" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="D124" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E124" s="23" t="s">
-        <v>439</v>
+        <v>426</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="D124" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E124" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J124" s="4" t="s">
         <v>30</v>
@@ -6824,30 +6757,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A125" s="26">
+    <row r="125" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A125" s="25">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>433</v>
-      </c>
-      <c r="C125" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D125" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E125" s="23" t="s">
-        <v>439</v>
+        <v>428</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="D125" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E125" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J125" s="4" t="s">
         <v>30</v>
@@ -6856,30 +6789,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="26">
+    <row r="126" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A126" s="25">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>435</v>
-      </c>
-      <c r="C126" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="D126" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E126" s="23" t="s">
-        <v>439</v>
+        <v>430</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="D126" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E126" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J126" s="4" t="s">
         <v>30</v>
@@ -6888,30 +6821,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="26">
+    <row r="127" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A127" s="25">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>437</v>
-      </c>
-      <c r="C127" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="D127" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E127" s="23" t="s">
-        <v>439</v>
+        <v>432</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="D127" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E127" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J127" s="4" t="s">
         <v>30</v>
@@ -6926,16 +6859,20 @@
     <hyperlink ref="B7" r:id="rId2" display="https://mica.mdc-berlin.de/variable/microbiome-in-health-and-disease-and-in-ageing:SMOKE_ST:Dataschema" xr:uid="{FAD6DFA0-03A7-4E34-8AF3-9DB2877CE1C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7180,21 +7117,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7219,12 +7162,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09E65193-6A75-41B6-BC12-170035029E7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83616E9-F0B5-4B9F-802D-21A88FCD7855}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="444">
   <si>
     <t>index</t>
   </si>
@@ -71,15 +60,9 @@
     <t>Mlstr_harmo::status_detail</t>
   </si>
   <si>
-    <t>variable_ID</t>
-  </si>
-  <si>
     <t>participant identification number</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>KORA_S1_P1</t>
   </si>
   <si>
@@ -168,9 +151,6 @@
   </si>
   <si>
     <t>Energy intake [kcal/d]</t>
-  </si>
-  <si>
-    <t>KORA_S1_P2</t>
   </si>
   <si>
     <t>akcal</t>
@@ -1503,6 +1483,9 @@
   </si>
   <si>
     <t>intake of amphibians, reptiles, snails, insects [g/d]</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -2545,7 +2528,7 @@
   <dimension ref="A1:L128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2554,6 +2537,7 @@
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="20"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
     <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
@@ -2603,32 +2587,32 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="C2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="46" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I2" s="40"/>
       <c r="J2" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2636,32 +2620,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="E3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="H3" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2669,32 +2653,32 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="G4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="H4" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2702,32 +2686,32 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="21" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="H5" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2735,32 +2719,32 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="H6" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2768,32 +2752,32 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="22" t="s">
+      <c r="G7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>23</v>
-      </c>
       <c r="H7" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2801,32 +2785,32 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>41</v>
-      </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2834,32 +2818,32 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>45</v>
-      </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2867,34 +2851,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="H10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="I10" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="J10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="K10" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2902,34 +2886,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="K11" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2937,32 +2921,32 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I12" s="25"/>
       <c r="J12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="150" x14ac:dyDescent="0.25">
@@ -2970,34 +2954,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="I13" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>65</v>
-      </c>
       <c r="J13" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3005,34 +2989,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="I14" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="K14" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3040,34 +3024,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="I15" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>75</v>
-      </c>
       <c r="J15" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3075,34 +3059,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="31" t="s">
-        <v>79</v>
-      </c>
       <c r="J16" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3110,34 +3094,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="I17" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I17" s="32" t="s">
-        <v>84</v>
-      </c>
       <c r="J17" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3145,31 +3129,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3177,32 +3161,32 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I19" s="25"/>
       <c r="J19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3210,34 +3194,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>92</v>
-      </c>
       <c r="J20" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3245,34 +3229,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="K21" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3280,32 +3264,32 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3313,34 +3297,34 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>100</v>
-      </c>
       <c r="J23" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3348,32 +3332,32 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I24" s="25"/>
       <c r="J24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="285" x14ac:dyDescent="0.25">
@@ -3381,34 +3365,34 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="I25" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I25" s="24" t="s">
-        <v>107</v>
-      </c>
       <c r="J25" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="240" x14ac:dyDescent="0.25">
@@ -3416,34 +3400,34 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="I26" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="I26" s="29" t="s">
-        <v>112</v>
-      </c>
       <c r="J26" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3451,34 +3435,34 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>116</v>
-      </c>
       <c r="J27" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3486,34 +3470,34 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="I28" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I28" s="30" t="s">
-        <v>121</v>
-      </c>
       <c r="J28" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3521,32 +3505,32 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I29" s="31"/>
       <c r="J29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3554,34 +3538,34 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="I30" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="D30" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="I30" s="32" t="s">
-        <v>128</v>
-      </c>
       <c r="J30" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3589,34 +3573,34 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="33" t="s">
-        <v>132</v>
-      </c>
       <c r="J31" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -3624,32 +3608,32 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I32" s="22"/>
       <c r="J32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3657,34 +3641,34 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" t="s">
-        <v>137</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>138</v>
-      </c>
       <c r="J33" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3692,34 +3676,34 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C34" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>142</v>
-      </c>
       <c r="J34" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3727,34 +3711,34 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" t="s">
-        <v>145</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>146</v>
-      </c>
       <c r="J35" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3762,31 +3746,31 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D36" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3794,32 +3778,32 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I37" s="25"/>
       <c r="J37" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3827,34 +3811,34 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>150</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="C38" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" t="s">
-        <v>153</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38" s="25" t="s">
-        <v>154</v>
-      </c>
       <c r="J38" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -3862,32 +3846,32 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I39" s="25"/>
       <c r="J39" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -3895,34 +3879,34 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>156</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" t="s">
-        <v>159</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" s="25" t="s">
-        <v>160</v>
-      </c>
       <c r="J40" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -3930,34 +3914,34 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="I41" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="D41" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="I41" s="32" t="s">
-        <v>165</v>
-      </c>
       <c r="J41" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3965,34 +3949,34 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="I42" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="D42" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="I42" s="32" t="s">
-        <v>170</v>
-      </c>
       <c r="J42" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4000,34 +3984,34 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="I43" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="D43" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="I43" s="31" t="s">
-        <v>175</v>
-      </c>
       <c r="J43" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -4035,34 +4019,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="I44" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="D44" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H44" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="I44" s="33" t="s">
-        <v>180</v>
-      </c>
       <c r="J44" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L44" s="7"/>
     </row>
@@ -4071,34 +4055,34 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C45" s="45" t="s">
+      <c r="I45" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="D45" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="I45" s="33" t="s">
-        <v>185</v>
-      </c>
       <c r="J45" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4106,34 +4090,34 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="C46" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I46" s="31" t="s">
-        <v>189</v>
-      </c>
       <c r="J46" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4141,31 +4125,31 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D47" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4173,31 +4157,31 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D48" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J48" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4205,34 +4189,34 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D49" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="G49" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I49" s="43" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -4240,34 +4224,34 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C50" s="45" t="s">
+      <c r="I50" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="D50" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="I50" s="24" t="s">
-        <v>201</v>
-      </c>
       <c r="J50" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4275,34 +4259,34 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C51" s="45" t="s">
+      <c r="I51" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="D51" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I51" s="32" t="s">
-        <v>206</v>
-      </c>
       <c r="J51" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4310,34 +4294,34 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="C52" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I52" s="25" t="s">
-        <v>210</v>
-      </c>
       <c r="J52" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4345,34 +4329,34 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C53" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="C53" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I53" s="25" t="s">
-        <v>214</v>
-      </c>
       <c r="J53" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4380,34 +4364,34 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C54" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I54" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="J54" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4415,34 +4399,34 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="C55" s="45" t="s">
+      <c r="I55" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="D55" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="G55" s="3" t="s">
+      <c r="J55" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H55" s="42" t="s">
-        <v>222</v>
-      </c>
-      <c r="I55" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="K55" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4450,32 +4434,32 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C56" s="45" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I56" s="25"/>
       <c r="J56" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K56" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4483,34 +4467,34 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C57" s="45" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G57" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="I57" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="J57" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H57" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="I57" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="K57" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4518,34 +4502,34 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C58" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>228</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="C58" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" t="s">
-        <v>231</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I58" s="31" t="s">
-        <v>232</v>
-      </c>
       <c r="J58" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4553,32 +4537,32 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C59" s="45" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I59" s="25"/>
       <c r="J59" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4586,32 +4570,32 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C60" s="45" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I60" s="25"/>
       <c r="J60" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4619,32 +4603,32 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C61" s="45" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I61" s="25"/>
       <c r="J61" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4652,32 +4636,32 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C62" s="45" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I62" s="25"/>
       <c r="J62" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4685,32 +4669,32 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C63" s="45" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I63" s="25"/>
       <c r="J63" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4718,32 +4702,32 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C64" s="45" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I64" s="25"/>
       <c r="J64" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4751,34 +4735,34 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C65" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>244</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="C65" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E65" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" t="s">
-        <v>247</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I65" s="25" t="s">
-        <v>248</v>
-      </c>
       <c r="J65" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4786,34 +4770,34 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C66" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C66" s="45" t="s">
+      <c r="I66" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="D66" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E66" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="I66" s="24" t="s">
-        <v>253</v>
-      </c>
       <c r="J66" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4821,34 +4805,34 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C67" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" t="s">
+        <v>253</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="C67" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E67" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" t="s">
-        <v>256</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I67" s="31" t="s">
-        <v>257</v>
-      </c>
       <c r="J67" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4856,34 +4840,34 @@
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C68" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="C68" s="45" t="s">
+      <c r="I68" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="D68" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E68" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H68" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="I68" s="24" t="s">
-        <v>262</v>
-      </c>
       <c r="J68" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -4891,34 +4875,34 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C69" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>262</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="C69" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" t="s">
-        <v>265</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I69" s="31" t="s">
-        <v>266</v>
-      </c>
       <c r="J69" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4926,32 +4910,32 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C70" s="45" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I70" s="25"/>
       <c r="J70" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4959,34 +4943,34 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C71" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="C71" s="45" t="s">
+      <c r="I71" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="D71" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="I71" s="32" t="s">
-        <v>273</v>
-      </c>
       <c r="J71" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4994,34 +4978,34 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>271</v>
+      </c>
+      <c r="C72" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C72" s="45" t="s">
+      <c r="I72" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="D72" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="I72" s="31" t="s">
-        <v>278</v>
-      </c>
       <c r="J72" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -5029,34 +5013,34 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>276</v>
+      </c>
+      <c r="C73" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="C73" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I73" s="31" t="s">
-        <v>282</v>
-      </c>
       <c r="J73" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5064,34 +5048,34 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>280</v>
+      </c>
+      <c r="C74" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="C74" s="45" t="s">
+      <c r="I74" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="D74" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E74" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H74" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="I74" s="32" t="s">
-        <v>287</v>
-      </c>
       <c r="J74" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5099,34 +5083,34 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>285</v>
+      </c>
+      <c r="C75" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="C75" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E75" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I75" s="31" t="s">
-        <v>291</v>
-      </c>
       <c r="J75" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -5134,34 +5118,34 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C76" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="C76" s="45" t="s">
-        <v>293</v>
-      </c>
-      <c r="D76" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I76" s="31" t="s">
-        <v>295</v>
-      </c>
       <c r="J76" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5169,34 +5153,34 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>293</v>
+      </c>
+      <c r="C77" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I77" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="C77" s="45" t="s">
-        <v>297</v>
-      </c>
-      <c r="D77" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E77" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I77" s="31" t="s">
-        <v>299</v>
-      </c>
       <c r="J77" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5204,32 +5188,32 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C78" s="45" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I78" s="25"/>
       <c r="J78" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5237,31 +5221,31 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C79" s="45" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D79" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J79" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E79" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="3" t="s">
+      <c r="K79" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5269,31 +5253,31 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C80" s="45" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D80" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J80" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E80" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="3" t="s">
+      <c r="K80" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -5301,34 +5285,34 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>303</v>
+      </c>
+      <c r="C81" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="C81" s="45" t="s">
+      <c r="I81" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="D81" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E81" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H81" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="I81" s="32" t="s">
-        <v>310</v>
-      </c>
       <c r="J81" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5336,34 +5320,34 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>308</v>
+      </c>
+      <c r="C82" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C82" s="45" t="s">
+      <c r="I82" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="D82" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E82" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="I82" s="31" t="s">
-        <v>315</v>
-      </c>
       <c r="J82" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -5371,34 +5355,34 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>313</v>
+      </c>
+      <c r="C83" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" t="s">
+        <v>315</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
         <v>316</v>
       </c>
-      <c r="C83" s="45" t="s">
+      <c r="I83" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="D83" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E83" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" t="s">
-        <v>318</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H83" t="s">
-        <v>319</v>
-      </c>
-      <c r="I83" s="32" t="s">
-        <v>320</v>
-      </c>
       <c r="J83" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -5406,34 +5390,34 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C84" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="C84" s="45" t="s">
-        <v>322</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E84" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I84" s="20" t="s">
-        <v>324</v>
-      </c>
       <c r="J84" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5441,32 +5425,32 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C85" s="45" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I85" s="25"/>
       <c r="J85" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5474,31 +5458,31 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C86" s="45" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D86" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J86" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E86" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="3" t="s">
+      <c r="K86" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5506,34 +5490,34 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>326</v>
+      </c>
+      <c r="C87" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" t="s">
+        <v>328</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I87" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="C87" s="45" t="s">
-        <v>330</v>
-      </c>
-      <c r="D87" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E87" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" t="s">
-        <v>331</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I87" s="25" t="s">
-        <v>332</v>
-      </c>
       <c r="J87" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -5541,32 +5525,32 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C88" s="45" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I88" s="25"/>
       <c r="J88" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5574,32 +5558,32 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C89" s="45" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I89" s="25"/>
       <c r="J89" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5607,34 +5591,34 @@
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C90" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C90" s="45" t="s">
+      <c r="I90" s="33" t="s">
         <v>338</v>
       </c>
-      <c r="D90" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E90" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="I90" s="33" t="s">
-        <v>341</v>
-      </c>
       <c r="J90" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5642,32 +5626,32 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C91" s="45" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I91" s="25"/>
       <c r="J91" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5675,32 +5659,32 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C92" s="45" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I92" s="25"/>
       <c r="J92" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -5708,34 +5692,34 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>343</v>
+      </c>
+      <c r="C93" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C93" s="45" t="s">
+      <c r="I93" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="D93" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E93" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="I93" s="34" t="s">
-        <v>350</v>
-      </c>
       <c r="J93" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5743,34 +5727,34 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>348</v>
+      </c>
+      <c r="C94" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I94" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="C94" s="45" t="s">
-        <v>352</v>
-      </c>
-      <c r="D94" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E94" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I94" s="31" t="s">
-        <v>354</v>
-      </c>
       <c r="J94" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5778,34 +5762,34 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>352</v>
+      </c>
+      <c r="C95" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" t="s">
+        <v>354</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
         <v>355</v>
       </c>
-      <c r="C95" s="45" t="s">
+      <c r="I95" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="D95" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E95" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" t="s">
-        <v>357</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H95" t="s">
-        <v>358</v>
-      </c>
-      <c r="I95" s="24" t="s">
-        <v>359</v>
-      </c>
       <c r="J95" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5813,34 +5797,34 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>357</v>
+      </c>
+      <c r="C96" s="45" t="s">
+        <v>358</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E96" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="C96" s="45" t="s">
+      <c r="I96" s="32" t="s">
         <v>361</v>
       </c>
-      <c r="D96" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E96" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H96" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="I96" s="32" t="s">
-        <v>364</v>
-      </c>
       <c r="J96" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5848,34 +5832,34 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>362</v>
+      </c>
+      <c r="C97" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" t="s">
+        <v>364</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
         <v>365</v>
       </c>
-      <c r="C97" s="45" t="s">
+      <c r="I97" s="32" t="s">
         <v>366</v>
       </c>
-      <c r="D97" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E97" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" t="s">
-        <v>367</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H97" t="s">
-        <v>368</v>
-      </c>
-      <c r="I97" s="32" t="s">
-        <v>369</v>
-      </c>
       <c r="J97" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5883,34 +5867,34 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>367</v>
+      </c>
+      <c r="C98" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E98" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I98" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="C98" s="45" t="s">
-        <v>371</v>
-      </c>
-      <c r="D98" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E98" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I98" s="31" t="s">
-        <v>373</v>
-      </c>
       <c r="J98" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5918,31 +5902,31 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C99" s="45" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D99" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E99" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J99" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E99" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="3" t="s">
+      <c r="K99" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5950,32 +5934,32 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C100" s="45" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I100" s="25"/>
       <c r="J100" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5983,34 +5967,34 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>375</v>
+      </c>
+      <c r="C101" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="D101" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I101" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="C101" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="D101" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E101" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I101" s="31" t="s">
-        <v>381</v>
-      </c>
       <c r="J101" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -6018,34 +6002,34 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>379</v>
+      </c>
+      <c r="C102" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="D102" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C102" s="45" t="s">
+      <c r="I102" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="D102" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E102" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="I102" s="34" t="s">
-        <v>386</v>
-      </c>
       <c r="J102" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6053,34 +6037,34 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>384</v>
+      </c>
+      <c r="C103" s="45" t="s">
+        <v>385</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C103" s="45" t="s">
+      <c r="I103" s="34" t="s">
         <v>388</v>
       </c>
-      <c r="D103" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E103" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="I103" s="34" t="s">
-        <v>391</v>
-      </c>
       <c r="J103" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6088,32 +6072,32 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C104" s="45" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I104" s="25"/>
       <c r="J104" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6121,34 +6105,34 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>391</v>
+      </c>
+      <c r="C105" s="45" t="s">
+        <v>392</v>
+      </c>
+      <c r="D105" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E105" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I105" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="C105" s="45" t="s">
-        <v>395</v>
-      </c>
-      <c r="D105" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E105" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I105" s="20" t="s">
-        <v>397</v>
-      </c>
       <c r="J105" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6156,34 +6140,34 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>395</v>
+      </c>
+      <c r="C106" s="45" t="s">
+        <v>396</v>
+      </c>
+      <c r="D106" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E106" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" t="s">
+        <v>397</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I106" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="C106" s="45" t="s">
-        <v>399</v>
-      </c>
-      <c r="D106" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E106" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" t="s">
-        <v>400</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I106" s="20" t="s">
-        <v>401</v>
-      </c>
       <c r="J106" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6191,31 +6175,31 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C107" s="45" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D107" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E107" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J107" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E107" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F107" s="3" t="s">
+      <c r="K107" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K107" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -6223,31 +6207,31 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C108" s="45" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D108" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E108" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J108" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E108" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="3" t="s">
+      <c r="K108" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J108" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K108" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6255,31 +6239,31 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C109" s="45" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D109" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E109" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J109" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E109" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" s="3" t="s">
+      <c r="K109" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6287,31 +6271,31 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C110" s="45" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D110" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E110" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J110" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E110" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F110" s="3" t="s">
+      <c r="K110" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K110" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6319,32 +6303,32 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C111" s="45" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I111" s="25"/>
       <c r="J111" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6352,32 +6336,32 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C112" s="45" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E112" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I112" s="25"/>
       <c r="J112" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -6385,32 +6369,32 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C113" s="45" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E113" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I113" s="25"/>
       <c r="J113" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6418,32 +6402,32 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C114" s="45" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E114" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I114" s="25"/>
       <c r="J114" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6451,32 +6435,32 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C115" s="45" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I115" s="25"/>
       <c r="J115" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6484,32 +6468,32 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C116" s="45" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I116" s="25"/>
       <c r="J116" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6517,32 +6501,32 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C117" s="45" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I117" s="25"/>
       <c r="J117" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -6550,32 +6534,32 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C118" s="45" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I118" s="25"/>
       <c r="J118" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6583,31 +6567,31 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C119" s="45" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D119" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E119" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J119" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E119" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F119" s="3" t="s">
+      <c r="K119" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J119" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K119" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -6615,31 +6599,31 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C120" s="45" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D120" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J120" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E120" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F120" s="3" t="s">
+      <c r="K120" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J120" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K120" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6647,31 +6631,31 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C121" s="45" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D121" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E121" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J121" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E121" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F121" s="3" t="s">
+      <c r="K121" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H121" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J121" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K121" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6679,31 +6663,31 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C122" s="45" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D122" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E122" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J122" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E122" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F122" s="3" t="s">
+      <c r="K122" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J122" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K122" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6711,31 +6695,31 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C123" s="45" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D123" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E123" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J123" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E123" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F123" s="3" t="s">
+      <c r="K123" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J123" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K123" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6743,31 +6727,31 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C124" s="45" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D124" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E124" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J124" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E124" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F124" s="3" t="s">
+      <c r="K124" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J124" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K124" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6775,31 +6759,31 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C125" s="45" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D125" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E125" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J125" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E125" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F125" s="3" t="s">
+      <c r="K125" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J125" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K125" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -6807,31 +6791,31 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C126" s="45" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D126" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E126" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J126" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E126" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F126" s="3" t="s">
+      <c r="K126" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H126" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J126" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K126" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6839,31 +6823,31 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C127" s="45" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D127" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E127" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J127" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E127" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F127" s="3" t="s">
+      <c r="K127" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J127" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K127" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6871,31 +6855,31 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C128" s="45" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D128" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E128" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J128" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E128" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F128" s="3" t="s">
+      <c r="K128" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J128" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K128" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -7149,15 +7133,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
@@ -7167,6 +7142,15 @@
     <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7189,14 +7173,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -7211,4 +7187,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09E65193-6A75-41B6-BC12-170035029E7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{ADA90379-EBE1-4BC2-986F-62C8A6EFEA29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -910,15 +899,6 @@
     <t>Intake of processed or preserved meat [g/d]</t>
   </si>
   <si>
-    <t>AV131; AV141; AV145; AV147; AV150; AV160</t>
-  </si>
-  <si>
-    <t>AV131 + AV141 + AV145 + AV147 + AV150 + AV160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AV131 (all kinds of minced meat) + AV141 (sausage) + AV145 (ham) + AV147 (bacon) + AV150 (canned, frozen meat or meat products) + AV160 (other meat products) </t>
-  </si>
-  <si>
     <t>OFFALS_0705</t>
   </si>
   <si>
@@ -1503,6 +1483,15 @@
   </si>
   <si>
     <t>intake of amphibians, reptiles, snails, insects [g/d]</t>
+  </si>
+  <si>
+    <t>AV141; AV145; AV147; AV150; AV160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AV141 (sausage) + AV145 (ham) + AV147 (bacon) + AV150 (canned, frozen meat or meat products) + AV160 (other meat products) </t>
+  </si>
+  <si>
+    <t>AV141 + AV145 + AV147 + AV150 + AV160</t>
   </si>
 </sst>
 </file>
@@ -2544,8 +2533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4798,16 +4787,16 @@
         <v>14</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>251</v>
+        <v>443</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>252</v>
+        <v>445</v>
       </c>
       <c r="I66" s="24" t="s">
-        <v>253</v>
+        <v>444</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>57</v>
@@ -4821,10 +4810,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C67" s="45" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D67" s="20" t="s">
         <v>32</v>
@@ -4833,7 +4822,7 @@
         <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>23</v>
@@ -4842,7 +4831,7 @@
         <v>23</v>
       </c>
       <c r="I67" s="31" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>57</v>
@@ -4856,10 +4845,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C68" s="45" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>32</v>
@@ -4868,16 +4857,16 @@
         <v>14</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I68" s="24" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>57</v>
@@ -4891,10 +4880,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C69" s="45" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>32</v>
@@ -4903,7 +4892,7 @@
         <v>14</v>
       </c>
       <c r="F69" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>23</v>
@@ -4912,7 +4901,7 @@
         <v>23</v>
       </c>
       <c r="I69" s="31" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>57</v>
@@ -4926,10 +4915,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C70" s="45" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>32</v>
@@ -4959,10 +4948,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D71" s="20" t="s">
         <v>32</v>
@@ -4971,16 +4960,16 @@
         <v>14</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I71" s="32" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>57</v>
@@ -4994,10 +4983,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C72" s="45" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D72" s="20" t="s">
         <v>32</v>
@@ -5006,16 +4995,16 @@
         <v>14</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I72" s="31" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>57</v>
@@ -5029,10 +5018,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C73" s="45" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>32</v>
@@ -5041,7 +5030,7 @@
         <v>14</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>23</v>
@@ -5050,7 +5039,7 @@
         <v>23</v>
       </c>
       <c r="I73" s="31" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>57</v>
@@ -5064,10 +5053,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C74" s="45" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D74" s="20" t="s">
         <v>32</v>
@@ -5076,16 +5065,16 @@
         <v>14</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I74" s="32" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>57</v>
@@ -5099,10 +5088,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C75" s="45" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D75" s="20" t="s">
         <v>32</v>
@@ -5111,7 +5100,7 @@
         <v>14</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>23</v>
@@ -5120,7 +5109,7 @@
         <v>23</v>
       </c>
       <c r="I75" s="31" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J75" s="3" t="s">
         <v>57</v>
@@ -5134,10 +5123,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C76" s="45" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D76" s="20" t="s">
         <v>32</v>
@@ -5146,7 +5135,7 @@
         <v>14</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>23</v>
@@ -5155,7 +5144,7 @@
         <v>23</v>
       </c>
       <c r="I76" s="31" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>57</v>
@@ -5169,10 +5158,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C77" s="45" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D77" s="20" t="s">
         <v>32</v>
@@ -5181,7 +5170,7 @@
         <v>14</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>23</v>
@@ -5190,7 +5179,7 @@
         <v>23</v>
       </c>
       <c r="I77" s="31" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>57</v>
@@ -5204,10 +5193,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C78" s="45" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D78" s="20" t="s">
         <v>32</v>
@@ -5237,10 +5226,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C79" s="45" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D79" s="20" t="s">
         <v>32</v>
@@ -5269,10 +5258,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C80" s="45" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D80" s="20" t="s">
         <v>32</v>
@@ -5301,10 +5290,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C81" s="45" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D81" s="20" t="s">
         <v>32</v>
@@ -5313,16 +5302,16 @@
         <v>14</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H81" s="14" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I81" s="32" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>57</v>
@@ -5336,10 +5325,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C82" s="45" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D82" s="20" t="s">
         <v>32</v>
@@ -5348,16 +5337,16 @@
         <v>14</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I82" s="31" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>57</v>
@@ -5371,10 +5360,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C83" s="45" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D83" s="20" t="s">
         <v>32</v>
@@ -5383,16 +5372,16 @@
         <v>14</v>
       </c>
       <c r="F83" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H83" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I83" s="32" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>57</v>
@@ -5406,10 +5395,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C84" s="45" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D84" s="20" t="s">
         <v>32</v>
@@ -5418,7 +5407,7 @@
         <v>14</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>23</v>
@@ -5427,7 +5416,7 @@
         <v>23</v>
       </c>
       <c r="I84" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>57</v>
@@ -5441,10 +5430,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C85" s="45" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D85" s="20" t="s">
         <v>32</v>
@@ -5474,10 +5463,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C86" s="45" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D86" s="20" t="s">
         <v>32</v>
@@ -5506,10 +5495,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C87" s="45" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D87" s="20" t="s">
         <v>32</v>
@@ -5518,7 +5507,7 @@
         <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>23</v>
@@ -5527,7 +5516,7 @@
         <v>23</v>
       </c>
       <c r="I87" s="25" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J87" s="3" t="s">
         <v>57</v>
@@ -5541,10 +5530,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C88" s="45" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D88" s="20" t="s">
         <v>32</v>
@@ -5574,10 +5563,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C89" s="45" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>32</v>
@@ -5607,10 +5596,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C90" s="45" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D90" s="20" t="s">
         <v>32</v>
@@ -5619,16 +5608,16 @@
         <v>14</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>49</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I90" s="33" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>57</v>
@@ -5642,10 +5631,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C91" s="45" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D91" s="20" t="s">
         <v>32</v>
@@ -5675,10 +5664,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C92" s="45" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D92" s="20" t="s">
         <v>32</v>
@@ -5708,10 +5697,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C93" s="45" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D93" s="20" t="s">
         <v>32</v>
@@ -5720,16 +5709,16 @@
         <v>14</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I93" s="34" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J93" s="3" t="s">
         <v>57</v>
@@ -5743,10 +5732,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C94" s="45" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D94" s="20" t="s">
         <v>32</v>
@@ -5755,7 +5744,7 @@
         <v>14</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>23</v>
@@ -5764,7 +5753,7 @@
         <v>23</v>
       </c>
       <c r="I94" s="31" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>57</v>
@@ -5778,10 +5767,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C95" s="45" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D95" s="20" t="s">
         <v>32</v>
@@ -5790,16 +5779,16 @@
         <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H95" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="I95" s="24" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>57</v>
@@ -5813,10 +5802,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C96" s="45" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D96" s="20" t="s">
         <v>32</v>
@@ -5825,16 +5814,16 @@
         <v>14</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="I96" s="32" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>57</v>
@@ -5848,10 +5837,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C97" s="45" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D97" s="20" t="s">
         <v>32</v>
@@ -5860,16 +5849,16 @@
         <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H97" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="I97" s="32" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J97" s="3" t="s">
         <v>57</v>
@@ -5883,10 +5872,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C98" s="45" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D98" s="20" t="s">
         <v>32</v>
@@ -5895,7 +5884,7 @@
         <v>14</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>23</v>
@@ -5904,7 +5893,7 @@
         <v>23</v>
       </c>
       <c r="I98" s="31" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>57</v>
@@ -5918,10 +5907,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C99" s="45" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D99" s="20" t="s">
         <v>32</v>
@@ -5950,10 +5939,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C100" s="45" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D100" s="20" t="s">
         <v>32</v>
@@ -5983,10 +5972,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C101" s="45" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D101" s="20" t="s">
         <v>32</v>
@@ -5995,7 +5984,7 @@
         <v>14</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>23</v>
@@ -6004,7 +5993,7 @@
         <v>23</v>
       </c>
       <c r="I101" s="31" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>57</v>
@@ -6018,10 +6007,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C102" s="45" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D102" s="20" t="s">
         <v>32</v>
@@ -6030,16 +6019,16 @@
         <v>14</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I102" s="34" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>57</v>
@@ -6053,10 +6042,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C103" s="45" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D103" s="20" t="s">
         <v>32</v>
@@ -6065,16 +6054,16 @@
         <v>14</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I103" s="34" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>57</v>
@@ -6088,10 +6077,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C104" s="45" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D104" s="20" t="s">
         <v>32</v>
@@ -6121,10 +6110,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C105" s="45" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D105" s="20" t="s">
         <v>32</v>
@@ -6133,7 +6122,7 @@
         <v>14</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>23</v>
@@ -6142,7 +6131,7 @@
         <v>23</v>
       </c>
       <c r="I105" s="20" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="J105" s="3" t="s">
         <v>57</v>
@@ -6156,10 +6145,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C106" s="45" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D106" s="20" t="s">
         <v>32</v>
@@ -6168,7 +6157,7 @@
         <v>14</v>
       </c>
       <c r="F106" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>23</v>
@@ -6177,7 +6166,7 @@
         <v>23</v>
       </c>
       <c r="I106" s="20" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="J106" s="3" t="s">
         <v>57</v>
@@ -6191,10 +6180,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C107" s="45" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D107" s="20" t="s">
         <v>32</v>
@@ -6223,10 +6212,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C108" s="45" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D108" s="20" t="s">
         <v>32</v>
@@ -6255,10 +6244,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C109" s="45" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D109" s="20" t="s">
         <v>32</v>
@@ -6287,10 +6276,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C110" s="45" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D110" s="20" t="s">
         <v>32</v>
@@ -6319,10 +6308,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C111" s="45" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D111" s="20" t="s">
         <v>32</v>
@@ -6352,10 +6341,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C112" s="45" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D112" s="20" t="s">
         <v>32</v>
@@ -6385,10 +6374,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C113" s="45" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D113" s="20" t="s">
         <v>32</v>
@@ -6418,10 +6407,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C114" s="45" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D114" s="20" t="s">
         <v>32</v>
@@ -6451,10 +6440,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C115" s="45" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D115" s="20" t="s">
         <v>32</v>
@@ -6484,10 +6473,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C116" s="45" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D116" s="20" t="s">
         <v>32</v>
@@ -6517,10 +6506,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C117" s="45" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D117" s="20" t="s">
         <v>32</v>
@@ -6550,10 +6539,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C118" s="45" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D118" s="20" t="s">
         <v>32</v>
@@ -6583,10 +6572,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C119" s="45" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D119" s="20" t="s">
         <v>32</v>
@@ -6615,10 +6604,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C120" s="45" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D120" s="20" t="s">
         <v>32</v>
@@ -6647,10 +6636,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C121" s="45" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D121" s="20" t="s">
         <v>32</v>
@@ -6679,10 +6668,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C122" s="45" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D122" s="20" t="s">
         <v>32</v>
@@ -6711,10 +6700,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C123" s="45" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D123" s="20" t="s">
         <v>32</v>
@@ -6743,10 +6732,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C124" s="45" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D124" s="20" t="s">
         <v>32</v>
@@ -6775,10 +6764,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C125" s="45" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D125" s="20" t="s">
         <v>32</v>
@@ -6807,10 +6796,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C126" s="45" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D126" s="20" t="s">
         <v>32</v>
@@ -6839,10 +6828,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C127" s="45" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D127" s="20" t="s">
         <v>32</v>
@@ -6871,10 +6860,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C128" s="45" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D128" s="20" t="s">
         <v>32</v>
@@ -6908,6 +6897,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -7148,28 +7158,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8FD927B-486E-4736-8E9F-ABBC39C726CA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7186,29 +7200,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE936C6-E84B-4F94-A08F-E774A7F468BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E22C67-DA8B-4F63-98AA-2C28A60EBE83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements_templa" sheetId="1" r:id="rId1"/>
@@ -846,15 +846,6 @@
     <t>Intake of processed or preserved meat [g/d]</t>
   </si>
   <si>
-    <t>AV131; AV141; AV145; AV147; AV150; AV160</t>
-  </si>
-  <si>
-    <t>AV131 + AV141 + AV145 + AV147 + AV150 + AV160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AV131 (all kinds of minced meat) + AV141 (sausage) + AV145 (ham) + AV147 (bacon) + AV150 (canned, frozen meat or meat products) + AV160 (other meat products) </t>
-  </si>
-  <si>
     <t>OFFALS_0705</t>
   </si>
   <si>
@@ -1452,6 +1443,15 @@
   </si>
   <si>
     <t>A_ID</t>
+  </si>
+  <si>
+    <t>AV141; AV145; AV147; AV150; AV160</t>
+  </si>
+  <si>
+    <t>AV141 + AV145 + AV147 + AV150 + AV160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AV141 (sausage) + AV145 (ham) + AV147 (bacon) + AV150 (canned, frozen meat or meat products) + AV160 (other meat products) </t>
   </si>
 </sst>
 </file>
@@ -2458,27 +2458,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="19"/>
+    <col min="1" max="1" width="11.44140625" style="19"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="19"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="19"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2513,12 +2513,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="19">
         <v>1</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C2" s="42" t="s">
         <v>11</v>
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G2" s="41" t="s">
         <v>13</v>
@@ -2546,7 +2546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J10" s="42" t="s">
         <v>47</v>
@@ -2812,7 +2812,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>64</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>47</v>
@@ -2950,7 +2950,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>64</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J21" s="42" t="s">
         <v>47</v>
@@ -3190,7 +3190,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <v>21</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <v>23</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="285" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
         <v>24</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="240" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <v>25</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <v>26</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
         <v>27</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
         <v>28</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
         <v>29</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
         <v>30</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
         <v>31</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <v>32</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
         <v>33</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
         <v>34</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
         <v>35</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
         <v>36</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="19">
         <v>37</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="19">
         <v>38</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="19">
         <v>39</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="19">
         <v>40</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="19">
         <v>41</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="19">
         <v>42</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="19">
         <v>43</v>
       </c>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="19">
         <v>44</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="19">
         <v>45</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="19">
         <v>46</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="19">
         <v>47</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="19">
         <v>48</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A50" s="19">
         <v>49</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="19">
         <v>50</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="19">
         <v>51</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="19">
         <v>52</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="19">
         <v>53</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="19">
         <v>54</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="19">
         <v>55</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="19">
         <v>56</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="19">
         <v>57</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="19">
         <v>58</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="19">
         <v>59</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="19">
         <v>60</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="19">
         <v>61</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="19">
         <v>62</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="19">
         <v>63</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="19">
         <v>64</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="19">
         <v>65</v>
       </c>
@@ -4713,16 +4713,16 @@
         <v>12</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>245</v>
+        <v>441</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>246</v>
+        <v>442</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>247</v>
+        <v>443</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>52</v>
@@ -4731,15 +4731,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="19">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D67" s="19" t="s">
         <v>29</v>
@@ -4748,7 +4748,7 @@
         <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>20</v>
@@ -4757,7 +4757,7 @@
         <v>20</v>
       </c>
       <c r="I67" s="30" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>52</v>
@@ -4766,15 +4766,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="19">
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C68" s="39" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D68" s="19" t="s">
         <v>29</v>
@@ -4783,16 +4783,16 @@
         <v>12</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I68" s="23" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>52</v>
@@ -4801,15 +4801,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="19">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C69" s="39" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D69" s="19" t="s">
         <v>29</v>
@@ -4818,7 +4818,7 @@
         <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>20</v>
@@ -4827,7 +4827,7 @@
         <v>20</v>
       </c>
       <c r="I69" s="30" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>52</v>
@@ -4836,15 +4836,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="19">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D70" s="19" t="s">
         <v>29</v>
@@ -4869,15 +4869,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="19">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C71" s="39" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D71" s="19" t="s">
         <v>29</v>
@@ -4886,16 +4886,16 @@
         <v>12</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I71" s="31" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>52</v>
@@ -4904,15 +4904,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="19">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C72" s="39" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D72" s="19" t="s">
         <v>29</v>
@@ -4921,16 +4921,16 @@
         <v>12</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I72" s="30" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>52</v>
@@ -4939,15 +4939,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="19">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C73" s="39" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D73" s="19" t="s">
         <v>29</v>
@@ -4956,7 +4956,7 @@
         <v>12</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>20</v>
@@ -4965,7 +4965,7 @@
         <v>20</v>
       </c>
       <c r="I73" s="30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>52</v>
@@ -4974,15 +4974,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="19">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D74" s="19" t="s">
         <v>29</v>
@@ -4991,16 +4991,16 @@
         <v>12</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I74" s="31" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>52</v>
@@ -5009,15 +5009,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="19">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D75" s="19" t="s">
         <v>29</v>
@@ -5026,7 +5026,7 @@
         <v>12</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>20</v>
@@ -5035,7 +5035,7 @@
         <v>20</v>
       </c>
       <c r="I75" s="30" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J75" s="3" t="s">
         <v>52</v>
@@ -5044,15 +5044,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="19">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D76" s="19" t="s">
         <v>29</v>
@@ -5061,7 +5061,7 @@
         <v>12</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>20</v>
@@ -5070,7 +5070,7 @@
         <v>20</v>
       </c>
       <c r="I76" s="30" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>52</v>
@@ -5079,15 +5079,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="19">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C77" s="39" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D77" s="19" t="s">
         <v>29</v>
@@ -5096,7 +5096,7 @@
         <v>12</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>20</v>
@@ -5105,7 +5105,7 @@
         <v>20</v>
       </c>
       <c r="I77" s="30" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>52</v>
@@ -5114,15 +5114,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="19">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C78" s="39" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D78" s="19" t="s">
         <v>29</v>
@@ -5147,15 +5147,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="19">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C79" s="39" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D79" s="19" t="s">
         <v>29</v>
@@ -5179,15 +5179,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="19">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C80" s="39" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D80" s="19" t="s">
         <v>29</v>
@@ -5211,15 +5211,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A81" s="19">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C81" s="39" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D81" s="19" t="s">
         <v>29</v>
@@ -5228,16 +5228,16 @@
         <v>12</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I81" s="31" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>52</v>
@@ -5246,15 +5246,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="19">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D82" s="19" t="s">
         <v>29</v>
@@ -5263,16 +5263,16 @@
         <v>12</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I82" s="30" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>52</v>
@@ -5281,15 +5281,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A83" s="19">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C83" s="39" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D83" s="19" t="s">
         <v>29</v>
@@ -5298,16 +5298,16 @@
         <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H83" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I83" s="31" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>52</v>
@@ -5316,15 +5316,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A84" s="19">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C84" s="39" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D84" s="19" t="s">
         <v>29</v>
@@ -5333,7 +5333,7 @@
         <v>12</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>20</v>
@@ -5342,7 +5342,7 @@
         <v>20</v>
       </c>
       <c r="I84" s="19" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>52</v>
@@ -5351,15 +5351,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="19">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C85" s="39" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D85" s="19" t="s">
         <v>29</v>
@@ -5384,15 +5384,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="19">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C86" s="39" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D86" s="19" t="s">
         <v>29</v>
@@ -5416,15 +5416,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="19">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C87" s="39" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D87" s="19" t="s">
         <v>29</v>
@@ -5433,7 +5433,7 @@
         <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>20</v>
@@ -5442,7 +5442,7 @@
         <v>20</v>
       </c>
       <c r="I87" s="24" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="J87" s="3" t="s">
         <v>52</v>
@@ -5451,15 +5451,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="19">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C88" s="39" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D88" s="19" t="s">
         <v>29</v>
@@ -5484,15 +5484,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="19">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C89" s="39" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D89" s="19" t="s">
         <v>29</v>
@@ -5517,15 +5517,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="19">
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C90" s="39" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D90" s="19" t="s">
         <v>29</v>
@@ -5534,16 +5534,16 @@
         <v>12</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I90" s="32" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>52</v>
@@ -5552,15 +5552,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="19">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C91" s="39" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D91" s="19" t="s">
         <v>29</v>
@@ -5585,15 +5585,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="19">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C92" s="39" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D92" s="19" t="s">
         <v>29</v>
@@ -5618,15 +5618,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A93" s="19">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C93" s="39" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D93" s="19" t="s">
         <v>29</v>
@@ -5635,16 +5635,16 @@
         <v>12</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I93" s="33" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J93" s="3" t="s">
         <v>52</v>
@@ -5653,15 +5653,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="19">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D94" s="19" t="s">
         <v>29</v>
@@ -5670,7 +5670,7 @@
         <v>12</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>20</v>
@@ -5679,7 +5679,7 @@
         <v>20</v>
       </c>
       <c r="I94" s="30" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>52</v>
@@ -5688,15 +5688,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="19">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C95" s="39" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D95" s="19" t="s">
         <v>29</v>
@@ -5705,16 +5705,16 @@
         <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H95" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I95" s="23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>52</v>
@@ -5723,15 +5723,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="19">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C96" s="39" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D96" s="19" t="s">
         <v>29</v>
@@ -5740,16 +5740,16 @@
         <v>12</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I96" s="31" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>52</v>
@@ -5758,15 +5758,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="19">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C97" s="39" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D97" s="19" t="s">
         <v>29</v>
@@ -5775,16 +5775,16 @@
         <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H97" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I97" s="31" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="J97" s="3" t="s">
         <v>52</v>
@@ -5793,15 +5793,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A98" s="19">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C98" s="39" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D98" s="19" t="s">
         <v>29</v>
@@ -5810,7 +5810,7 @@
         <v>12</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>20</v>
@@ -5819,7 +5819,7 @@
         <v>20</v>
       </c>
       <c r="I98" s="30" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>52</v>
@@ -5828,15 +5828,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="19">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C99" s="39" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D99" s="19" t="s">
         <v>29</v>
@@ -5860,15 +5860,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="19">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C100" s="39" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D100" s="19" t="s">
         <v>29</v>
@@ -5893,15 +5893,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="19">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C101" s="39" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D101" s="19" t="s">
         <v>29</v>
@@ -5910,7 +5910,7 @@
         <v>12</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>20</v>
@@ -5919,7 +5919,7 @@
         <v>20</v>
       </c>
       <c r="I101" s="30" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>52</v>
@@ -5928,15 +5928,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A102" s="19">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C102" s="39" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D102" s="19" t="s">
         <v>29</v>
@@ -5945,16 +5945,16 @@
         <v>12</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I102" s="33" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>52</v>
@@ -5963,15 +5963,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="19">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C103" s="39" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D103" s="19" t="s">
         <v>29</v>
@@ -5980,16 +5980,16 @@
         <v>12</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I103" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>52</v>
@@ -5998,15 +5998,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="19">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C104" s="39" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D104" s="19" t="s">
         <v>29</v>
@@ -6031,15 +6031,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="19">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C105" s="39" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D105" s="19" t="s">
         <v>29</v>
@@ -6048,7 +6048,7 @@
         <v>12</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>20</v>
@@ -6057,7 +6057,7 @@
         <v>20</v>
       </c>
       <c r="I105" s="19" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="J105" s="3" t="s">
         <v>52</v>
@@ -6066,15 +6066,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="19">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C106" s="39" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D106" s="19" t="s">
         <v>29</v>
@@ -6083,7 +6083,7 @@
         <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>20</v>
@@ -6092,7 +6092,7 @@
         <v>20</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J106" s="3" t="s">
         <v>52</v>
@@ -6101,15 +6101,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" s="19">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C107" s="39" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D107" s="19" t="s">
         <v>29</v>
@@ -6133,15 +6133,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A108" s="19">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C108" s="39" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D108" s="19" t="s">
         <v>29</v>
@@ -6165,15 +6165,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="19">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C109" s="39" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D109" s="19" t="s">
         <v>29</v>
@@ -6197,15 +6197,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="19">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C110" s="39" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D110" s="19" t="s">
         <v>29</v>
@@ -6229,15 +6229,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="19">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C111" s="39" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D111" s="19" t="s">
         <v>29</v>
@@ -6262,15 +6262,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="19">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C112" s="39" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D112" s="19" t="s">
         <v>29</v>
@@ -6295,15 +6295,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A113" s="19">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C113" s="39" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D113" s="19" t="s">
         <v>29</v>
@@ -6328,15 +6328,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A114" s="19">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C114" s="39" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D114" s="19" t="s">
         <v>29</v>
@@ -6361,15 +6361,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="19">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C115" s="39" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D115" s="19" t="s">
         <v>29</v>
@@ -6394,15 +6394,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A116" s="19">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C116" s="39" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D116" s="19" t="s">
         <v>29</v>
@@ -6427,15 +6427,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="19">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C117" s="39" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D117" s="19" t="s">
         <v>29</v>
@@ -6460,15 +6460,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A118" s="19">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C118" s="39" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D118" s="19" t="s">
         <v>29</v>
@@ -6493,15 +6493,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="19">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C119" s="39" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D119" s="19" t="s">
         <v>29</v>
@@ -6525,15 +6525,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A120" s="19">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C120" s="39" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D120" s="19" t="s">
         <v>29</v>
@@ -6557,15 +6557,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A121" s="19">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C121" s="39" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D121" s="19" t="s">
         <v>29</v>
@@ -6589,15 +6589,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A122" s="19">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C122" s="39" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D122" s="19" t="s">
         <v>29</v>
@@ -6621,15 +6621,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="19">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C123" s="39" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D123" s="19" t="s">
         <v>29</v>
@@ -6653,15 +6653,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A124" s="19">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C124" s="39" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D124" s="19" t="s">
         <v>29</v>
@@ -6685,15 +6685,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="19">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C125" s="39" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D125" s="19" t="s">
         <v>29</v>
@@ -6717,15 +6717,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A126" s="19">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C126" s="39" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D126" s="19" t="s">
         <v>29</v>
@@ -6749,15 +6749,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="19">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C127" s="39" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D127" s="19" t="s">
         <v>29</v>
@@ -6781,15 +6781,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="19">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C128" s="39" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D128" s="19" t="s">
         <v>29</v>
@@ -6835,15 +6835,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -7084,6 +7075,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
   <ds:schemaRefs>
@@ -7102,14 +7102,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8FD927B-486E-4736-8E9F-ABBC39C726CA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7126,4 +7118,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E22C67-DA8B-4F63-98AA-2C28A60EBE83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{5E945E52-AEAD-4EC1-8112-4383EF12C635}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements_templa" sheetId="1" r:id="rId1"/>
@@ -1442,9 +1442,6 @@
     <t>AV440 (leafy and stem vegetables) Gewichtung mit 0,5 sinnvoll?</t>
   </si>
   <si>
-    <t>A_ID</t>
-  </si>
-  <si>
     <t>AV141; AV145; AV147; AV150; AV160</t>
   </si>
   <si>
@@ -1452,6 +1449,9 @@
   </si>
   <si>
     <t xml:space="preserve">AV141 (sausage) + AV145 (ham) + AV147 (bacon) + AV150 (canned, frozen meat or meat products) + AV160 (other meat products) </t>
+  </si>
+  <si>
+    <t>a_id</t>
   </si>
 </sst>
 </file>
@@ -2458,27 +2458,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="19"/>
+    <col min="1" max="1" width="11.42578125" style="19"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="19"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="19"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="G2" s="41" t="s">
         <v>13</v>
@@ -2546,7 +2546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>21</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>23</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="285" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>24</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="240" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>25</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>26</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>27</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>28</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>29</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>30</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>31</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>32</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>33</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>34</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>35</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>36</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>37</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>38</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>39</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>40</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
         <v>41</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>42</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
         <v>43</v>
       </c>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
         <v>44</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
         <v>45</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
         <v>46</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
         <v>47</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
         <v>48</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
         <v>49</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>50</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>51</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
         <v>52</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="19">
         <v>53</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
         <v>54</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
         <v>55</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
         <v>56</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
         <v>57</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
         <v>58</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
         <v>59</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
         <v>60</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
         <v>61</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
         <v>62</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
         <v>63</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
         <v>64</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="19">
         <v>65</v>
       </c>
@@ -4713,16 +4713,16 @@
         <v>12</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H66" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="I66" s="23" t="s">
         <v>442</v>
-      </c>
-      <c r="I66" s="23" t="s">
-        <v>443</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>52</v>
@@ -4731,7 +4731,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
         <v>66</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
         <v>67</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
         <v>68</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
         <v>69</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
         <v>70</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="19">
         <v>71</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
         <v>72</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <v>73</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>74</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
         <v>75</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>76</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="19">
         <v>77</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
         <v>78</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="19">
         <v>79</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="19">
         <v>80</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="19">
         <v>81</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="19">
         <v>82</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" s="19">
         <v>83</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="19">
         <v>84</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="19">
         <v>85</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="19">
         <v>86</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="19">
         <v>87</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="19">
         <v>88</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="19">
         <v>89</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="19">
         <v>90</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="19">
         <v>91</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="19">
         <v>92</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="19">
         <v>93</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="19">
         <v>94</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
         <v>95</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="19">
         <v>96</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="19">
         <v>97</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="19">
         <v>98</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="19">
         <v>99</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="19">
         <v>100</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="19">
         <v>101</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="19">
         <v>102</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="19">
         <v>103</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="19">
         <v>104</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="19">
         <v>105</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="19">
         <v>106</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="19">
         <v>107</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="19">
         <v>108</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="19">
         <v>109</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="19">
         <v>110</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="19">
         <v>111</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="19">
         <v>112</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="19">
         <v>113</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="19">
         <v>114</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="19">
         <v>115</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="19">
         <v>116</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="19">
         <v>117</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="19">
         <v>118</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="19">
         <v>119</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="19">
         <v>120</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="19">
         <v>121</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="19">
         <v>122</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="19">
         <v>123</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="19">
         <v>124</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" s="19">
         <v>125</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="19">
         <v>126</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="19">
         <v>127</v>
       </c>
@@ -6823,15 +6823,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7076,27 +7073,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7121,9 +7112,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E22C67-DA8B-4F63-98AA-2C28A60EBE83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E22C67-DA8B-4F63-98AA-2C28A60EBE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -60,12 +71,21 @@
     <t>Mlstr_harmo::status_detail</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>participant identification number</t>
   </si>
   <si>
+    <t>integer</t>
+  </si>
+  <si>
     <t>KORA_S1_P1</t>
   </si>
   <si>
+    <t>A_ID</t>
+  </si>
+  <si>
     <t>id_creation</t>
   </si>
   <si>
@@ -81,9 +101,6 @@
     <t>Sex</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
     <t>acsex</t>
   </si>
   <si>
@@ -96,6 +113,9 @@
     <t>Age at exposure measure</t>
   </si>
   <si>
+    <t>decimal</t>
+  </si>
+  <si>
     <t>atalteru</t>
   </si>
   <si>
@@ -112,9 +132,6 @@
   </si>
   <si>
     <t>Physical activity from questionnaire data</t>
-  </si>
-  <si>
-    <t>decimal</t>
   </si>
   <si>
     <t xml:space="preserve">impossible </t>
@@ -167,6 +184,10 @@
   </si>
   <si>
     <t>AV410 + AV420</t>
+  </si>
+  <si>
+    <t>AV410 (potato) + AV420 (potato products)
+in this case, this combined group only consists of potatoes and no other tubers</t>
   </si>
   <si>
     <t>partial</t>
@@ -227,6 +248,9 @@
   </si>
   <si>
     <t>0.5*AV440</t>
+  </si>
+  <si>
+    <t>AV440 (leafy and stem vegetables) Gewichtung mit 0,5 sinnvoll?</t>
   </si>
   <si>
     <t>FRUITINGVEG_0202</t>
@@ -846,6 +870,15 @@
     <t>Intake of processed or preserved meat [g/d]</t>
   </si>
   <si>
+    <t>AV141; AV145; AV147; AV150; AV160</t>
+  </si>
+  <si>
+    <t>AV141 + AV145 + AV147 + AV150 + AV160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AV141 (sausage) + AV145 (ham) + AV147 (bacon) + AV150 (canned, frozen meat or meat products) + AV160 (other meat products) </t>
+  </si>
+  <si>
     <t>OFFALS_0705</t>
   </si>
   <si>
@@ -1430,35 +1463,13 @@
   </si>
   <si>
     <t>intake of amphibians, reptiles, snails, insects [g/d]</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>AV410 (potato) + AV420 (potato products)
-in this case, this combined group only consists of potatoes and no other tubers</t>
-  </si>
-  <si>
-    <t>AV440 (leafy and stem vegetables) Gewichtung mit 0,5 sinnvoll?</t>
-  </si>
-  <si>
-    <t>A_ID</t>
-  </si>
-  <si>
-    <t>AV141; AV145; AV147; AV150; AV160</t>
-  </si>
-  <si>
-    <t>AV141 + AV145 + AV147 + AV150 + AV160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AV141 (sausage) + AV145 (ham) + AV147 (bacon) + AV150 (canned, frozen meat or meat products) + AV160 (other meat products) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1995,7 +2006,7 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2091,60 +2102,58 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Link" xfId="42" builtinId="8"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2160,7 +2169,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2462,23 +2471,23 @@
       <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="19"/>
+    <col min="1" max="1" width="11.42578125" style="19"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="19"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="19"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2513,4304 +2522,4304 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45">
       <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>437</v>
-      </c>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="C2" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>440</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" ht="14.45">
       <c r="A3" s="19">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.45">
       <c r="A4" s="19">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H4" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="17" customFormat="1" ht="14.45">
       <c r="A5" s="19">
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28.9">
       <c r="A6" s="19">
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.45">
       <c r="A7" s="19">
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.45">
       <c r="A8" s="19">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.45">
       <c r="A9" s="19">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="43.15">
       <c r="A10" s="19">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="44" t="s">
-        <v>438</v>
-      </c>
-      <c r="J10" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="42" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I10" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.9">
       <c r="A11" s="19">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28.9">
       <c r="A12" s="19">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="129.6">
       <c r="A13" s="19">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:11" ht="28.9">
       <c r="A14" s="19">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>64</v>
+        <v>47</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>67</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>439</v>
+        <v>68</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="43.15">
+      <c r="A15" s="19">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="H15" s="10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.9">
       <c r="A16" s="19">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="28.9">
       <c r="A17" s="19">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.45">
       <c r="A18" s="19">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="28.9">
       <c r="A19" s="19">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="28.9">
       <c r="A20" s="19">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="28.9">
       <c r="A21" s="19">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="45" t="s">
-        <v>64</v>
+        <v>47</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>67</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>47</v>
+        <v>68</v>
+      </c>
+      <c r="J21" s="41" t="s">
+        <v>50</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="43.15">
       <c r="A22" s="19">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I22" s="24"/>
       <c r="J22" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14.45">
       <c r="A23" s="19">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="43.15">
       <c r="A24" s="19">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I24" s="24"/>
       <c r="J24" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="273.60000000000002">
       <c r="A25" s="19">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="230.4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="230.45">
       <c r="A26" s="19">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="28.9">
       <c r="A27" s="19">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="57.6">
       <c r="A28" s="19">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14.45">
       <c r="A29" s="19">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I29" s="30"/>
       <c r="J29" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="57.6">
       <c r="A30" s="19">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="28.9">
       <c r="A31" s="19">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="72">
       <c r="A32" s="19">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I32" s="21"/>
       <c r="J32" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="28.9">
       <c r="A33" s="19">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="28.9">
       <c r="A34" s="19">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="14.45">
       <c r="A35" s="19">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="43.15">
       <c r="A36" s="19">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="28.9">
       <c r="A37" s="19">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I37" s="24"/>
       <c r="J37" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="28.9">
       <c r="A38" s="19">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I38" s="24" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="57.6">
       <c r="A39" s="19">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I39" s="24"/>
       <c r="J39" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="72">
       <c r="A40" s="19">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="72">
       <c r="A41" s="19">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I41" s="31" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="43.15">
       <c r="A42" s="19">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I42" s="31" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="28.9">
       <c r="A43" s="19">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I43" s="30" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="28.9">
       <c r="A44" s="19">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="I44" s="32" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="28.9">
       <c r="A45" s="19">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I45" s="32" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="28.9">
       <c r="A46" s="19">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F46" s="37" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I46" s="30" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="28.9">
       <c r="A47" s="19">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="28.9">
       <c r="A48" s="19">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="15" customFormat="1" ht="28.9">
       <c r="A49" s="19">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I49" s="24" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="115.15">
       <c r="A50" s="19">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C50" s="39" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I50" s="23" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="57.6">
       <c r="A51" s="19">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I51" s="31" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="28.9">
       <c r="A52" s="19">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="28.9">
       <c r="A53" s="19">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C53" s="39" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="14.45">
       <c r="A54" s="19">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C54" s="39" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="28.9">
       <c r="A55" s="19">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H55" s="45" t="s">
-        <v>216</v>
+        <v>47</v>
+      </c>
+      <c r="H55" s="43" t="s">
+        <v>220</v>
       </c>
       <c r="I55" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="J55" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="K55" s="42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+      <c r="J55" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="K55" s="41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="14.45">
       <c r="A56" s="19">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C56" s="39" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H56" s="42" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="H56" s="41" t="s">
+        <v>32</v>
       </c>
       <c r="I56" s="24"/>
-      <c r="J56" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="K56" s="42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J56" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="K56" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="14.45">
       <c r="A57" s="19">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C57" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H57" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="I57" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="D57" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H57" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="I57" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="J57" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="K57" s="42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J57" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="K57" s="41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="14.45">
       <c r="A58" s="19">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C58" s="39" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I58" s="30" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="28.9">
       <c r="A59" s="19">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I59" s="24"/>
       <c r="J59" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="14.45">
       <c r="A60" s="19">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C60" s="39" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I60" s="24"/>
       <c r="J60" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="14.45">
       <c r="A61" s="19">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I61" s="24"/>
       <c r="J61" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="14.45">
       <c r="A62" s="19">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I62" s="24"/>
       <c r="J62" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="14.45">
       <c r="A63" s="19">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C63" s="39" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I63" s="24"/>
       <c r="J63" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="14.45">
       <c r="A64" s="19">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I64" s="24"/>
       <c r="J64" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="14.45">
       <c r="A65" s="19">
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C65" s="39" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I65" s="24" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="43.15">
       <c r="A66" s="19">
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C66" s="39" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>442</v>
+        <v>250</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>443</v>
+        <v>251</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="28.9">
       <c r="A67" s="19">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I67" s="30" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="28.9">
       <c r="A68" s="19">
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C68" s="39" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I68" s="23" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="14.45">
       <c r="A69" s="19">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C69" s="39" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F69" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I69" s="30" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="28.9">
       <c r="A70" s="19">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I70" s="24"/>
       <c r="J70" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="28.9">
       <c r="A71" s="19">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C71" s="39" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="I71" s="31" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="28.9">
       <c r="A72" s="19">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C72" s="39" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="I72" s="30" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="14.45">
       <c r="A73" s="19">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C73" s="39" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I73" s="30" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="43.15">
       <c r="A74" s="19">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="I74" s="31" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="28.9">
       <c r="A75" s="19">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I75" s="30" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="14.45">
       <c r="A76" s="19">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I76" s="30" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="28.9">
       <c r="A77" s="19">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C77" s="39" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I77" s="30" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="28.9">
       <c r="A78" s="19">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C78" s="39" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I78" s="24"/>
       <c r="J78" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="28.9">
       <c r="A79" s="19">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C79" s="39" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="43.15">
       <c r="A80" s="19">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C80" s="39" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="57.6">
       <c r="A81" s="19">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C81" s="39" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="I81" s="31" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="43.15">
       <c r="A82" s="19">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="I82" s="30" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="57.6">
       <c r="A83" s="19">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C83" s="39" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F83" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="I83" s="31" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="86.45">
       <c r="A84" s="19">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C84" s="39" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I84" s="19" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="28.9">
       <c r="A85" s="19">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C85" s="39" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I85" s="24"/>
       <c r="J85" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="28.9">
       <c r="A86" s="19">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C86" s="39" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="28.9">
       <c r="A87" s="19">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C87" s="39" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I87" s="24" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="14.45">
       <c r="A88" s="19">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C88" s="39" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I88" s="24"/>
       <c r="J88" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="28.9">
       <c r="A89" s="19">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C89" s="39" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I89" s="24"/>
       <c r="J89" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="15" customFormat="1" ht="28.9">
       <c r="A90" s="19">
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C90" s="39" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="I90" s="32" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="14.45">
       <c r="A91" s="19">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C91" s="39" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I91" s="24"/>
       <c r="J91" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="28.9">
       <c r="A92" s="19">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C92" s="39" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I92" s="24"/>
       <c r="J92" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="57.6">
       <c r="A93" s="19">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C93" s="39" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="I93" s="33" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="28.9">
       <c r="A94" s="19">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I94" s="30" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="28.9">
       <c r="A95" s="19">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C95" s="39" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="I95" s="23" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="43.15">
       <c r="A96" s="19">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C96" s="39" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="I96" s="31" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="28.9">
       <c r="A97" s="19">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C97" s="39" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="I97" s="31" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="14.45">
       <c r="A98" s="19">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C98" s="39" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I98" s="30" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="28.9">
       <c r="A99" s="19">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C99" s="39" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="43.15">
       <c r="A100" s="19">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C100" s="39" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I100" s="24"/>
       <c r="J100" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="28.9">
       <c r="A101" s="19">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C101" s="39" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I101" s="30" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="57.6">
       <c r="A102" s="19">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C102" s="39" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="I102" s="33" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="43.15">
       <c r="A103" s="19">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C103" s="39" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="I103" s="33" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="28.9">
       <c r="A104" s="19">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="C104" s="39" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I104" s="24"/>
       <c r="J104" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="28.9">
       <c r="A105" s="19">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C105" s="39" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I105" s="19" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="28.9">
       <c r="A106" s="19">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C106" s="39" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F106" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="14.45">
       <c r="A107" s="19">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="C107" s="39" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="14.45">
       <c r="A108" s="19">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="C108" s="39" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="28.9">
       <c r="A109" s="19">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="C109" s="39" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="28.9">
       <c r="A110" s="19">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="C110" s="39" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E110" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="28.9">
       <c r="A111" s="19">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="C111" s="39" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E111" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I111" s="24"/>
       <c r="J111" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="28.9">
       <c r="A112" s="19">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C112" s="39" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I112" s="24"/>
       <c r="J112" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="14.45">
       <c r="A113" s="19">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C113" s="39" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I113" s="24"/>
       <c r="J113" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="14.45">
       <c r="A114" s="19">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C114" s="39" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I114" s="24"/>
       <c r="J114" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="28.9">
       <c r="A115" s="19">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C115" s="39" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I115" s="24"/>
       <c r="J115" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="14.45">
       <c r="A116" s="19">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C116" s="39" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I116" s="24"/>
       <c r="J116" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="28.9">
       <c r="A117" s="19">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="C117" s="39" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I117" s="24"/>
       <c r="J117" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="14.45">
       <c r="A118" s="19">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="C118" s="39" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I118" s="24"/>
       <c r="J118" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="28.9">
       <c r="A119" s="19">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C119" s="39" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="14.45">
       <c r="A120" s="19">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="C120" s="39" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="43.15">
       <c r="A121" s="19">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="C121" s="39" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="14.45">
       <c r="A122" s="19">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="C122" s="39" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="28.9">
       <c r="A123" s="19">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C123" s="39" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="14.45">
       <c r="A124" s="19">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="C124" s="39" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="28.9">
       <c r="A125" s="19">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C125" s="39" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="43.15">
       <c r="A126" s="19">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="C126" s="39" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E126" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="28.9">
       <c r="A127" s="19">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="C127" s="39" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E127" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="28.9">
       <c r="A128" s="19">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="C128" s="39" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E128" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -6823,15 +6832,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7076,54 +7082,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8FD927B-486E-4736-8E9F-ABBC39C726CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1C598E6-C939-416F-A16D-267820748634}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}"/>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{5E945E52-AEAD-4EC1-8112-4383EF12C635}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E22C67-DA8B-4F63-98AA-2C28A60EBE83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements_templa" sheetId="1" r:id="rId1"/>
@@ -1442,6 +1442,9 @@
     <t>AV440 (leafy and stem vegetables) Gewichtung mit 0,5 sinnvoll?</t>
   </si>
   <si>
+    <t>A_ID</t>
+  </si>
+  <si>
     <t>AV141; AV145; AV147; AV150; AV160</t>
   </si>
   <si>
@@ -1449,9 +1452,6 @@
   </si>
   <si>
     <t xml:space="preserve">AV141 (sausage) + AV145 (ham) + AV147 (bacon) + AV150 (canned, frozen meat or meat products) + AV160 (other meat products) </t>
-  </si>
-  <si>
-    <t>a_id</t>
   </si>
 </sst>
 </file>
@@ -2458,27 +2458,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="19"/>
+    <col min="1" max="1" width="11.44140625" style="19"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="19"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="19"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G2" s="41" t="s">
         <v>13</v>
@@ -2546,7 +2546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <v>21</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <v>23</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="285" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
         <v>24</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="240" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <v>25</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <v>26</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
         <v>27</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
         <v>28</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
         <v>29</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
         <v>30</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
         <v>31</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <v>32</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
         <v>33</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
         <v>34</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
         <v>35</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
         <v>36</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="19">
         <v>37</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="19">
         <v>38</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="19">
         <v>39</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="19">
         <v>40</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="19">
         <v>41</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="19">
         <v>42</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="19">
         <v>43</v>
       </c>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="19">
         <v>44</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="19">
         <v>45</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="19">
         <v>46</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="19">
         <v>47</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="19">
         <v>48</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A50" s="19">
         <v>49</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="19">
         <v>50</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="19">
         <v>51</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="19">
         <v>52</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="19">
         <v>53</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="19">
         <v>54</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="19">
         <v>55</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="19">
         <v>56</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="19">
         <v>57</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="19">
         <v>58</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="19">
         <v>59</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="19">
         <v>60</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="19">
         <v>61</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="19">
         <v>62</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="19">
         <v>63</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="19">
         <v>64</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="19">
         <v>65</v>
       </c>
@@ -4713,16 +4713,16 @@
         <v>12</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>52</v>
@@ -4731,7 +4731,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="19">
         <v>66</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="19">
         <v>67</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="19">
         <v>68</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="19">
         <v>69</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="19">
         <v>70</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="19">
         <v>71</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="19">
         <v>72</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="19">
         <v>73</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="19">
         <v>74</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="19">
         <v>75</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="19">
         <v>76</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="19">
         <v>77</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="19">
         <v>78</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="19">
         <v>79</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A81" s="19">
         <v>80</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="19">
         <v>81</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A83" s="19">
         <v>82</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A84" s="19">
         <v>83</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="19">
         <v>84</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="19">
         <v>85</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="19">
         <v>86</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="19">
         <v>87</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="19">
         <v>88</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="19">
         <v>89</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="19">
         <v>90</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="19">
         <v>91</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A93" s="19">
         <v>92</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="19">
         <v>93</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="19">
         <v>94</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="19">
         <v>95</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="19">
         <v>96</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A98" s="19">
         <v>97</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="19">
         <v>98</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="19">
         <v>99</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="19">
         <v>100</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A102" s="19">
         <v>101</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="19">
         <v>102</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="19">
         <v>103</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="19">
         <v>104</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="19">
         <v>105</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" s="19">
         <v>106</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A108" s="19">
         <v>107</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="19">
         <v>108</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="19">
         <v>109</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="19">
         <v>110</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="19">
         <v>111</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A113" s="19">
         <v>112</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A114" s="19">
         <v>113</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="19">
         <v>114</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A116" s="19">
         <v>115</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="19">
         <v>116</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A118" s="19">
         <v>117</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="19">
         <v>118</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A120" s="19">
         <v>119</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A121" s="19">
         <v>120</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A122" s="19">
         <v>121</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="19">
         <v>122</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A124" s="19">
         <v>123</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="19">
         <v>124</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A126" s="19">
         <v>125</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="19">
         <v>126</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="19">
         <v>127</v>
       </c>
@@ -6823,12 +6823,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7073,21 +7076,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7112,18 +7121,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{5E945E52-AEAD-4EC1-8112-4383EF12C635}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC078A85-A0D9-44EE-BD14-9B9B5CE81389}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements_templa" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="449">
   <si>
     <t>index</t>
   </si>
@@ -1453,12 +1453,27 @@
   <si>
     <t>a_id</t>
   </si>
+  <si>
+    <t>DIETARY_ASSESS_INSTR</t>
+  </si>
+  <si>
+    <t>Dietary Assessment Instrument</t>
+  </si>
+  <si>
+    <t>__BLANK__</t>
+  </si>
+  <si>
+    <t>paste</t>
+  </si>
+  <si>
+    <t>5 (7_d_FR_w)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1645,6 +1660,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1995,7 +2016,7 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2100,6 +2121,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2456,29 +2478,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L128"/>
+  <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="19"/>
+    <col min="1" max="1" width="11.44140625" style="19"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="19"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="19"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2513,7 +2535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -2546,7 +2568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -2579,7 +2601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -2612,7 +2634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -2645,7 +2667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -2678,7 +2700,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -2711,7 +2733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -2744,7 +2766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -2777,7 +2799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -2812,7 +2834,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -2847,7 +2869,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -2880,7 +2902,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -2915,7 +2937,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -2950,7 +2972,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -2985,7 +3007,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -3020,7 +3042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -3055,7 +3077,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -3087,7 +3109,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -3120,7 +3142,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -3155,7 +3177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -3190,7 +3212,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <v>21</v>
       </c>
@@ -3223,7 +3245,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -3258,7 +3280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <v>23</v>
       </c>
@@ -3291,7 +3313,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="285" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
         <v>24</v>
       </c>
@@ -3326,7 +3348,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="240" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <v>25</v>
       </c>
@@ -3361,7 +3383,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <v>26</v>
       </c>
@@ -3396,7 +3418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
         <v>27</v>
       </c>
@@ -3431,7 +3453,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
         <v>28</v>
       </c>
@@ -3464,7 +3486,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
         <v>29</v>
       </c>
@@ -3499,7 +3521,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
         <v>30</v>
       </c>
@@ -3534,7 +3556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
         <v>31</v>
       </c>
@@ -3567,7 +3589,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <v>32</v>
       </c>
@@ -3602,7 +3624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
         <v>33</v>
       </c>
@@ -3637,7 +3659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
         <v>34</v>
       </c>
@@ -3672,7 +3694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
         <v>35</v>
       </c>
@@ -3704,7 +3726,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
         <v>36</v>
       </c>
@@ -3737,7 +3759,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="19">
         <v>37</v>
       </c>
@@ -3772,7 +3794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="19">
         <v>38</v>
       </c>
@@ -3805,7 +3827,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="19">
         <v>39</v>
       </c>
@@ -3840,7 +3862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="19">
         <v>40</v>
       </c>
@@ -3875,7 +3897,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="19">
         <v>41</v>
       </c>
@@ -3910,7 +3932,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="19">
         <v>42</v>
       </c>
@@ -3945,7 +3967,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="19">
         <v>43</v>
       </c>
@@ -3981,7 +4003,7 @@
       </c>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="19">
         <v>44</v>
       </c>
@@ -4016,7 +4038,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="19">
         <v>45</v>
       </c>
@@ -4051,7 +4073,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="19">
         <v>46</v>
       </c>
@@ -4083,7 +4105,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="19">
         <v>47</v>
       </c>
@@ -4115,7 +4137,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="19">
         <v>48</v>
       </c>
@@ -4150,7 +4172,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A50" s="19">
         <v>49</v>
       </c>
@@ -4185,7 +4207,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="19">
         <v>50</v>
       </c>
@@ -4220,7 +4242,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="19">
         <v>51</v>
       </c>
@@ -4255,7 +4277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="19">
         <v>52</v>
       </c>
@@ -4290,7 +4312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="19">
         <v>53</v>
       </c>
@@ -4325,7 +4347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="19">
         <v>54</v>
       </c>
@@ -4360,7 +4382,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="19">
         <v>55</v>
       </c>
@@ -4393,7 +4415,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="19">
         <v>56</v>
       </c>
@@ -4428,7 +4450,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="19">
         <v>57</v>
       </c>
@@ -4463,7 +4485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="19">
         <v>58</v>
       </c>
@@ -4496,7 +4518,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="19">
         <v>59</v>
       </c>
@@ -4529,7 +4551,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="19">
         <v>60</v>
       </c>
@@ -4562,7 +4584,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="19">
         <v>61</v>
       </c>
@@ -4595,7 +4617,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="19">
         <v>62</v>
       </c>
@@ -4628,7 +4650,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="19">
         <v>63</v>
       </c>
@@ -4661,7 +4683,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="19">
         <v>64</v>
       </c>
@@ -4696,7 +4718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="19">
         <v>65</v>
       </c>
@@ -4731,7 +4753,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="19">
         <v>66</v>
       </c>
@@ -4766,7 +4788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="19">
         <v>67</v>
       </c>
@@ -4801,7 +4823,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="19">
         <v>68</v>
       </c>
@@ -4836,7 +4858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="19">
         <v>69</v>
       </c>
@@ -4869,7 +4891,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="19">
         <v>70</v>
       </c>
@@ -4904,7 +4926,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="19">
         <v>71</v>
       </c>
@@ -4939,7 +4961,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="19">
         <v>72</v>
       </c>
@@ -4974,7 +4996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="19">
         <v>73</v>
       </c>
@@ -5009,7 +5031,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="19">
         <v>74</v>
       </c>
@@ -5044,7 +5066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="19">
         <v>75</v>
       </c>
@@ -5079,7 +5101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="19">
         <v>76</v>
       </c>
@@ -5114,7 +5136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="19">
         <v>77</v>
       </c>
@@ -5147,7 +5169,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="19">
         <v>78</v>
       </c>
@@ -5179,7 +5201,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="19">
         <v>79</v>
       </c>
@@ -5211,7 +5233,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A81" s="19">
         <v>80</v>
       </c>
@@ -5246,7 +5268,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="19">
         <v>81</v>
       </c>
@@ -5281,7 +5303,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A83" s="19">
         <v>82</v>
       </c>
@@ -5316,7 +5338,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A84" s="19">
         <v>83</v>
       </c>
@@ -5351,7 +5373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="19">
         <v>84</v>
       </c>
@@ -5384,7 +5406,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="19">
         <v>85</v>
       </c>
@@ -5416,7 +5438,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="19">
         <v>86</v>
       </c>
@@ -5451,7 +5473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="19">
         <v>87</v>
       </c>
@@ -5484,7 +5506,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="19">
         <v>88</v>
       </c>
@@ -5517,7 +5539,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="19">
         <v>89</v>
       </c>
@@ -5552,7 +5574,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="19">
         <v>90</v>
       </c>
@@ -5585,7 +5607,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="19">
         <v>91</v>
       </c>
@@ -5618,7 +5640,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A93" s="19">
         <v>92</v>
       </c>
@@ -5653,7 +5675,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="19">
         <v>93</v>
       </c>
@@ -5688,7 +5710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="19">
         <v>94</v>
       </c>
@@ -5723,7 +5745,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="19">
         <v>95</v>
       </c>
@@ -5758,7 +5780,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="19">
         <v>96</v>
       </c>
@@ -5793,7 +5815,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A98" s="19">
         <v>97</v>
       </c>
@@ -5828,7 +5850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="19">
         <v>98</v>
       </c>
@@ -5860,7 +5882,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="19">
         <v>99</v>
       </c>
@@ -5893,7 +5915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="19">
         <v>100</v>
       </c>
@@ -5928,7 +5950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A102" s="19">
         <v>101</v>
       </c>
@@ -5963,7 +5985,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="19">
         <v>102</v>
       </c>
@@ -5998,7 +6020,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="19">
         <v>103</v>
       </c>
@@ -6031,7 +6053,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="19">
         <v>104</v>
       </c>
@@ -6066,7 +6088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="19">
         <v>105</v>
       </c>
@@ -6101,7 +6123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" s="19">
         <v>106</v>
       </c>
@@ -6133,7 +6155,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A108" s="19">
         <v>107</v>
       </c>
@@ -6165,7 +6187,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="19">
         <v>108</v>
       </c>
@@ -6197,7 +6219,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="19">
         <v>109</v>
       </c>
@@ -6229,7 +6251,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="19">
         <v>110</v>
       </c>
@@ -6262,7 +6284,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="19">
         <v>111</v>
       </c>
@@ -6295,7 +6317,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A113" s="19">
         <v>112</v>
       </c>
@@ -6328,7 +6350,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A114" s="19">
         <v>113</v>
       </c>
@@ -6361,7 +6383,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="19">
         <v>114</v>
       </c>
@@ -6394,7 +6416,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A116" s="19">
         <v>115</v>
       </c>
@@ -6427,7 +6449,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="19">
         <v>116</v>
       </c>
@@ -6460,7 +6482,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A118" s="19">
         <v>117</v>
       </c>
@@ -6493,7 +6515,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="19">
         <v>118</v>
       </c>
@@ -6525,7 +6547,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A120" s="19">
         <v>119</v>
       </c>
@@ -6557,7 +6579,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A121" s="19">
         <v>120</v>
       </c>
@@ -6589,7 +6611,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A122" s="19">
         <v>121</v>
       </c>
@@ -6621,7 +6643,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="19">
         <v>122</v>
       </c>
@@ -6653,7 +6675,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A124" s="19">
         <v>123</v>
       </c>
@@ -6685,7 +6707,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="19">
         <v>124</v>
       </c>
@@ -6717,7 +6739,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A126" s="19">
         <v>125</v>
       </c>
@@ -6749,7 +6771,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="19">
         <v>126</v>
       </c>
@@ -6781,7 +6803,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="19">
         <v>127</v>
       </c>
@@ -6811,6 +6833,41 @@
       </c>
       <c r="K128" s="3" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="19">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>444</v>
+      </c>
+      <c r="C129" t="s">
+        <v>445</v>
+      </c>
+      <c r="D129" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E129" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="46" t="s">
+        <v>446</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="H129">
+        <v>5</v>
+      </c>
+      <c r="I129" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="J129" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="K129" s="41" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -6819,6 +6876,7 @@
     <hyperlink ref="B7" r:id="rId2" display="https://mica.mdc-berlin.de/variable/microbiome-in-health-and-disease-and-in-ageing:SMOKE_ST:Dataschema" xr:uid="{FAD6DFA0-03A7-4E34-8AF3-9DB2877CE1C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6832,6 +6890,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -7072,18 +7142,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
   <ds:schemaRefs>
@@ -7093,6 +7151,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8FD927B-486E-4736-8E9F-ABBC39C726CA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7109,21 +7184,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC078A85-A0D9-44EE-BD14-9B9B5CE81389}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF856BAC-0E46-4899-8C93-2FB21D27EF86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>Mlstr_harmo::status_detail</t>
   </si>
   <si>
-    <t>participant identification number</t>
-  </si>
-  <si>
     <t>KORA_S1_P1</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
   </si>
   <si>
     <t>BMI</t>
-  </si>
-  <si>
-    <t>Body Mass index at baseline</t>
   </si>
   <si>
     <t>atbmi</t>
@@ -517,9 +511,6 @@
     <t>CHEESE_0505</t>
   </si>
   <si>
-    <t>Intake of Cheese [g/d]</t>
-  </si>
-  <si>
     <t>AV248</t>
   </si>
   <si>
@@ -529,10 +520,6 @@
     <t>DAIRYDESSERT_0506</t>
   </si>
   <si>
-    <t>Intake of dairy dessert and similar
-Starchy pudding [g/d]</t>
-  </si>
-  <si>
     <t>CREAM_PROD_0507</t>
   </si>
   <si>
@@ -554,9 +541,6 @@
     <t>NONDAIRYCREAM_050702</t>
   </si>
   <si>
-    <t>Intake of Imitation cream, non-dairy coffee creamers and dairy imitates other than milk [g/d]</t>
-  </si>
-  <si>
     <t>MILK_FOR_COFFEE_0508</t>
   </si>
   <si>
@@ -572,10 +556,6 @@
     <t>CEREAL_PROD_06</t>
   </si>
   <si>
-    <t>Intake of cereals and cereal primary derivatives
-Cereal grains (and cereal-like grains) [g/d]</t>
-  </si>
-  <si>
     <t>AV711; AV715; AV719; AV731; AV511; AV512; AV515; AV517; AV540</t>
   </si>
   <si>
@@ -670,9 +650,6 @@
   </si>
   <si>
     <t>DOUGH_PASTRY_0606</t>
-  </si>
-  <si>
-    <t>Intake of fine bakery wares [g/d]</t>
   </si>
   <si>
     <t>AV540 (fine bakery products) zu CAKES_12</t>
@@ -795,15 +772,9 @@
     <t>OTHERPOULTRY_070200</t>
   </si>
   <si>
-    <t>Intake of other poultry meat[g/d]</t>
-  </si>
-  <si>
     <t>CHICKEN_070201</t>
   </si>
   <si>
-    <t>Intake of chicken meat[g/d]</t>
-  </si>
-  <si>
     <t>TURKEY_070202</t>
   </si>
   <si>
@@ -876,9 +847,6 @@
     <t>FISH_0801</t>
   </si>
   <si>
-    <t>Intake of Fish (meat) [g/d]</t>
-  </si>
-  <si>
     <t>AV170</t>
   </si>
   <si>
@@ -894,9 +862,6 @@
     <t>FISH_PROD_0803</t>
   </si>
   <si>
-    <t>Intake of processed fish[g/d]</t>
-  </si>
-  <si>
     <t>AV180; AV190</t>
   </si>
   <si>
@@ -1035,9 +1000,6 @@
     <t>CHOCOLATE_1102</t>
   </si>
   <si>
-    <t>Intake of chocolate, chocolate products and chocolate coated conectionary [g/d]</t>
-  </si>
-  <si>
     <t>AV620; AV630</t>
   </si>
   <si>
@@ -1096,9 +1058,6 @@
   </si>
   <si>
     <t>CAKES_12</t>
-  </si>
-  <si>
-    <t>Intake of cakes and fine bakery wares [g/d]</t>
   </si>
   <si>
     <t>AV540; AV570</t>
@@ -1368,9 +1327,6 @@
     <t>CONDIMENTS_1504</t>
   </si>
   <si>
-    <t>Condiments intakes [g/d]</t>
-  </si>
-  <si>
     <t>SOUP_BOUILLON_16</t>
   </si>
   <si>
@@ -1386,10 +1342,6 @@
     <t>BOUILLON_1602</t>
   </si>
   <si>
-    <t>Intake of mixed vegetables soup, clear
-meat soup, clear [g/d]</t>
-  </si>
-  <si>
     <t>MISCELLANEOUS_17</t>
   </si>
   <si>
@@ -1427,9 +1379,6 @@
   </si>
   <si>
     <t>AMPHIBIANS_1704</t>
-  </si>
-  <si>
-    <t>intake of amphibians, reptiles, snails, insects [g/d]</t>
   </si>
   <si>
     <t>ID</t>
@@ -1467,6 +1416,54 @@
   </si>
   <si>
     <t>5 (7_d_FR_w)</t>
+  </si>
+  <si>
+    <t>Participant identification number</t>
+  </si>
+  <si>
+    <t>Body Mass Index at baseline</t>
+  </si>
+  <si>
+    <t>Intake of cheese [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of dairy dessert and similar starchy pudding [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of imitation cream, non-dairy coffee creamers and dairy imitates other than milk [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of cereals and cereal primary derivatives, cereal grains (and cereal-like grains) [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of fine bakery products [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of other poultry meat [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of chicken meat [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of fish (meat) [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of processed fish [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of chocolate, chocolate products and chocolate coated confectionary [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of cakes and fine bakery products [g/d]</t>
+  </si>
+  <si>
+    <t>Condiments intake [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of mixed vegetables soup, clear meat soup [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of amphibians, reptiles, snails, insects [g/d]</t>
   </si>
 </sst>
 </file>
@@ -2480,8 +2477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="H129" sqref="H129"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2540,32 +2537,32 @@
         <v>1</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>11</v>
+        <v>433</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="G2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="40" t="s">
-        <v>443</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>13</v>
-      </c>
       <c r="H2" s="41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="43"/>
       <c r="J2" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="41" t="s">
         <v>14</v>
-      </c>
-      <c r="K2" s="41" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -2573,32 +2570,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="D3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="E3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -2606,32 +2603,32 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="D4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -2639,32 +2636,32 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="D5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="G5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -2672,32 +2669,32 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>28</v>
-      </c>
       <c r="D6" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="17" t="s">
         <v>31</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -2705,32 +2702,32 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="D7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="G7" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -2738,32 +2735,32 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>38</v>
-      </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
         <v>14</v>
-      </c>
-      <c r="K8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -2771,32 +2768,32 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>41</v>
-      </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
         <v>14</v>
-      </c>
-      <c r="K9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -2804,34 +2801,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="G10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="I10" s="44" t="s">
+        <v>422</v>
+      </c>
+      <c r="J10" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="K10" s="42" t="s">
         <v>46</v>
-      </c>
-      <c r="I10" s="44" t="s">
-        <v>438</v>
-      </c>
-      <c r="J10" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="42" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -2839,34 +2836,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="J11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="23" t="s">
+      <c r="K11" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -2874,32 +2871,32 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
@@ -2907,34 +2904,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="G13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="I13" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>60</v>
-      </c>
       <c r="J13" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -2942,34 +2939,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="G14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="I14" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="K14" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -2977,34 +2974,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="G15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="I15" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>69</v>
-      </c>
       <c r="J15" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -3012,34 +3009,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="G16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>73</v>
-      </c>
       <c r="J16" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -3047,34 +3044,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="G17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="I17" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>78</v>
-      </c>
       <c r="J17" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -3082,31 +3079,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -3114,32 +3111,32 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -3147,34 +3144,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="G20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>86</v>
-      </c>
       <c r="J20" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -3182,34 +3179,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="J21" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>47</v>
-      </c>
       <c r="K21" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3217,32 +3214,32 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I22" s="24"/>
       <c r="J22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -3250,34 +3247,34 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="G23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>94</v>
-      </c>
       <c r="J23" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3285,32 +3282,32 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I24" s="24"/>
       <c r="J24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -3318,34 +3315,34 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="G25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="36" t="s">
+      <c r="I25" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>101</v>
-      </c>
       <c r="J25" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="230.4" x14ac:dyDescent="0.3">
@@ -3353,34 +3350,34 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="G26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="14" t="s">
+      <c r="I26" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>106</v>
-      </c>
       <c r="J26" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -3388,34 +3385,34 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="G27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>110</v>
-      </c>
       <c r="J27" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
@@ -3423,34 +3420,34 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="G28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="I28" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I28" s="29" t="s">
-        <v>115</v>
-      </c>
       <c r="J28" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -3458,32 +3455,32 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I29" s="30"/>
       <c r="J29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
@@ -3491,34 +3488,34 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="G30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="5" t="s">
+      <c r="I30" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="I30" s="31" t="s">
-        <v>122</v>
-      </c>
       <c r="J30" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -3526,34 +3523,34 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="G31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="32" t="s">
-        <v>126</v>
-      </c>
       <c r="J31" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="72" x14ac:dyDescent="0.3">
@@ -3561,32 +3558,32 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I32" s="21"/>
       <c r="J32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -3594,34 +3591,34 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="G33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D33" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" t="s">
-        <v>131</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>132</v>
-      </c>
       <c r="J33" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -3629,34 +3626,34 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="G34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>136</v>
-      </c>
       <c r="J34" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -3664,66 +3661,66 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>435</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>136</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" t="s">
-        <v>139</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="19" t="s">
-        <v>140</v>
-      </c>
       <c r="J35" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>142</v>
+        <v>436</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -3731,32 +3728,32 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I37" s="24"/>
       <c r="J37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -3764,34 +3761,34 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I38" s="24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
@@ -3799,32 +3796,32 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>150</v>
+        <v>437</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I39" s="24"/>
       <c r="J39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="72" x14ac:dyDescent="0.3">
@@ -3832,34 +3829,34 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="72" x14ac:dyDescent="0.3">
@@ -3867,34 +3864,34 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>156</v>
+        <v>438</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="I41" s="31" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -3902,34 +3899,34 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I42" s="31" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -3937,34 +3934,34 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I43" s="30" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -3972,34 +3969,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I44" s="32" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L44" s="6"/>
     </row>
@@ -4008,34 +4005,34 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="I45" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -4043,34 +4040,34 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F46" s="37" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I46" s="30" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -4078,31 +4075,31 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F47" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -4110,31 +4107,31 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J48" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4142,34 +4139,34 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>189</v>
+        <v>439</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I49" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I49" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
@@ -4177,34 +4174,34 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C50" s="39" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="I50" s="23" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
@@ -4212,34 +4209,34 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="I51" s="31" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -4247,34 +4244,34 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -4282,34 +4279,34 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C53" s="39" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -4317,34 +4314,34 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C54" s="39" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -4352,34 +4349,34 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G55" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H55" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="I55" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="J55" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="H55" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="I55" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="J55" s="42" t="s">
-        <v>47</v>
-      </c>
       <c r="K55" s="42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -4387,32 +4384,32 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C56" s="39" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H56" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I56" s="24"/>
       <c r="J56" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K56" s="42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -4420,34 +4417,34 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F57" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H57" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="I57" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="J57" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="H57" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="I57" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="J57" s="42" t="s">
-        <v>47</v>
-      </c>
       <c r="K57" s="42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -4455,34 +4452,34 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C58" s="39" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I58" s="30" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -4490,32 +4487,32 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>228</v>
+        <v>440</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I59" s="24"/>
       <c r="J59" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K59" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -4523,32 +4520,32 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C60" s="39" t="s">
-        <v>230</v>
+        <v>441</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I60" s="24"/>
       <c r="J60" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K60" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -4556,32 +4553,32 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I61" s="24"/>
       <c r="J61" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K61" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -4589,32 +4586,32 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I62" s="24"/>
       <c r="J62" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K62" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -4622,32 +4619,32 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C63" s="39" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I63" s="24"/>
       <c r="J63" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K63" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -4655,32 +4652,32 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I64" s="24"/>
       <c r="J64" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K64" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -4688,34 +4685,34 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C65" s="39" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I65" s="24" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -4723,34 +4720,34 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C66" s="39" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -4758,34 +4755,34 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I67" s="30" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -4793,34 +4790,34 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C68" s="39" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="I68" s="23" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -4828,34 +4825,34 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C69" s="39" t="s">
-        <v>255</v>
+        <v>442</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I69" s="30" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -4863,32 +4860,32 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I70" s="24"/>
       <c r="J70" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K70" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -4896,34 +4893,34 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C71" s="39" t="s">
-        <v>261</v>
+        <v>443</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="I71" s="31" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -4931,34 +4928,34 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C72" s="39" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I72" s="30" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -4966,34 +4963,34 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C73" s="39" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I73" s="30" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -5001,34 +4998,34 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="I74" s="31" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -5036,34 +5033,34 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I75" s="30" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -5071,34 +5068,34 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I76" s="30" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -5106,34 +5103,34 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C77" s="39" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I77" s="30" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -5141,32 +5138,32 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C78" s="39" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I78" s="24"/>
       <c r="J78" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K78" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -5174,31 +5171,31 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C79" s="39" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F79" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J79" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G79" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J79" s="3" t="s">
+      <c r="K79" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -5206,31 +5203,31 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C80" s="39" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F80" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J80" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G80" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J80" s="3" t="s">
+      <c r="K80" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
@@ -5238,34 +5235,34 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C81" s="39" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="I81" s="31" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -5273,34 +5270,34 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="I82" s="30" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
@@ -5308,34 +5305,34 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C83" s="39" t="s">
-        <v>308</v>
+        <v>444</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H83" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="I83" s="31" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -5343,34 +5340,34 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C84" s="39" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I84" s="19" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -5378,32 +5375,32 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C85" s="39" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I85" s="24"/>
       <c r="J85" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K85" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -5411,31 +5408,31 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C86" s="39" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F86" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J86" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G86" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J86" s="3" t="s">
+      <c r="K86" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -5443,34 +5440,34 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C87" s="39" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I87" s="24" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -5478,32 +5475,32 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C88" s="39" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I88" s="24"/>
       <c r="J88" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K88" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -5511,32 +5508,32 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C89" s="39" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I89" s="24"/>
       <c r="J89" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K89" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5544,34 +5541,34 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C90" s="39" t="s">
-        <v>329</v>
+        <v>445</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="I90" s="32" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -5579,32 +5576,32 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="C91" s="39" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I91" s="24"/>
       <c r="J91" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K91" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -5612,32 +5609,32 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="C92" s="39" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I92" s="24"/>
       <c r="J92" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K92" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K92" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
@@ -5645,34 +5642,34 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="C93" s="39" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="I93" s="33" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -5680,34 +5677,34 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I94" s="30" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -5715,34 +5712,34 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C95" s="39" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H95" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="I95" s="23" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -5750,34 +5747,34 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="C96" s="39" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="I96" s="31" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -5785,34 +5782,34 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="C97" s="39" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H97" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="I97" s="31" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -5820,34 +5817,34 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="C98" s="39" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I98" s="30" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -5855,31 +5852,31 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="C99" s="39" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F99" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J99" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G99" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J99" s="3" t="s">
+      <c r="K99" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -5887,32 +5884,32 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="C100" s="39" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I100" s="24"/>
       <c r="J100" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -5920,34 +5917,34 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="C101" s="39" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I101" s="30" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
@@ -5955,34 +5952,34 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="C102" s="39" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="I102" s="33" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -5990,34 +5987,34 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C103" s="39" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="I103" s="33" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -6025,32 +6022,32 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="C104" s="39" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I104" s="24"/>
       <c r="J104" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K104" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -6058,34 +6055,34 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="C105" s="39" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I105" s="19" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -6093,34 +6090,34 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="C106" s="39" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -6128,31 +6125,31 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C107" s="39" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F107" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J107" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G107" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J107" s="3" t="s">
+      <c r="K107" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K107" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -6160,31 +6157,31 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="C108" s="39" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F108" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J108" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G108" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J108" s="3" t="s">
+      <c r="K108" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K108" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -6192,31 +6189,31 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="C109" s="39" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F109" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J109" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G109" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J109" s="3" t="s">
+      <c r="K109" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -6224,31 +6221,31 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="C110" s="39" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E110" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F110" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J110" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G110" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J110" s="3" t="s">
+      <c r="K110" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K110" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -6256,32 +6253,32 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="C111" s="39" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E111" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I111" s="24"/>
       <c r="J111" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K111" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K111" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -6289,32 +6286,32 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="C112" s="39" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I112" s="24"/>
       <c r="J112" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K112" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K112" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -6322,32 +6319,32 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="C113" s="39" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I113" s="24"/>
       <c r="J113" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K113" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K113" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -6355,32 +6352,32 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="C114" s="39" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I114" s="24"/>
       <c r="J114" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K114" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K114" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -6388,32 +6385,32 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="C115" s="39" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I115" s="24"/>
       <c r="J115" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K115" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K115" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -6421,32 +6418,32 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="C116" s="39" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I116" s="24"/>
       <c r="J116" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K116" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K116" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -6454,32 +6451,32 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="C117" s="39" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I117" s="24"/>
       <c r="J117" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K117" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K117" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -6487,32 +6484,32 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="C118" s="39" t="s">
-        <v>416</v>
+        <v>446</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I118" s="24"/>
       <c r="J118" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K118" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K118" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -6520,31 +6517,31 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="C119" s="39" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F119" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J119" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G119" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J119" s="3" t="s">
+      <c r="K119" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K119" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -6552,63 +6549,63 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="C120" s="39" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F120" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J120" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G120" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J120" s="3" t="s">
+      <c r="K120" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K120" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="19">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="C121" s="39" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F121" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J121" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G121" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H121" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J121" s="3" t="s">
+      <c r="K121" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K121" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -6616,31 +6613,31 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="C122" s="39" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F122" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J122" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G122" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J122" s="3" t="s">
+      <c r="K122" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K122" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -6648,31 +6645,31 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="C123" s="39" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F123" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J123" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G123" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J123" s="3" t="s">
+      <c r="K123" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K123" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -6680,31 +6677,31 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="C124" s="39" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F124" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J124" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G124" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J124" s="3" t="s">
+      <c r="K124" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K124" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -6712,31 +6709,31 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="C125" s="39" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F125" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J125" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G125" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J125" s="3" t="s">
+      <c r="K125" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K125" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -6744,31 +6741,31 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="C126" s="39" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E126" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F126" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J126" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G126" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H126" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J126" s="3" t="s">
+      <c r="K126" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K126" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -6776,31 +6773,31 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="C127" s="39" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E127" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F127" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J127" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G127" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J127" s="3" t="s">
+      <c r="K127" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K127" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -6808,31 +6805,31 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="C128" s="39" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E128" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F128" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J128" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G128" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J128" s="3" t="s">
+      <c r="K128" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K128" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6840,34 +6837,34 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="C129" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="D129" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E129" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F129" s="46" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="H129">
         <v>5</v>
       </c>
       <c r="I129" s="19" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="J129" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K129" s="41" t="s">
         <v>14</v>
-      </c>
-      <c r="K129" s="41" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -6881,27 +6878,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -7142,32 +7118,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8FD927B-486E-4736-8E9F-ABBC39C726CA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7184,4 +7156,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF856BAC-0E46-4899-8C93-2FB21D27EF86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07A4D58-25F4-44EC-81D2-3DD5F914F1DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements_templa" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="450">
   <si>
     <t>index</t>
   </si>
@@ -310,9 +310,6 @@
   </si>
   <si>
     <t xml:space="preserve">AV491 </t>
-  </si>
-  <si>
-    <t>AV491 (dry legumes) </t>
   </si>
   <si>
     <t>LEGUMES_0301</t>
@@ -892,12 +889,6 @@
     <t>Intake of eggs [g/d]</t>
   </si>
   <si>
-    <t>AV255</t>
-  </si>
-  <si>
-    <t>AV255 (egg products)</t>
-  </si>
-  <si>
     <t>FAT_10</t>
   </si>
   <si>
@@ -1464,6 +1455,18 @@
   </si>
   <si>
     <t>Intake of amphibians, reptiles, snails, insects [g/d]</t>
+  </si>
+  <si>
+    <t>AV491*2</t>
+  </si>
+  <si>
+    <t>double the amount of AV491 (dry legumes) to be comparable to other studies</t>
+  </si>
+  <si>
+    <t>AV250</t>
+  </si>
+  <si>
+    <t>AV250 (fresh eggs)</t>
   </si>
 </sst>
 </file>
@@ -2477,27 +2480,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="19"/>
+    <col min="1" max="1" width="11.42578125" style="19"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="19"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="19"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2532,15 +2535,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>1</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D2" s="43" t="s">
         <v>17</v>
@@ -2549,7 +2552,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G2" s="41" t="s">
         <v>12</v>
@@ -2565,7 +2568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -2598,7 +2601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -2631,7 +2634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -2664,7 +2667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -2697,7 +2700,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -2730,7 +2733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -2738,7 +2741,7 @@
         <v>35</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>28</v>
@@ -2763,7 +2766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -2796,7 +2799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -2822,7 +2825,7 @@
         <v>44</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J10" s="42" t="s">
         <v>45</v>
@@ -2831,7 +2834,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -2866,7 +2869,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -2899,7 +2902,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -2934,7 +2937,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -2960,7 +2963,7 @@
         <v>62</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>45</v>
@@ -2969,7 +2972,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -3004,7 +3007,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -3039,7 +3042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -3074,7 +3077,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -3106,7 +3109,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -3139,7 +3142,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -3174,7 +3177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -3200,7 +3203,7 @@
         <v>62</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="J21" s="42" t="s">
         <v>45</v>
@@ -3209,7 +3212,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>21</v>
       </c>
@@ -3242,7 +3245,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -3262,30 +3265,30 @@
         <v>91</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>19</v>
+        <v>446</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>92</v>
+        <v>447</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>50</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="39" t="s">
         <v>93</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>94</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>28</v>
@@ -3310,33 +3313,33 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="285" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="D25" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="36" t="s">
         <v>96</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>97</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" s="23" t="s">
         <v>98</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>99</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>50</v>
@@ -3345,33 +3348,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="240" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="D26" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>102</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H26" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I26" s="28" t="s">
         <v>103</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>104</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>50</v>
@@ -3380,24 +3383,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="D27" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
         <v>106</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>107</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>19</v>
@@ -3406,7 +3409,7 @@
         <v>19</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>50</v>
@@ -3415,33 +3418,33 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="D28" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H28" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="29" t="s">
         <v>112</v>
-      </c>
-      <c r="I28" s="29" t="s">
-        <v>113</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>50</v>
@@ -3450,15 +3453,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="39" t="s">
         <v>114</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>115</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>28</v>
@@ -3483,33 +3486,33 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="D30" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H30" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I30" s="31" t="s">
         <v>119</v>
-      </c>
-      <c r="I30" s="31" t="s">
-        <v>120</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>50</v>
@@ -3518,24 +3521,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="D31" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>19</v>
@@ -3544,7 +3547,7 @@
         <v>19</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>50</v>
@@ -3553,15 +3556,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="39" t="s">
         <v>125</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>126</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>28</v>
@@ -3586,24 +3589,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="D33" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
         <v>128</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" t="s">
-        <v>129</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>19</v>
@@ -3612,7 +3615,7 @@
         <v>19</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>50</v>
@@ -3621,24 +3624,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="D34" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="37" t="s">
         <v>132</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>133</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>19</v>
@@ -3647,7 +3650,7 @@
         <v>19</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>50</v>
@@ -3656,24 +3659,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>432</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
         <v>135</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>435</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" t="s">
-        <v>136</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>19</v>
@@ -3682,7 +3685,7 @@
         <v>19</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>50</v>
@@ -3691,15 +3694,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>28</v>
@@ -3723,15 +3726,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="39" t="s">
         <v>139</v>
-      </c>
-      <c r="C37" s="39" t="s">
-        <v>140</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>28</v>
@@ -3756,24 +3759,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="D38" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
         <v>142</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" t="s">
-        <v>143</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>19</v>
@@ -3782,7 +3785,7 @@
         <v>19</v>
       </c>
       <c r="I38" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>50</v>
@@ -3791,15 +3794,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>28</v>
@@ -3824,24 +3827,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="D40" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
         <v>147</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" t="s">
-        <v>148</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>19</v>
@@ -3850,7 +3853,7 @@
         <v>19</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>50</v>
@@ -3859,33 +3862,33 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>435</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="C41" s="39" t="s">
-        <v>438</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H41" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="I41" s="31" t="s">
         <v>152</v>
-      </c>
-      <c r="I41" s="31" t="s">
-        <v>153</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>50</v>
@@ -3894,33 +3897,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="D42" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>156</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H42" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I42" s="31" t="s">
         <v>157</v>
-      </c>
-      <c r="I42" s="31" t="s">
-        <v>158</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>50</v>
@@ -3929,33 +3932,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="D43" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H43" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I43" s="30" t="s">
         <v>162</v>
-      </c>
-      <c r="I43" s="30" t="s">
-        <v>163</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>50</v>
@@ -3964,33 +3967,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="D44" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="36" t="s">
         <v>165</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="36" t="s">
-        <v>166</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H44" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="I44" s="32" t="s">
         <v>167</v>
-      </c>
-      <c r="I44" s="32" t="s">
-        <v>168</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>50</v>
@@ -4000,33 +4003,33 @@
       </c>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="C45" s="39" t="s">
+      <c r="D45" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H45" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="I45" s="32" t="s">
         <v>172</v>
-      </c>
-      <c r="I45" s="32" t="s">
-        <v>173</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>50</v>
@@ -4035,24 +4038,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="D46" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="37" t="s">
         <v>175</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>176</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>19</v>
@@ -4061,7 +4064,7 @@
         <v>19</v>
       </c>
       <c r="I46" s="30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>50</v>
@@ -4070,15 +4073,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" s="39" t="s">
         <v>178</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>179</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>28</v>
@@ -4102,15 +4105,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="39" t="s">
         <v>180</v>
-      </c>
-      <c r="C48" s="39" t="s">
-        <v>181</v>
       </c>
       <c r="D48" s="19" t="s">
         <v>28</v>
@@ -4134,15 +4137,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D49" s="19" t="s">
         <v>28</v>
@@ -4160,7 +4163,7 @@
         <v>30</v>
       </c>
       <c r="I49" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>30</v>
@@ -4169,33 +4172,33 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="C50" s="39" t="s">
+      <c r="D50" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H50" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I50" s="23" t="s">
         <v>187</v>
-      </c>
-      <c r="I50" s="23" t="s">
-        <v>188</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>50</v>
@@ -4204,33 +4207,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="C51" s="39" t="s">
+      <c r="D51" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H51" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I51" s="31" t="s">
         <v>192</v>
-      </c>
-      <c r="I51" s="31" t="s">
-        <v>193</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>50</v>
@@ -4239,24 +4242,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="C52" s="39" t="s">
+      <c r="D52" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>19</v>
@@ -4265,7 +4268,7 @@
         <v>19</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>50</v>
@@ -4274,24 +4277,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="C53" s="39" t="s">
+      <c r="D53" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>19</v>
@@ -4300,7 +4303,7 @@
         <v>19</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>50</v>
@@ -4309,24 +4312,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="19">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="C54" s="39" t="s">
+      <c r="D54" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>19</v>
@@ -4335,7 +4338,7 @@
         <v>19</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>50</v>
@@ -4344,33 +4347,33 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="D55" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>208</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H55" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="I55" s="28" t="s">
         <v>209</v>
-      </c>
-      <c r="I55" s="28" t="s">
-        <v>210</v>
       </c>
       <c r="J55" s="42" t="s">
         <v>45</v>
@@ -4379,15 +4382,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C56" s="39" t="s">
         <v>211</v>
-      </c>
-      <c r="C56" s="39" t="s">
-        <v>212</v>
       </c>
       <c r="D56" s="19" t="s">
         <v>28</v>
@@ -4412,16 +4415,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C57" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="C57" s="39" t="s">
-        <v>214</v>
-      </c>
       <c r="D57" s="19" t="s">
         <v>28</v>
       </c>
@@ -4429,16 +4432,16 @@
         <v>11</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H57" s="45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I57" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J57" s="42" t="s">
         <v>45</v>
@@ -4447,24 +4450,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C58" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="C58" s="39" t="s">
+      <c r="D58" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
         <v>217</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" t="s">
-        <v>218</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>19</v>
@@ -4473,7 +4476,7 @@
         <v>19</v>
       </c>
       <c r="I58" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>50</v>
@@ -4482,15 +4485,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D59" s="19" t="s">
         <v>28</v>
@@ -4515,15 +4518,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C60" s="39" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D60" s="19" t="s">
         <v>28</v>
@@ -4548,15 +4551,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C61" s="39" t="s">
         <v>222</v>
-      </c>
-      <c r="C61" s="39" t="s">
-        <v>223</v>
       </c>
       <c r="D61" s="19" t="s">
         <v>28</v>
@@ -4581,15 +4584,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C62" s="39" t="s">
         <v>224</v>
-      </c>
-      <c r="C62" s="39" t="s">
-        <v>225</v>
       </c>
       <c r="D62" s="19" t="s">
         <v>28</v>
@@ -4614,15 +4617,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C63" s="39" t="s">
         <v>226</v>
-      </c>
-      <c r="C63" s="39" t="s">
-        <v>227</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>28</v>
@@ -4647,15 +4650,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C64" s="39" t="s">
         <v>228</v>
-      </c>
-      <c r="C64" s="39" t="s">
-        <v>229</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>28</v>
@@ -4680,24 +4683,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C65" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="C65" s="39" t="s">
+      <c r="D65" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
         <v>231</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" t="s">
-        <v>232</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>19</v>
@@ -4706,7 +4709,7 @@
         <v>19</v>
       </c>
       <c r="I65" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J65" s="3" t="s">
         <v>50</v>
@@ -4715,16 +4718,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="19">
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C66" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="C66" s="39" t="s">
-        <v>235</v>
-      </c>
       <c r="D66" s="19" t="s">
         <v>28</v>
       </c>
@@ -4732,16 +4735,16 @@
         <v>11</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>50</v>
@@ -4750,24 +4753,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C67" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="C67" s="39" t="s">
+      <c r="D67" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
         <v>237</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E67" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" t="s">
-        <v>238</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>19</v>
@@ -4776,7 +4779,7 @@
         <v>19</v>
       </c>
       <c r="I67" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>50</v>
@@ -4785,33 +4788,33 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C68" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="C68" s="39" t="s">
+      <c r="D68" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="11" t="s">
         <v>241</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E68" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>242</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H68" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="I68" s="23" t="s">
         <v>243</v>
-      </c>
-      <c r="I68" s="23" t="s">
-        <v>244</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>50</v>
@@ -4820,24 +4823,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
         <v>245</v>
-      </c>
-      <c r="C69" s="39" t="s">
-        <v>442</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" t="s">
-        <v>246</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>19</v>
@@ -4846,7 +4849,7 @@
         <v>19</v>
       </c>
       <c r="I69" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>50</v>
@@ -4855,15 +4858,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C70" s="39" t="s">
         <v>248</v>
-      </c>
-      <c r="C70" s="39" t="s">
-        <v>249</v>
       </c>
       <c r="D70" s="19" t="s">
         <v>28</v>
@@ -4888,33 +4891,33 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>440</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="10" t="s">
         <v>250</v>
-      </c>
-      <c r="C71" s="39" t="s">
-        <v>443</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>251</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H71" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="I71" s="31" t="s">
         <v>252</v>
-      </c>
-      <c r="I71" s="31" t="s">
-        <v>253</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>50</v>
@@ -4923,33 +4926,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="19">
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>253</v>
+      </c>
+      <c r="C72" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="C72" s="39" t="s">
+      <c r="D72" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E72" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>256</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H72" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="I72" s="30" t="s">
         <v>257</v>
-      </c>
-      <c r="I72" s="30" t="s">
-        <v>258</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>50</v>
@@ -4958,16 +4961,16 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>258</v>
+      </c>
+      <c r="C73" s="39" t="s">
         <v>259</v>
       </c>
-      <c r="C73" s="39" t="s">
-        <v>260</v>
-      </c>
       <c r="D73" s="19" t="s">
         <v>28</v>
       </c>
@@ -4975,7 +4978,7 @@
         <v>11</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>261</v>
+        <v>448</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>19</v>
@@ -4984,7 +4987,7 @@
         <v>19</v>
       </c>
       <c r="I73" s="30" t="s">
-        <v>262</v>
+        <v>449</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>50</v>
@@ -4993,15 +4996,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D74" s="19" t="s">
         <v>28</v>
@@ -5010,16 +5013,16 @@
         <v>11</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I74" s="31" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>50</v>
@@ -5028,15 +5031,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D75" s="19" t="s">
         <v>28</v>
@@ -5045,7 +5048,7 @@
         <v>11</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>19</v>
@@ -5054,7 +5057,7 @@
         <v>19</v>
       </c>
       <c r="I75" s="30" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J75" s="3" t="s">
         <v>50</v>
@@ -5063,15 +5066,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D76" s="19" t="s">
         <v>28</v>
@@ -5080,7 +5083,7 @@
         <v>11</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>19</v>
@@ -5089,7 +5092,7 @@
         <v>19</v>
       </c>
       <c r="I76" s="30" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>50</v>
@@ -5098,15 +5101,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C77" s="39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D77" s="19" t="s">
         <v>28</v>
@@ -5115,7 +5118,7 @@
         <v>11</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>19</v>
@@ -5124,7 +5127,7 @@
         <v>19</v>
       </c>
       <c r="I77" s="30" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>50</v>
@@ -5133,15 +5136,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="19">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C78" s="39" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D78" s="19" t="s">
         <v>28</v>
@@ -5166,15 +5169,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C79" s="39" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D79" s="19" t="s">
         <v>28</v>
@@ -5198,15 +5201,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="19">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C80" s="39" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D80" s="19" t="s">
         <v>28</v>
@@ -5230,15 +5233,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="19">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C81" s="39" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D81" s="19" t="s">
         <v>28</v>
@@ -5247,16 +5250,16 @@
         <v>11</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I81" s="31" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>50</v>
@@ -5265,15 +5268,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="19">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D82" s="19" t="s">
         <v>28</v>
@@ -5282,16 +5285,16 @@
         <v>11</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I82" s="30" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>50</v>
@@ -5300,15 +5303,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="19">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C83" s="39" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D83" s="19" t="s">
         <v>28</v>
@@ -5317,16 +5320,16 @@
         <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H83" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I83" s="31" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>50</v>
@@ -5335,15 +5338,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" s="19">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C84" s="39" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D84" s="19" t="s">
         <v>28</v>
@@ -5352,7 +5355,7 @@
         <v>11</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>19</v>
@@ -5361,7 +5364,7 @@
         <v>19</v>
       </c>
       <c r="I84" s="19" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>50</v>
@@ -5370,15 +5373,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="19">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C85" s="39" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D85" s="19" t="s">
         <v>28</v>
@@ -5403,15 +5406,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="19">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C86" s="39" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D86" s="19" t="s">
         <v>28</v>
@@ -5435,15 +5438,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="19">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C87" s="39" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D87" s="19" t="s">
         <v>28</v>
@@ -5452,7 +5455,7 @@
         <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>19</v>
@@ -5461,7 +5464,7 @@
         <v>19</v>
       </c>
       <c r="I87" s="24" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="J87" s="3" t="s">
         <v>50</v>
@@ -5470,15 +5473,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="19">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C88" s="39" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D88" s="19" t="s">
         <v>28</v>
@@ -5503,15 +5506,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="19">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C89" s="39" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D89" s="19" t="s">
         <v>28</v>
@@ -5536,15 +5539,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="19">
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C90" s="39" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D90" s="19" t="s">
         <v>28</v>
@@ -5553,16 +5556,16 @@
         <v>11</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I90" s="32" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>50</v>
@@ -5571,15 +5574,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="19">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C91" s="39" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D91" s="19" t="s">
         <v>28</v>
@@ -5604,15 +5607,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="19">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C92" s="39" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D92" s="19" t="s">
         <v>28</v>
@@ -5637,15 +5640,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="19">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C93" s="39" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D93" s="19" t="s">
         <v>28</v>
@@ -5654,16 +5657,16 @@
         <v>11</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I93" s="33" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="J93" s="3" t="s">
         <v>50</v>
@@ -5672,15 +5675,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="19">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D94" s="19" t="s">
         <v>28</v>
@@ -5689,7 +5692,7 @@
         <v>11</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>19</v>
@@ -5698,7 +5701,7 @@
         <v>19</v>
       </c>
       <c r="I94" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>50</v>
@@ -5707,15 +5710,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="19">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C95" s="39" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D95" s="19" t="s">
         <v>28</v>
@@ -5724,16 +5727,16 @@
         <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H95" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I95" s="23" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>50</v>
@@ -5742,15 +5745,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C96" s="39" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D96" s="19" t="s">
         <v>28</v>
@@ -5759,16 +5762,16 @@
         <v>11</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I96" s="31" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>50</v>
@@ -5777,15 +5780,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="19">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C97" s="39" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D97" s="19" t="s">
         <v>28</v>
@@ -5794,16 +5797,16 @@
         <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H97" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I97" s="31" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J97" s="3" t="s">
         <v>50</v>
@@ -5812,15 +5815,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="19">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C98" s="39" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D98" s="19" t="s">
         <v>28</v>
@@ -5829,7 +5832,7 @@
         <v>11</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>19</v>
@@ -5838,7 +5841,7 @@
         <v>19</v>
       </c>
       <c r="I98" s="30" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>50</v>
@@ -5847,15 +5850,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="19">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C99" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D99" s="19" t="s">
         <v>28</v>
@@ -5879,15 +5882,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="19">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C100" s="39" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D100" s="19" t="s">
         <v>28</v>
@@ -5912,15 +5915,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="19">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C101" s="39" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D101" s="19" t="s">
         <v>28</v>
@@ -5929,7 +5932,7 @@
         <v>11</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>19</v>
@@ -5938,7 +5941,7 @@
         <v>19</v>
       </c>
       <c r="I101" s="30" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>50</v>
@@ -5947,15 +5950,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="19">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C102" s="39" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D102" s="19" t="s">
         <v>28</v>
@@ -5964,16 +5967,16 @@
         <v>11</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="I102" s="33" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>50</v>
@@ -5982,15 +5985,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="19">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C103" s="39" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D103" s="19" t="s">
         <v>28</v>
@@ -5999,16 +6002,16 @@
         <v>11</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="I103" s="33" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>50</v>
@@ -6017,15 +6020,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="19">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C104" s="39" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D104" s="19" t="s">
         <v>28</v>
@@ -6050,15 +6053,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="19">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C105" s="39" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D105" s="19" t="s">
         <v>28</v>
@@ -6067,7 +6070,7 @@
         <v>11</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>19</v>
@@ -6076,7 +6079,7 @@
         <v>19</v>
       </c>
       <c r="I105" s="19" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J105" s="3" t="s">
         <v>50</v>
@@ -6085,15 +6088,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="19">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C106" s="39" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D106" s="19" t="s">
         <v>28</v>
@@ -6102,7 +6105,7 @@
         <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>19</v>
@@ -6111,7 +6114,7 @@
         <v>19</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J106" s="3" t="s">
         <v>50</v>
@@ -6120,15 +6123,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="19">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C107" s="39" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D107" s="19" t="s">
         <v>28</v>
@@ -6152,15 +6155,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="19">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C108" s="39" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D108" s="19" t="s">
         <v>28</v>
@@ -6184,15 +6187,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="19">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C109" s="39" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D109" s="19" t="s">
         <v>28</v>
@@ -6216,15 +6219,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="19">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C110" s="39" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D110" s="19" t="s">
         <v>28</v>
@@ -6248,15 +6251,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="19">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C111" s="39" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D111" s="19" t="s">
         <v>28</v>
@@ -6281,15 +6284,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="19">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C112" s="39" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D112" s="19" t="s">
         <v>28</v>
@@ -6314,15 +6317,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="19">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C113" s="39" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D113" s="19" t="s">
         <v>28</v>
@@ -6347,15 +6350,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="19">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C114" s="39" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D114" s="19" t="s">
         <v>28</v>
@@ -6380,15 +6383,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="19">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C115" s="39" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D115" s="19" t="s">
         <v>28</v>
@@ -6413,15 +6416,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="19">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C116" s="39" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D116" s="19" t="s">
         <v>28</v>
@@ -6446,15 +6449,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="19">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C117" s="39" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D117" s="19" t="s">
         <v>28</v>
@@ -6479,15 +6482,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="19">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C118" s="39" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D118" s="19" t="s">
         <v>28</v>
@@ -6512,15 +6515,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="19">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C119" s="39" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D119" s="19" t="s">
         <v>28</v>
@@ -6544,15 +6547,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="19">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C120" s="39" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D120" s="19" t="s">
         <v>28</v>
@@ -6576,15 +6579,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="19">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C121" s="39" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D121" s="19" t="s">
         <v>28</v>
@@ -6608,15 +6611,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="19">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C122" s="39" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D122" s="19" t="s">
         <v>28</v>
@@ -6640,15 +6643,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="19">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C123" s="39" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D123" s="19" t="s">
         <v>28</v>
@@ -6672,15 +6675,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="19">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C124" s="39" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D124" s="19" t="s">
         <v>28</v>
@@ -6704,15 +6707,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="19">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C125" s="39" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D125" s="19" t="s">
         <v>28</v>
@@ -6736,15 +6739,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" s="19">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C126" s="39" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D126" s="19" t="s">
         <v>28</v>
@@ -6768,15 +6771,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="19">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C127" s="39" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D127" s="19" t="s">
         <v>28</v>
@@ -6800,15 +6803,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="19">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C128" s="39" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D128" s="19" t="s">
         <v>28</v>
@@ -6832,15 +6835,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="19">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C129" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D129" s="19" t="s">
         <v>17</v>
@@ -6849,16 +6852,16 @@
         <v>11</v>
       </c>
       <c r="F129" s="46" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H129">
         <v>5</v>
       </c>
       <c r="I129" s="19" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="J129" s="41" t="s">
         <v>13</v>
@@ -7166,8 +7169,8 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>

--- a/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07A4D58-25F4-44EC-81D2-3DD5F914F1DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4F46C2-AC70-42BB-9993-5BE933108766}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>AGE_BASE</t>
   </si>
   <si>
-    <t>Age at exposure measure</t>
-  </si>
-  <si>
     <t>atalteru</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
   </si>
   <si>
     <t>TOT_PA_QX</t>
-  </si>
-  <si>
-    <t>Physical activity from questionnaire data</t>
   </si>
   <si>
     <t>decimal</t>
@@ -967,9 +961,6 @@
     <t>AV610; AV681; AV684; AV687; AV620; AV630; AV650; AV670</t>
   </si>
   <si>
-    <t>AV610 + AV681 + AV684, AV687 +AV620 + AV630 + AV650 + AV670</t>
-  </si>
-  <si>
     <t>AV610 (sugar) + AV681 (honey) + AV684 (jam) + AV687 (other sweet spreads) + AV620 (cacao products) + AV630 (chocolate products) + AV650 (confectionary) + AV670 (all ice cream)</t>
   </si>
   <si>
@@ -1412,9 +1403,6 @@
     <t>Participant identification number</t>
   </si>
   <si>
-    <t>Body Mass Index at baseline</t>
-  </si>
-  <si>
     <t>Intake of cheese [g/d]</t>
   </si>
   <si>
@@ -1467,6 +1455,18 @@
   </si>
   <si>
     <t>AV250 (fresh eggs)</t>
+  </si>
+  <si>
+    <t>Age at exposure measure [years]</t>
+  </si>
+  <si>
+    <t>Physical activity from questionnaire data [MET-hr/day]</t>
+  </si>
+  <si>
+    <t>Body Mass Index at baseline [kg/m²]</t>
+  </si>
+  <si>
+    <t>AV610 + AV681 + AV684 + AV687 +AV620 + AV630 + AV650 + AV670</t>
   </si>
 </sst>
 </file>
@@ -2016,7 +2016,7 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2093,20 +2093,11 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2122,51 +2113,52 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Link" xfId="42" builtinId="8"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2182,7 +2174,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2480,11 +2472,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="19"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
@@ -2539,32 +2531,32 @@
       <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>418</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>430</v>
-      </c>
-      <c r="D2" s="43" t="s">
+      <c r="B2" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="C2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>424</v>
-      </c>
-      <c r="G2" s="41" t="s">
+      <c r="E2" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="G2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="41" t="s">
+      <c r="I2" s="40"/>
+      <c r="J2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="38" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2575,10 +2567,10 @@
       <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="17" t="s">
@@ -2608,17 +2600,17 @@
       <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>19</v>
@@ -2639,19 +2631,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>19</v>
@@ -2667,37 +2659,37 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2705,19 +2697,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>19</v>
@@ -2738,19 +2730,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>431</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="38" t="s">
-        <v>36</v>
+      <c r="F8" s="36" t="s">
+        <v>34</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
@@ -2771,19 +2763,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="36" t="s">
         <v>37</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>39</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
@@ -2804,34 +2796,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="G10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="I10" s="41" t="s">
+        <v>416</v>
+      </c>
+      <c r="J10" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="K10" s="39" t="s">
         <v>44</v>
-      </c>
-      <c r="I10" s="44" t="s">
-        <v>419</v>
-      </c>
-      <c r="J10" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="42" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2839,67 +2831,67 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="J11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="23" t="s">
+      <c r="K11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="C12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>28</v>
+      <c r="D12" t="s">
+        <v>26</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="150" x14ac:dyDescent="0.25">
@@ -2907,34 +2899,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="G13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="I13" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>58</v>
-      </c>
       <c r="J13" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2942,34 +2934,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="G14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="I14" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>420</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="K14" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2977,54 +2969,54 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="G15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="I15" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>67</v>
-      </c>
       <c r="J15" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>19</v>
@@ -3033,10 +3025,10 @@
         <v>19</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>14</v>
@@ -3047,34 +3039,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="G17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="I17" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>76</v>
-      </c>
       <c r="J17" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3082,84 +3074,84 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>28</v>
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>28</v>
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>19</v>
@@ -3168,10 +3160,10 @@
         <v>19</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>14</v>
@@ -3182,67 +3174,67 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>28</v>
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="J21" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>420</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>45</v>
-      </c>
       <c r="K21" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>28</v>
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I22" s="24"/>
       <c r="J22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3250,67 +3242,67 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>91</v>
-      </c>
       <c r="G23" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>28</v>
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I24" s="24"/>
       <c r="J24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="285" x14ac:dyDescent="0.25">
@@ -3318,34 +3310,34 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="G25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="36" t="s">
+      <c r="I25" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>98</v>
-      </c>
       <c r="J25" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="240" x14ac:dyDescent="0.25">
@@ -3353,54 +3345,54 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="G26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="14" t="s">
+      <c r="I26" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="14" t="s">
+      <c r="J26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="19">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I26" s="28" t="s">
+      <c r="C27" t="s">
         <v>103</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
         <v>104</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>106</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>19</v>
@@ -3409,48 +3401,48 @@
         <v>19</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="G28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="I28" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I28" s="29" t="s">
-        <v>112</v>
-      </c>
       <c r="J28" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3458,32 +3450,32 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>28</v>
+        <v>111</v>
+      </c>
+      <c r="C29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I29" s="30"/>
       <c r="J29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3491,54 +3483,54 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="G30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="5" t="s">
+      <c r="I30" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="I30" s="31" t="s">
-        <v>119</v>
-      </c>
       <c r="J30" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>19</v>
@@ -3547,66 +3539,66 @@
         <v>19</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>28</v>
+        <v>122</v>
+      </c>
+      <c r="C32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I32" s="21"/>
       <c r="J32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
         <v>126</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" t="s">
-        <v>128</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>19</v>
@@ -3615,33 +3607,33 @@
         <v>19</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="35" t="s">
         <v>130</v>
-      </c>
-      <c r="C34" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>132</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>19</v>
@@ -3650,10 +3642,10 @@
         <v>19</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>14</v>
@@ -3664,19 +3656,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>432</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>28</v>
+        <v>132</v>
+      </c>
+      <c r="C35" t="s">
+        <v>428</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>19</v>
@@ -3685,98 +3677,98 @@
         <v>19</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" s="39" t="s">
-        <v>433</v>
-      </c>
-      <c r="D36" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" t="s">
+        <v>429</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>28</v>
+        <v>136</v>
+      </c>
+      <c r="C37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I37" s="24"/>
       <c r="J37" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
         <v>140</v>
-      </c>
-      <c r="C38" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" t="s">
-        <v>142</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>19</v>
@@ -3785,66 +3777,66 @@
         <v>19</v>
       </c>
       <c r="I38" s="24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" s="39" t="s">
-        <v>434</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>28</v>
+        <v>142</v>
+      </c>
+      <c r="C39" t="s">
+        <v>430</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I39" s="24"/>
       <c r="J39" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
         <v>145</v>
-      </c>
-      <c r="C40" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" t="s">
-        <v>147</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>19</v>
@@ -3853,10 +3845,10 @@
         <v>19</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>14</v>
@@ -3867,104 +3859,104 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>431</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C41" s="39" t="s">
-        <v>435</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="5" t="s">
+      <c r="I41" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="I41" s="31" t="s">
-        <v>152</v>
-      </c>
       <c r="J41" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="G42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D42" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="13" t="s">
+      <c r="I42" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="I42" s="31" t="s">
-        <v>157</v>
-      </c>
       <c r="J42" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="G43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D43" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="4" t="s">
+      <c r="I43" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="I43" s="30" t="s">
-        <v>162</v>
-      </c>
       <c r="J43" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3972,34 +3964,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="G44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="D44" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="36" t="s">
+      <c r="I44" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H44" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="I44" s="32" t="s">
-        <v>167</v>
-      </c>
       <c r="J44" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L44" s="6"/>
     </row>
@@ -4008,54 +4000,54 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C45" s="39" t="s">
+      <c r="G45" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D45" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="10" t="s">
+      <c r="I45" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="I45" s="32" t="s">
-        <v>172</v>
-      </c>
       <c r="J45" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" t="s">
+        <v>172</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="35" t="s">
         <v>173</v>
-      </c>
-      <c r="C46" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>175</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>19</v>
@@ -4064,112 +4056,112 @@
         <v>19</v>
       </c>
       <c r="I46" s="30" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="D47" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" t="s">
+        <v>176</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C48" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="D48" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" t="s">
+        <v>178</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E48" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C49" s="39" t="s">
-        <v>436</v>
-      </c>
-      <c r="D49" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" t="s">
+        <v>432</v>
+      </c>
+      <c r="D49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E49" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="G49" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I49" s="24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -4177,34 +4169,34 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" t="s">
+        <v>182</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C50" s="39" t="s">
+      <c r="G50" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D50" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="5" t="s">
+      <c r="I50" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="I50" s="23" t="s">
-        <v>187</v>
-      </c>
       <c r="J50" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4212,54 +4204,54 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C51" t="s">
+        <v>187</v>
+      </c>
+      <c r="D51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C51" s="39" t="s">
+      <c r="G51" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D51" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="1" t="s">
+      <c r="I51" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I51" s="31" t="s">
-        <v>192</v>
-      </c>
       <c r="J51" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C52" t="s">
+        <v>192</v>
+      </c>
+      <c r="D52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="C52" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>19</v>
@@ -4268,33 +4260,33 @@
         <v>19</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C53" t="s">
+        <v>196</v>
+      </c>
+      <c r="D53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="C53" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>19</v>
@@ -4303,33 +4295,33 @@
         <v>19</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="19">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C54" t="s">
+        <v>200</v>
+      </c>
+      <c r="D54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="C54" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>19</v>
@@ -4338,48 +4330,48 @@
         <v>19</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" t="s">
+        <v>204</v>
+      </c>
+      <c r="D55" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="G55" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H55" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="D55" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="10" t="s">
+      <c r="I55" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="J55" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H55" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="I55" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="J55" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="K55" s="42" t="s">
-        <v>46</v>
+      <c r="K55" s="39" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4387,32 +4379,32 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C56" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>28</v>
+        <v>208</v>
+      </c>
+      <c r="C56" t="s">
+        <v>209</v>
+      </c>
+      <c r="D56" t="s">
+        <v>26</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F56" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="I56" s="24"/>
+      <c r="J56" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="K56" s="39" t="s">
         <v>29</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H56" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="I56" s="24"/>
-      <c r="J56" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="K56" s="42" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4420,54 +4412,54 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C57" t="s">
+        <v>211</v>
+      </c>
+      <c r="D57" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H57" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="C57" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="10" t="s">
+      <c r="I57" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="J57" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H57" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="I57" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="J57" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="K57" s="42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K57" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C58" t="s">
+        <v>214</v>
+      </c>
+      <c r="D58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
         <v>215</v>
-      </c>
-      <c r="C58" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" t="s">
-        <v>217</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>19</v>
@@ -4476,112 +4468,112 @@
         <v>19</v>
       </c>
       <c r="I58" s="30" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C59" s="39" t="s">
-        <v>437</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>28</v>
+        <v>217</v>
+      </c>
+      <c r="C59" t="s">
+        <v>433</v>
+      </c>
+      <c r="D59" t="s">
+        <v>26</v>
       </c>
       <c r="E59" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I59" s="24"/>
       <c r="J59" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C60" s="39" t="s">
-        <v>438</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>28</v>
+        <v>218</v>
+      </c>
+      <c r="C60" t="s">
+        <v>434</v>
+      </c>
+      <c r="D60" t="s">
+        <v>26</v>
       </c>
       <c r="E60" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I60" s="24"/>
       <c r="J60" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C61" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>28</v>
+        <v>219</v>
+      </c>
+      <c r="C61" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" t="s">
+        <v>26</v>
       </c>
       <c r="E61" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I61" s="24"/>
       <c r="J61" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4589,32 +4581,32 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C62" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>28</v>
+        <v>221</v>
+      </c>
+      <c r="C62" t="s">
+        <v>222</v>
+      </c>
+      <c r="D62" t="s">
+        <v>26</v>
       </c>
       <c r="E62" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I62" s="24"/>
       <c r="J62" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4622,32 +4614,32 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C63" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>28</v>
+        <v>223</v>
+      </c>
+      <c r="C63" t="s">
+        <v>224</v>
+      </c>
+      <c r="D63" t="s">
+        <v>26</v>
       </c>
       <c r="E63" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I63" s="24"/>
       <c r="J63" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4655,32 +4647,32 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C64" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>28</v>
+        <v>225</v>
+      </c>
+      <c r="C64" t="s">
+        <v>226</v>
+      </c>
+      <c r="D64" t="s">
+        <v>26</v>
       </c>
       <c r="E64" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I64" s="24"/>
       <c r="J64" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4688,19 +4680,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C65" t="s">
+        <v>228</v>
+      </c>
+      <c r="D65" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
         <v>229</v>
-      </c>
-      <c r="C65" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" t="s">
-        <v>231</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>19</v>
@@ -4709,10 +4701,10 @@
         <v>19</v>
       </c>
       <c r="I65" s="24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>14</v>
@@ -4723,54 +4715,54 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C66" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>28</v>
+        <v>231</v>
+      </c>
+      <c r="C66" t="s">
+        <v>232</v>
+      </c>
+      <c r="D66" t="s">
+        <v>26</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C67" t="s">
+        <v>234</v>
+      </c>
+      <c r="D67" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
         <v>235</v>
-      </c>
-      <c r="C67" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E67" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" t="s">
-        <v>237</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>19</v>
@@ -4779,10 +4771,10 @@
         <v>19</v>
       </c>
       <c r="I67" s="30" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>14</v>
@@ -4793,34 +4785,34 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C68" t="s">
+        <v>238</v>
+      </c>
+      <c r="D68" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C68" s="39" t="s">
+      <c r="G68" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H68" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="D68" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E68" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="11" t="s">
+      <c r="I68" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="I68" s="23" t="s">
-        <v>243</v>
-      </c>
       <c r="J68" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -4828,19 +4820,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C69" s="39" t="s">
-        <v>439</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>28</v>
+        <v>242</v>
+      </c>
+      <c r="C69" t="s">
+        <v>435</v>
+      </c>
+      <c r="D69" t="s">
+        <v>26</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>19</v>
@@ -4849,46 +4841,46 @@
         <v>19</v>
       </c>
       <c r="I69" s="30" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C70" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>28</v>
+        <v>245</v>
+      </c>
+      <c r="C70" t="s">
+        <v>246</v>
+      </c>
+      <c r="D70" t="s">
+        <v>26</v>
       </c>
       <c r="E70" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I70" s="24"/>
       <c r="J70" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4896,69 +4888,69 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C71" t="s">
+        <v>436</v>
+      </c>
+      <c r="D71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H71" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C71" s="39" t="s">
-        <v>440</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="10" t="s">
+      <c r="I71" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="G71" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H71" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="I71" s="31" t="s">
-        <v>252</v>
-      </c>
       <c r="J71" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="19">
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>251</v>
+      </c>
+      <c r="C72" t="s">
+        <v>252</v>
+      </c>
+      <c r="D72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C72" s="39" t="s">
+      <c r="G72" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H72" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D72" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E72" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="4" t="s">
+      <c r="I72" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="I72" s="30" t="s">
-        <v>257</v>
-      </c>
       <c r="J72" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4966,19 +4958,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>258</v>
-      </c>
-      <c r="C73" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="D73" s="19" t="s">
-        <v>28</v>
+        <v>256</v>
+      </c>
+      <c r="C73" t="s">
+        <v>257</v>
+      </c>
+      <c r="D73" t="s">
+        <v>26</v>
       </c>
       <c r="E73" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>19</v>
@@ -4987,10 +4979,10 @@
         <v>19</v>
       </c>
       <c r="I73" s="30" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>14</v>
@@ -5001,54 +4993,54 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>258</v>
+      </c>
+      <c r="C74" t="s">
+        <v>259</v>
+      </c>
+      <c r="D74" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C74" s="39" t="s">
+      <c r="G74" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H74" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="D74" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E74" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="11" t="s">
+      <c r="I74" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H74" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="I74" s="31" t="s">
-        <v>264</v>
-      </c>
       <c r="J74" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>263</v>
+      </c>
+      <c r="C75" t="s">
+        <v>264</v>
+      </c>
+      <c r="D75" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="C75" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="D75" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>267</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>19</v>
@@ -5057,10 +5049,10 @@
         <v>19</v>
       </c>
       <c r="I75" s="30" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>14</v>
@@ -5071,19 +5063,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>267</v>
+      </c>
+      <c r="C76" t="s">
+        <v>268</v>
+      </c>
+      <c r="D76" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="C76" s="39" t="s">
-        <v>270</v>
-      </c>
-      <c r="D76" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>19</v>
@@ -5092,33 +5084,33 @@
         <v>19</v>
       </c>
       <c r="I76" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>271</v>
+      </c>
+      <c r="C77" t="s">
+        <v>272</v>
+      </c>
+      <c r="D77" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="C77" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="D77" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>19</v>
@@ -5127,110 +5119,110 @@
         <v>19</v>
       </c>
       <c r="I77" s="30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="19">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>277</v>
-      </c>
-      <c r="C78" s="39" t="s">
-        <v>278</v>
-      </c>
-      <c r="D78" s="19" t="s">
-        <v>28</v>
+        <v>275</v>
+      </c>
+      <c r="C78" t="s">
+        <v>276</v>
+      </c>
+      <c r="D78" t="s">
+        <v>26</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I78" s="24"/>
       <c r="J78" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>279</v>
-      </c>
-      <c r="C79" s="39" t="s">
-        <v>280</v>
-      </c>
-      <c r="D79" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="C79" t="s">
+        <v>278</v>
+      </c>
+      <c r="D79" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J79" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E79" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="3" t="s">
+      <c r="K79" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G79" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="19">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>281</v>
-      </c>
-      <c r="C80" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="D80" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C80" t="s">
+        <v>280</v>
+      </c>
+      <c r="D80" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J80" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E80" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="3" t="s">
+      <c r="K80" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -5238,124 +5230,124 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>281</v>
+      </c>
+      <c r="C81" t="s">
+        <v>282</v>
+      </c>
+      <c r="D81" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="C81" s="39" t="s">
+      <c r="G81" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="I81" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="D81" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E81" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H81" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="I81" s="31" t="s">
-        <v>287</v>
-      </c>
       <c r="J81" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="19">
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>285</v>
+      </c>
+      <c r="C82" t="s">
+        <v>286</v>
+      </c>
+      <c r="D82" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H82" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C82" s="39" t="s">
+      <c r="I82" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="D82" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E82" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="I82" s="30" t="s">
-        <v>292</v>
-      </c>
       <c r="J82" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="19">
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>290</v>
+      </c>
+      <c r="C83" t="s">
+        <v>437</v>
+      </c>
+      <c r="D83" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" t="s">
+        <v>291</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H83" t="s">
+        <v>292</v>
+      </c>
+      <c r="I83" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="C83" s="39" t="s">
-        <v>441</v>
-      </c>
-      <c r="D83" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" t="s">
-        <v>294</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H83" t="s">
-        <v>295</v>
-      </c>
-      <c r="I83" s="31" t="s">
-        <v>296</v>
-      </c>
       <c r="J83" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="19">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C84" s="39" t="s">
-        <v>298</v>
-      </c>
-      <c r="D84" s="19" t="s">
-        <v>28</v>
+        <v>294</v>
+      </c>
+      <c r="C84" t="s">
+        <v>295</v>
+      </c>
+      <c r="D84" t="s">
+        <v>26</v>
       </c>
       <c r="E84" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>19</v>
@@ -5364,98 +5356,98 @@
         <v>19</v>
       </c>
       <c r="I84" s="19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="19">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>301</v>
-      </c>
-      <c r="C85" s="39" t="s">
-        <v>302</v>
-      </c>
-      <c r="D85" s="19" t="s">
-        <v>28</v>
+        <v>298</v>
+      </c>
+      <c r="C85" t="s">
+        <v>299</v>
+      </c>
+      <c r="D85" t="s">
+        <v>26</v>
       </c>
       <c r="E85" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I85" s="24"/>
       <c r="J85" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="19">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>303</v>
-      </c>
-      <c r="C86" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="D86" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="C86" t="s">
+        <v>301</v>
+      </c>
+      <c r="D86" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J86" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E86" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="3" t="s">
+      <c r="K86" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G86" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="19">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>305</v>
-      </c>
-      <c r="C87" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="D87" s="19" t="s">
-        <v>28</v>
+        <v>302</v>
+      </c>
+      <c r="C87" t="s">
+        <v>303</v>
+      </c>
+      <c r="D87" t="s">
+        <v>26</v>
       </c>
       <c r="E87" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>19</v>
@@ -5464,10 +5456,10 @@
         <v>19</v>
       </c>
       <c r="I87" s="24" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>14</v>
@@ -5478,65 +5470,65 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>309</v>
-      </c>
-      <c r="C88" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="D88" s="19" t="s">
-        <v>28</v>
+        <v>306</v>
+      </c>
+      <c r="C88" t="s">
+        <v>307</v>
+      </c>
+      <c r="D88" t="s">
+        <v>26</v>
       </c>
       <c r="E88" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I88" s="24"/>
       <c r="J88" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="19">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>311</v>
-      </c>
-      <c r="C89" s="39" t="s">
-        <v>312</v>
-      </c>
-      <c r="D89" s="19" t="s">
-        <v>28</v>
+        <v>308</v>
+      </c>
+      <c r="C89" t="s">
+        <v>309</v>
+      </c>
+      <c r="D89" t="s">
+        <v>26</v>
       </c>
       <c r="E89" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I89" s="24"/>
       <c r="J89" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5544,100 +5536,100 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C90" t="s">
+        <v>438</v>
+      </c>
+      <c r="D90" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I90" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="C90" s="39" t="s">
-        <v>442</v>
-      </c>
-      <c r="D90" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E90" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="I90" s="32" t="s">
-        <v>316</v>
-      </c>
       <c r="J90" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="19">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>317</v>
-      </c>
-      <c r="C91" s="39" t="s">
-        <v>318</v>
-      </c>
-      <c r="D91" s="19" t="s">
-        <v>28</v>
+        <v>314</v>
+      </c>
+      <c r="C91" t="s">
+        <v>315</v>
+      </c>
+      <c r="D91" t="s">
+        <v>26</v>
       </c>
       <c r="E91" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I91" s="24"/>
       <c r="J91" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="19">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>319</v>
-      </c>
-      <c r="C92" s="39" t="s">
-        <v>320</v>
-      </c>
-      <c r="D92" s="19" t="s">
-        <v>28</v>
+        <v>316</v>
+      </c>
+      <c r="C92" t="s">
+        <v>317</v>
+      </c>
+      <c r="D92" t="s">
+        <v>26</v>
       </c>
       <c r="E92" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I92" s="24"/>
       <c r="J92" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -5645,54 +5637,54 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>318</v>
+      </c>
+      <c r="C93" t="s">
+        <v>319</v>
+      </c>
+      <c r="D93" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H93" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C93" s="39" t="s">
+      <c r="I93" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="D93" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E93" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="I93" s="33" t="s">
-        <v>325</v>
-      </c>
       <c r="J93" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="19">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>326</v>
-      </c>
-      <c r="C94" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="D94" s="19" t="s">
-        <v>28</v>
+        <v>323</v>
+      </c>
+      <c r="C94" t="s">
+        <v>324</v>
+      </c>
+      <c r="D94" t="s">
+        <v>26</v>
       </c>
       <c r="E94" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>19</v>
@@ -5701,10 +5693,10 @@
         <v>19</v>
       </c>
       <c r="I94" s="30" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>14</v>
@@ -5715,69 +5707,69 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>327</v>
+      </c>
+      <c r="C95" t="s">
+        <v>328</v>
+      </c>
+      <c r="D95" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" t="s">
+        <v>329</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H95" t="s">
         <v>330</v>
       </c>
-      <c r="C95" s="39" t="s">
+      <c r="I95" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="D95" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E95" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" t="s">
-        <v>332</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H95" t="s">
-        <v>333</v>
-      </c>
-      <c r="I95" s="23" t="s">
-        <v>334</v>
-      </c>
       <c r="J95" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>332</v>
+      </c>
+      <c r="C96" t="s">
+        <v>333</v>
+      </c>
+      <c r="D96" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H96" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C96" s="39" t="s">
+      <c r="I96" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="D96" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E96" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H96" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="I96" s="31" t="s">
-        <v>339</v>
-      </c>
       <c r="J96" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5785,34 +5777,34 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>337</v>
+      </c>
+      <c r="C97" t="s">
+        <v>338</v>
+      </c>
+      <c r="D97" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" t="s">
+        <v>339</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H97" t="s">
         <v>340</v>
       </c>
-      <c r="C97" s="39" t="s">
+      <c r="I97" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="D97" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E97" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" t="s">
-        <v>342</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H97" t="s">
-        <v>343</v>
-      </c>
-      <c r="I97" s="31" t="s">
-        <v>344</v>
-      </c>
       <c r="J97" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5820,19 +5812,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>345</v>
-      </c>
-      <c r="C98" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="D98" s="19" t="s">
-        <v>28</v>
+        <v>342</v>
+      </c>
+      <c r="C98" t="s">
+        <v>343</v>
+      </c>
+      <c r="D98" t="s">
+        <v>26</v>
       </c>
       <c r="E98" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>19</v>
@@ -5841,98 +5833,98 @@
         <v>19</v>
       </c>
       <c r="I98" s="30" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="19">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>349</v>
-      </c>
-      <c r="C99" s="39" t="s">
-        <v>350</v>
-      </c>
-      <c r="D99" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="C99" t="s">
+        <v>347</v>
+      </c>
+      <c r="D99" t="s">
+        <v>26</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J99" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E99" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="3" t="s">
+      <c r="K99" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G99" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="19">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C100" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="D100" s="19" t="s">
-        <v>28</v>
+        <v>348</v>
+      </c>
+      <c r="C100" t="s">
+        <v>349</v>
+      </c>
+      <c r="D100" t="s">
+        <v>26</v>
       </c>
       <c r="E100" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I100" s="24"/>
       <c r="J100" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="19">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>353</v>
-      </c>
-      <c r="C101" s="39" t="s">
-        <v>354</v>
-      </c>
-      <c r="D101" s="19" t="s">
-        <v>28</v>
+        <v>350</v>
+      </c>
+      <c r="C101" t="s">
+        <v>351</v>
+      </c>
+      <c r="D101" t="s">
+        <v>26</v>
       </c>
       <c r="E101" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>19</v>
@@ -5941,10 +5933,10 @@
         <v>19</v>
       </c>
       <c r="I101" s="30" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>14</v>
@@ -5955,34 +5947,34 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>354</v>
+      </c>
+      <c r="C102" t="s">
+        <v>355</v>
+      </c>
+      <c r="D102" t="s">
+        <v>26</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H102" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C102" s="39" t="s">
+      <c r="I102" s="33" t="s">
         <v>358</v>
       </c>
-      <c r="D102" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E102" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="I102" s="33" t="s">
-        <v>361</v>
-      </c>
       <c r="J102" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5990,87 +5982,87 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>359</v>
+      </c>
+      <c r="C103" t="s">
+        <v>360</v>
+      </c>
+      <c r="D103" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H103" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C103" s="39" t="s">
+      <c r="I103" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="D103" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E103" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="I103" s="33" t="s">
-        <v>366</v>
-      </c>
       <c r="J103" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="19">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>367</v>
-      </c>
-      <c r="C104" s="39" t="s">
-        <v>368</v>
-      </c>
-      <c r="D104" s="19" t="s">
-        <v>28</v>
+        <v>364</v>
+      </c>
+      <c r="C104" t="s">
+        <v>365</v>
+      </c>
+      <c r="D104" t="s">
+        <v>26</v>
       </c>
       <c r="E104" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I104" s="24"/>
       <c r="J104" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="19">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>369</v>
-      </c>
-      <c r="C105" s="39" t="s">
-        <v>370</v>
-      </c>
-      <c r="D105" s="19" t="s">
-        <v>28</v>
+        <v>366</v>
+      </c>
+      <c r="C105" t="s">
+        <v>367</v>
+      </c>
+      <c r="D105" t="s">
+        <v>26</v>
       </c>
       <c r="E105" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>19</v>
@@ -6079,33 +6071,33 @@
         <v>19</v>
       </c>
       <c r="I105" s="19" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="19">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>373</v>
-      </c>
-      <c r="C106" s="39" t="s">
-        <v>374</v>
-      </c>
-      <c r="D106" s="19" t="s">
-        <v>28</v>
+        <v>370</v>
+      </c>
+      <c r="C106" t="s">
+        <v>371</v>
+      </c>
+      <c r="D106" t="s">
+        <v>26</v>
       </c>
       <c r="E106" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>19</v>
@@ -6114,45 +6106,45 @@
         <v>19</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="19">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>377</v>
-      </c>
-      <c r="C107" s="39" t="s">
-        <v>378</v>
-      </c>
-      <c r="D107" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="C107" t="s">
+        <v>375</v>
+      </c>
+      <c r="D107" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J107" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E107" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="3" t="s">
+      <c r="K107" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K107" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -6160,161 +6152,161 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>379</v>
-      </c>
-      <c r="C108" s="39" t="s">
-        <v>380</v>
-      </c>
-      <c r="D108" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="C108" t="s">
+        <v>377</v>
+      </c>
+      <c r="D108" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J108" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E108" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" s="3" t="s">
+      <c r="K108" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G108" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J108" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K108" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="19">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>381</v>
-      </c>
-      <c r="C109" s="39" t="s">
-        <v>382</v>
-      </c>
-      <c r="D109" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="C109" t="s">
+        <v>379</v>
+      </c>
+      <c r="D109" t="s">
+        <v>26</v>
+      </c>
+      <c r="E109" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J109" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E109" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F109" s="3" t="s">
+      <c r="K109" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G109" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="19">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>383</v>
-      </c>
-      <c r="C110" s="39" t="s">
-        <v>384</v>
-      </c>
-      <c r="D110" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="C110" t="s">
+        <v>381</v>
+      </c>
+      <c r="D110" t="s">
+        <v>26</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J110" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E110" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" s="3" t="s">
+      <c r="K110" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G110" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K110" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="19">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>385</v>
-      </c>
-      <c r="C111" s="39" t="s">
-        <v>386</v>
-      </c>
-      <c r="D111" s="19" t="s">
-        <v>28</v>
+        <v>382</v>
+      </c>
+      <c r="C111" t="s">
+        <v>383</v>
+      </c>
+      <c r="D111" t="s">
+        <v>26</v>
       </c>
       <c r="E111" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I111" s="24"/>
       <c r="J111" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="19">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>387</v>
-      </c>
-      <c r="C112" s="39" t="s">
-        <v>388</v>
-      </c>
-      <c r="D112" s="19" t="s">
-        <v>28</v>
+        <v>384</v>
+      </c>
+      <c r="C112" t="s">
+        <v>385</v>
+      </c>
+      <c r="D112" t="s">
+        <v>26</v>
       </c>
       <c r="E112" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I112" s="24"/>
       <c r="J112" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -6322,164 +6314,164 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>389</v>
-      </c>
-      <c r="C113" s="39" t="s">
-        <v>390</v>
-      </c>
-      <c r="D113" s="19" t="s">
-        <v>28</v>
+        <v>386</v>
+      </c>
+      <c r="C113" t="s">
+        <v>387</v>
+      </c>
+      <c r="D113" t="s">
+        <v>26</v>
       </c>
       <c r="E113" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I113" s="24"/>
       <c r="J113" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="19">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>391</v>
-      </c>
-      <c r="C114" s="39" t="s">
-        <v>392</v>
-      </c>
-      <c r="D114" s="19" t="s">
-        <v>28</v>
+        <v>388</v>
+      </c>
+      <c r="C114" t="s">
+        <v>389</v>
+      </c>
+      <c r="D114" t="s">
+        <v>26</v>
       </c>
       <c r="E114" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I114" s="24"/>
       <c r="J114" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="19">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>393</v>
-      </c>
-      <c r="C115" s="39" t="s">
-        <v>394</v>
-      </c>
-      <c r="D115" s="19" t="s">
-        <v>28</v>
+        <v>390</v>
+      </c>
+      <c r="C115" t="s">
+        <v>391</v>
+      </c>
+      <c r="D115" t="s">
+        <v>26</v>
       </c>
       <c r="E115" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I115" s="24"/>
       <c r="J115" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="19">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>395</v>
-      </c>
-      <c r="C116" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="D116" s="19" t="s">
-        <v>28</v>
+        <v>392</v>
+      </c>
+      <c r="C116" t="s">
+        <v>393</v>
+      </c>
+      <c r="D116" t="s">
+        <v>26</v>
       </c>
       <c r="E116" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I116" s="24"/>
       <c r="J116" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="19">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>397</v>
-      </c>
-      <c r="C117" s="39" t="s">
-        <v>398</v>
-      </c>
-      <c r="D117" s="19" t="s">
-        <v>28</v>
+        <v>394</v>
+      </c>
+      <c r="C117" t="s">
+        <v>395</v>
+      </c>
+      <c r="D117" t="s">
+        <v>26</v>
       </c>
       <c r="E117" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I117" s="24"/>
       <c r="J117" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -6487,64 +6479,64 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>399</v>
-      </c>
-      <c r="C118" s="39" t="s">
-        <v>443</v>
-      </c>
-      <c r="D118" s="19" t="s">
-        <v>28</v>
+        <v>396</v>
+      </c>
+      <c r="C118" t="s">
+        <v>439</v>
+      </c>
+      <c r="D118" t="s">
+        <v>26</v>
       </c>
       <c r="E118" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I118" s="24"/>
       <c r="J118" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="19">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>400</v>
-      </c>
-      <c r="C119" s="39" t="s">
-        <v>401</v>
-      </c>
-      <c r="D119" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="C119" t="s">
+        <v>398</v>
+      </c>
+      <c r="D119" t="s">
+        <v>26</v>
+      </c>
+      <c r="E119" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J119" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E119" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="3" t="s">
+      <c r="K119" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J119" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K119" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -6552,287 +6544,287 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>402</v>
-      </c>
-      <c r="C120" s="39" t="s">
-        <v>403</v>
-      </c>
-      <c r="D120" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="C120" t="s">
+        <v>400</v>
+      </c>
+      <c r="D120" t="s">
+        <v>26</v>
+      </c>
+      <c r="E120" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J120" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E120" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="3" t="s">
+      <c r="K120" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G120" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J120" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K120" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="19">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>404</v>
-      </c>
-      <c r="C121" s="39" t="s">
-        <v>444</v>
-      </c>
-      <c r="D121" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="C121" t="s">
+        <v>440</v>
+      </c>
+      <c r="D121" t="s">
+        <v>26</v>
+      </c>
+      <c r="E121" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J121" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E121" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="3" t="s">
+      <c r="K121" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G121" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H121" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J121" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K121" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="19">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>405</v>
-      </c>
-      <c r="C122" s="39" t="s">
-        <v>406</v>
-      </c>
-      <c r="D122" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="C122" t="s">
+        <v>403</v>
+      </c>
+      <c r="D122" t="s">
+        <v>26</v>
+      </c>
+      <c r="E122" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J122" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E122" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F122" s="3" t="s">
+      <c r="K122" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G122" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J122" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K122" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="19">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>407</v>
-      </c>
-      <c r="C123" s="39" t="s">
-        <v>408</v>
-      </c>
-      <c r="D123" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="C123" t="s">
+        <v>405</v>
+      </c>
+      <c r="D123" t="s">
+        <v>26</v>
+      </c>
+      <c r="E123" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J123" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E123" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" s="3" t="s">
+      <c r="K123" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G123" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J123" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K123" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="19">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>409</v>
-      </c>
-      <c r="C124" s="39" t="s">
-        <v>410</v>
-      </c>
-      <c r="D124" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="C124" t="s">
+        <v>407</v>
+      </c>
+      <c r="D124" t="s">
+        <v>26</v>
+      </c>
+      <c r="E124" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J124" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E124" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" s="3" t="s">
+      <c r="K124" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G124" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J124" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K124" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="19">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>411</v>
-      </c>
-      <c r="C125" s="39" t="s">
-        <v>412</v>
-      </c>
-      <c r="D125" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="C125" t="s">
+        <v>409</v>
+      </c>
+      <c r="D125" t="s">
+        <v>26</v>
+      </c>
+      <c r="E125" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J125" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E125" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F125" s="3" t="s">
+      <c r="K125" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G125" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J125" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K125" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="19">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>413</v>
-      </c>
-      <c r="C126" s="39" t="s">
-        <v>414</v>
-      </c>
-      <c r="D126" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="C126" t="s">
+        <v>411</v>
+      </c>
+      <c r="D126" t="s">
+        <v>26</v>
+      </c>
+      <c r="E126" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J126" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E126" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" s="3" t="s">
+      <c r="K126" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G126" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H126" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J126" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K126" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="19">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>415</v>
-      </c>
-      <c r="C127" s="39" t="s">
-        <v>416</v>
-      </c>
-      <c r="D127" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="C127" t="s">
+        <v>413</v>
+      </c>
+      <c r="D127" t="s">
+        <v>26</v>
+      </c>
+      <c r="E127" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J127" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E127" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="3" t="s">
+      <c r="K127" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G127" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J127" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K127" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="19">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>417</v>
-      </c>
-      <c r="C128" s="39" t="s">
-        <v>445</v>
-      </c>
-      <c r="D128" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="C128" t="s">
+        <v>441</v>
+      </c>
+      <c r="D128" t="s">
+        <v>26</v>
+      </c>
+      <c r="E128" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J128" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E128" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F128" s="3" t="s">
+      <c r="K128" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J128" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K128" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6840,33 +6832,33 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
+        <v>422</v>
+      </c>
+      <c r="C129" t="s">
+        <v>423</v>
+      </c>
+      <c r="D129" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="G129" s="3" t="s">
         <v>425</v>
-      </c>
-      <c r="C129" t="s">
-        <v>426</v>
-      </c>
-      <c r="D129" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E129" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F129" s="46" t="s">
-        <v>427</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>428</v>
       </c>
       <c r="H129">
         <v>5</v>
       </c>
       <c r="I129" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="J129" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="J129" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="K129" s="41" t="s">
+      <c r="K129" s="38" t="s">
         <v>14</v>
       </c>
     </row>

--- a/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4F46C2-AC70-42BB-9993-5BE933108766}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF50BEC-D7F2-45CB-98E5-544213FDB7A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="453">
   <si>
     <t>index</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>Education</t>
-  </si>
-  <si>
-    <t>atbbild</t>
   </si>
   <si>
     <t>TOT_PA_QX</t>
@@ -1468,12 +1465,35 @@
   <si>
     <t>AV610 + AV681 + AV684 + AV687 +AV620 + AV630 + AV650 + AV670</t>
   </si>
+  <si>
+    <t>AI13ABSC; AI14ABSC</t>
+  </si>
+  <si>
+    <t>case_when</t>
+  </si>
+  <si>
+    <t>case_when(
+  AI13ABSC %in% c(4) | AI14ABSC %in% c(0) ~ 7L,
+  AI14ABSC %in% c(3,4) ~ 6L,
+  AI14ABSC %in% c(2) ~ 4L,
+  AI14ABSC %in% c(5) ~ 9L,
+  AI13ABSC %in% c(3) ~ 3L,
+  AI13ABSC %in% c(1,2) ~ 2L,
+  AI13ABSC %in% c(6) &amp; AI14ABSC %in% c(1) ~ 0L,
+  is.na(AI13ABSC) &amp; AI14ABSC %in% c(1) ~ 0L,
+  AI13ABSC %in% c(6) &amp; is.na(AI14ABSC) ~ 0L,
+  AI13ABSC %in% c(5) ~ 9L,
+  TRUE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>proximate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1665,6 +1685,12 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2016,7 +2042,7 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2114,51 +2140,52 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Link" xfId="42" builtinId="8"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2174,7 +2201,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2472,20 +2499,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="19"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="19"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.42578125" customWidth="1"/>
     <col min="9" max="9" width="39.28515625" style="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.42578125" bestFit="1" customWidth="1"/>
@@ -2532,10 +2559,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -2544,7 +2571,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>12</v>
@@ -2601,10 +2628,10 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>11</v>
@@ -2626,7 +2653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="17" customFormat="1" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -2642,21 +2669,21 @@
       <c r="E5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>24</v>
+      <c r="F5" s="45" t="s">
+        <v>449</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>19</v>
+        <v>450</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>19</v>
+        <v>451</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="17" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>14</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2664,32 +2691,32 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="17" t="s">
         <v>28</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2697,10 +2724,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -2709,7 +2736,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>19</v>
@@ -2730,19 +2757,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>447</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="36" t="s">
         <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>448</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>34</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
@@ -2763,19 +2790,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="36" t="s">
         <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>37</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
@@ -2796,34 +2823,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="41" t="s">
+        <v>415</v>
+      </c>
+      <c r="J10" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="41" t="s">
-        <v>416</v>
-      </c>
-      <c r="J10" s="39" t="s">
+      <c r="K10" s="39" t="s">
         <v>43</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2831,34 +2858,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="23" t="s">
+      <c r="J11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2866,32 +2893,32 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="150" x14ac:dyDescent="0.25">
@@ -2899,34 +2926,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="13" t="s">
+      <c r="I13" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="25" t="s">
-        <v>56</v>
-      </c>
       <c r="J13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2934,34 +2961,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="42" t="s">
-        <v>60</v>
-      </c>
       <c r="I14" s="28" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2969,34 +2996,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
         <v>61</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="10" t="s">
+      <c r="I15" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="26" t="s">
-        <v>65</v>
-      </c>
       <c r="J15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3004,19 +3031,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
         <v>66</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>19</v>
@@ -3025,10 +3052,10 @@
         <v>19</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>14</v>
@@ -3039,34 +3066,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
         <v>70</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="G17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I17" s="31" t="s">
-        <v>74</v>
-      </c>
       <c r="J17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3074,31 +3101,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
         <v>75</v>
       </c>
-      <c r="C18" t="s">
-        <v>76</v>
-      </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3106,32 +3133,32 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
         <v>77</v>
       </c>
-      <c r="C19" t="s">
-        <v>78</v>
-      </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3139,19 +3166,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
         <v>79</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>19</v>
@@ -3160,10 +3187,10 @@
         <v>19</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>14</v>
@@ -3174,34 +3201,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
         <v>83</v>
       </c>
-      <c r="C21" t="s">
-        <v>84</v>
-      </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>60</v>
-      </c>
       <c r="I21" s="28" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J21" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3209,32 +3236,32 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
         <v>85</v>
       </c>
-      <c r="C22" t="s">
-        <v>86</v>
-      </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I22" s="24"/>
       <c r="J22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3242,34 +3269,34 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
         <v>87</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="G23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="I23" s="27" t="s">
         <v>442</v>
       </c>
-      <c r="I23" s="27" t="s">
-        <v>443</v>
-      </c>
       <c r="J23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3277,32 +3304,32 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
         <v>90</v>
       </c>
-      <c r="C24" t="s">
-        <v>91</v>
-      </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I24" s="24"/>
       <c r="J24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="285" x14ac:dyDescent="0.25">
@@ -3310,34 +3337,34 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
         <v>92</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="34" t="s">
+      <c r="G25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="5" t="s">
+      <c r="I25" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="I25" s="23" t="s">
-        <v>96</v>
-      </c>
       <c r="J25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="240" x14ac:dyDescent="0.25">
@@ -3345,34 +3372,34 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
         <v>97</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="14" t="s">
+      <c r="G26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="14" t="s">
+      <c r="I26" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="I26" s="28" t="s">
-        <v>101</v>
-      </c>
       <c r="J26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3380,19 +3407,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
         <v>102</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
         <v>103</v>
-      </c>
-      <c r="D27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>104</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>19</v>
@@ -3401,10 +3428,10 @@
         <v>19</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>14</v>
@@ -3415,34 +3442,34 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" t="s">
         <v>106</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="I28" s="29" t="s">
-        <v>110</v>
-      </c>
       <c r="J28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3450,32 +3477,32 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" t="s">
         <v>111</v>
       </c>
-      <c r="C29" t="s">
-        <v>112</v>
-      </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I29" s="30"/>
       <c r="J29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3483,34 +3510,34 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
         <v>113</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" s="11" t="s">
+      <c r="I30" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="I30" s="31" t="s">
-        <v>117</v>
-      </c>
       <c r="J30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3518,19 +3545,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" t="s">
         <v>118</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>119</v>
-      </c>
-      <c r="D31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>120</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>19</v>
@@ -3539,10 +3566,10 @@
         <v>19</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>14</v>
@@ -3553,32 +3580,32 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" t="s">
         <v>122</v>
       </c>
-      <c r="C32" t="s">
-        <v>123</v>
-      </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I32" s="21"/>
       <c r="J32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3586,19 +3613,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" t="s">
         <v>124</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
         <v>125</v>
-      </c>
-      <c r="D33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" t="s">
-        <v>126</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>19</v>
@@ -3607,10 +3634,10 @@
         <v>19</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>14</v>
@@ -3621,19 +3648,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" t="s">
         <v>128</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="35" t="s">
         <v>129</v>
-      </c>
-      <c r="D34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>130</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>19</v>
@@ -3642,10 +3669,10 @@
         <v>19</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>14</v>
@@ -3656,19 +3683,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" t="s">
+        <v>427</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
         <v>132</v>
-      </c>
-      <c r="C35" t="s">
-        <v>428</v>
-      </c>
-      <c r="D35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" t="s">
-        <v>133</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>19</v>
@@ -3677,10 +3704,10 @@
         <v>19</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>14</v>
@@ -3691,31 +3718,31 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3723,32 +3750,32 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" t="s">
         <v>136</v>
       </c>
-      <c r="C37" t="s">
-        <v>137</v>
-      </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I37" s="24"/>
       <c r="J37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3756,19 +3783,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" t="s">
         <v>138</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
         <v>139</v>
-      </c>
-      <c r="D38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" t="s">
-        <v>140</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>19</v>
@@ -3777,10 +3804,10 @@
         <v>19</v>
       </c>
       <c r="I38" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>14</v>
@@ -3791,32 +3818,32 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C39" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I39" s="24"/>
       <c r="J39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -3824,19 +3851,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" t="s">
         <v>143</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
         <v>144</v>
-      </c>
-      <c r="D40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" t="s">
-        <v>145</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>19</v>
@@ -3845,10 +3872,10 @@
         <v>19</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>14</v>
@@ -3859,34 +3886,34 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C41" s="44" t="s">
-        <v>431</v>
-      </c>
-      <c r="D41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="5" t="s">
+      <c r="G41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H41" s="13" t="s">
+      <c r="I41" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="I41" s="31" t="s">
-        <v>150</v>
-      </c>
       <c r="J41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K41" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3894,34 +3921,34 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" t="s">
         <v>151</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="13" t="s">
+      <c r="G42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H42" s="4" t="s">
+      <c r="I42" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="I42" s="31" t="s">
-        <v>155</v>
-      </c>
       <c r="J42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K42" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3929,34 +3956,34 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" t="s">
         <v>156</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D43" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="4" t="s">
+      <c r="G43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H43" s="4" t="s">
+      <c r="I43" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="I43" s="30" t="s">
-        <v>160</v>
-      </c>
       <c r="J43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K43" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3964,34 +3991,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" t="s">
         <v>161</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="D44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="34" t="s">
+      <c r="G44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H44" s="34" t="s">
+      <c r="I44" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="I44" s="32" t="s">
-        <v>165</v>
-      </c>
       <c r="J44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K44" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="L44" s="6"/>
     </row>
@@ -4000,34 +4027,34 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" t="s">
         <v>166</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="D45" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="10" t="s">
+      <c r="G45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H45" s="10" t="s">
+      <c r="I45" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="I45" s="32" t="s">
-        <v>170</v>
-      </c>
       <c r="J45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K45" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -4035,19 +4062,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" t="s">
         <v>171</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="35" t="s">
         <v>172</v>
-      </c>
-      <c r="D46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="35" t="s">
-        <v>173</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>19</v>
@@ -4056,10 +4083,10 @@
         <v>19</v>
       </c>
       <c r="I46" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>14</v>
@@ -4070,31 +4097,31 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" t="s">
         <v>175</v>
       </c>
-      <c r="C47" t="s">
-        <v>176</v>
-      </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -4102,31 +4129,31 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" t="s">
         <v>177</v>
       </c>
-      <c r="C48" t="s">
-        <v>178</v>
-      </c>
       <c r="D48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J48" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -4134,34 +4161,34 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" t="s">
+        <v>431</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="C49" t="s">
-        <v>432</v>
-      </c>
-      <c r="D49" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="3" t="s">
+      <c r="J49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I49" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -4169,34 +4196,34 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" t="s">
         <v>181</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="5" t="s">
+      <c r="G50" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H50" s="5" t="s">
+      <c r="I50" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="I50" s="23" t="s">
-        <v>185</v>
-      </c>
       <c r="J50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K50" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4204,34 +4231,34 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51" t="s">
         <v>186</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H51" s="1" t="s">
+      <c r="I51" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="I51" s="31" t="s">
-        <v>190</v>
-      </c>
       <c r="J51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K51" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -4239,19 +4266,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" t="s">
         <v>191</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="D52" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>19</v>
@@ -4260,10 +4287,10 @@
         <v>19</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>14</v>
@@ -4274,19 +4301,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" t="s">
         <v>195</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="D53" t="s">
-        <v>26</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>19</v>
@@ -4295,10 +4322,10 @@
         <v>19</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>14</v>
@@ -4309,19 +4336,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C54" t="s">
         <v>199</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="D54" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>19</v>
@@ -4330,10 +4357,10 @@
         <v>19</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>14</v>
@@ -4344,34 +4371,34 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" t="s">
         <v>203</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D55" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="10" t="s">
+      <c r="G55" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H55" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H55" s="42" t="s">
+      <c r="I55" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="I55" s="28" t="s">
-        <v>207</v>
-      </c>
       <c r="J55" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="K55" s="39" t="s">
         <v>43</v>
-      </c>
-      <c r="K55" s="39" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4379,32 +4406,32 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" t="s">
         <v>208</v>
       </c>
-      <c r="C56" t="s">
-        <v>209</v>
-      </c>
       <c r="D56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H56" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I56" s="24"/>
       <c r="J56" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K56" s="39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4412,34 +4439,34 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C57" t="s">
         <v>210</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="D57" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H57" s="42" t="s">
-        <v>212</v>
-      </c>
       <c r="I57" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J57" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="K57" s="39" t="s">
         <v>43</v>
-      </c>
-      <c r="K57" s="39" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4447,19 +4474,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" t="s">
         <v>213</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
         <v>214</v>
-      </c>
-      <c r="D58" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" t="s">
-        <v>215</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>19</v>
@@ -4468,10 +4495,10 @@
         <v>19</v>
       </c>
       <c r="I58" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>14</v>
@@ -4482,32 +4509,32 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C59" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E59" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I59" s="24"/>
       <c r="J59" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K59" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -4515,32 +4542,32 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E60" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I60" s="24"/>
       <c r="J60" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K60" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4548,32 +4575,32 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C61" t="s">
         <v>219</v>
       </c>
-      <c r="C61" t="s">
-        <v>220</v>
-      </c>
       <c r="D61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E61" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I61" s="24"/>
       <c r="J61" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K61" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4581,32 +4608,32 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C62" t="s">
         <v>221</v>
       </c>
-      <c r="C62" t="s">
-        <v>222</v>
-      </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E62" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I62" s="24"/>
       <c r="J62" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K62" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4614,32 +4641,32 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C63" t="s">
         <v>223</v>
       </c>
-      <c r="C63" t="s">
-        <v>224</v>
-      </c>
       <c r="D63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E63" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I63" s="24"/>
       <c r="J63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K63" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4647,32 +4674,32 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C64" t="s">
         <v>225</v>
       </c>
-      <c r="C64" t="s">
-        <v>226</v>
-      </c>
       <c r="D64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E64" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I64" s="24"/>
       <c r="J64" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K64" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4680,19 +4707,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C65" t="s">
         <v>227</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
         <v>228</v>
-      </c>
-      <c r="D65" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" t="s">
-        <v>229</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>19</v>
@@ -4701,10 +4728,10 @@
         <v>19</v>
       </c>
       <c r="I65" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>14</v>
@@ -4715,34 +4742,34 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C66" t="s">
         <v>231</v>
       </c>
-      <c r="C66" t="s">
-        <v>232</v>
-      </c>
       <c r="D66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H66" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H66" s="5" t="s">
+      <c r="I66" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="I66" s="23" t="s">
-        <v>420</v>
-      </c>
       <c r="J66" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K66" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4750,19 +4777,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C67" t="s">
         <v>233</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
         <v>234</v>
-      </c>
-      <c r="D67" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" t="s">
-        <v>235</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>19</v>
@@ -4771,10 +4798,10 @@
         <v>19</v>
       </c>
       <c r="I67" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>14</v>
@@ -4785,34 +4812,34 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C68" t="s">
         <v>237</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="D68" t="s">
-        <v>26</v>
-      </c>
-      <c r="E68" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="11" t="s">
+      <c r="G68" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H68" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H68" s="11" t="s">
+      <c r="I68" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="I68" s="23" t="s">
-        <v>241</v>
-      </c>
       <c r="J68" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K68" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -4820,19 +4847,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C69" t="s">
+        <v>434</v>
+      </c>
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
         <v>242</v>
-      </c>
-      <c r="C69" t="s">
-        <v>435</v>
-      </c>
-      <c r="D69" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" t="s">
-        <v>243</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>19</v>
@@ -4841,10 +4868,10 @@
         <v>19</v>
       </c>
       <c r="I69" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>14</v>
@@ -4855,32 +4882,32 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C70" t="s">
         <v>245</v>
       </c>
-      <c r="C70" t="s">
-        <v>246</v>
-      </c>
       <c r="D70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E70" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I70" s="24"/>
       <c r="J70" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K70" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4888,34 +4915,34 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C71" t="s">
+        <v>435</v>
+      </c>
+      <c r="D71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C71" t="s">
-        <v>436</v>
-      </c>
-      <c r="D71" t="s">
-        <v>26</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="10" t="s">
+      <c r="G71" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H71" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="G71" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H71" s="10" t="s">
+      <c r="I71" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="I71" s="31" t="s">
-        <v>250</v>
-      </c>
       <c r="J71" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K71" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4923,34 +4950,34 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>250</v>
+      </c>
+      <c r="C72" t="s">
         <v>251</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D72" t="s">
-        <v>26</v>
-      </c>
-      <c r="E72" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="4" t="s">
+      <c r="G72" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H72" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H72" s="4" t="s">
+      <c r="I72" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="I72" s="30" t="s">
-        <v>255</v>
-      </c>
       <c r="J72" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K72" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4958,19 +4985,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>255</v>
+      </c>
+      <c r="C73" t="s">
         <v>256</v>
       </c>
-      <c r="C73" t="s">
-        <v>257</v>
-      </c>
       <c r="D73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E73" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>19</v>
@@ -4979,10 +5006,10 @@
         <v>19</v>
       </c>
       <c r="I73" s="30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>14</v>
@@ -4993,34 +5020,34 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>257</v>
+      </c>
+      <c r="C74" t="s">
         <v>258</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="D74" t="s">
-        <v>26</v>
-      </c>
-      <c r="E74" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="11" t="s">
+      <c r="G74" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H74" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H74" s="11" t="s">
+      <c r="I74" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="I74" s="31" t="s">
-        <v>262</v>
-      </c>
       <c r="J74" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K74" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -5028,19 +5055,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>262</v>
+      </c>
+      <c r="C75" t="s">
         <v>263</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="D75" t="s">
-        <v>26</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>19</v>
@@ -5049,10 +5076,10 @@
         <v>19</v>
       </c>
       <c r="I75" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>14</v>
@@ -5063,19 +5090,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>266</v>
+      </c>
+      <c r="C76" t="s">
         <v>267</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="D76" t="s">
-        <v>26</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>269</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>19</v>
@@ -5084,10 +5111,10 @@
         <v>19</v>
       </c>
       <c r="I76" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>14</v>
@@ -5098,19 +5125,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>270</v>
+      </c>
+      <c r="C77" t="s">
         <v>271</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="D77" t="s">
-        <v>26</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>273</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>19</v>
@@ -5119,10 +5146,10 @@
         <v>19</v>
       </c>
       <c r="I77" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>14</v>
@@ -5133,32 +5160,32 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>274</v>
+      </c>
+      <c r="C78" t="s">
         <v>275</v>
       </c>
-      <c r="C78" t="s">
-        <v>276</v>
-      </c>
       <c r="D78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I78" s="24"/>
       <c r="J78" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K78" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -5166,31 +5193,31 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>276</v>
+      </c>
+      <c r="C79" t="s">
         <v>277</v>
       </c>
-      <c r="C79" t="s">
-        <v>278</v>
-      </c>
       <c r="D79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F79" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J79" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G79" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J79" s="3" t="s">
+      <c r="K79" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -5198,31 +5225,31 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>278</v>
+      </c>
+      <c r="C80" t="s">
         <v>279</v>
       </c>
-      <c r="C80" t="s">
-        <v>280</v>
-      </c>
       <c r="D80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E80" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F80" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J80" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G80" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J80" s="3" t="s">
+      <c r="K80" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -5230,34 +5257,34 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>280</v>
+      </c>
+      <c r="C81" t="s">
         <v>281</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="D81" t="s">
-        <v>26</v>
-      </c>
-      <c r="E81" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="13" t="s">
+      <c r="G81" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="I81" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H81" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="I81" s="31" t="s">
-        <v>284</v>
-      </c>
       <c r="J81" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K81" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -5265,34 +5292,34 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>284</v>
+      </c>
+      <c r="C82" t="s">
         <v>285</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D82" t="s">
-        <v>26</v>
-      </c>
-      <c r="E82" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="4" t="s">
+      <c r="G82" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H82" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="G82" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H82" s="4" t="s">
+      <c r="I82" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="I82" s="30" t="s">
-        <v>289</v>
-      </c>
       <c r="J82" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K82" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5300,34 +5327,34 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>289</v>
+      </c>
+      <c r="C83" t="s">
+        <v>436</v>
+      </c>
+      <c r="D83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" t="s">
         <v>290</v>
       </c>
-      <c r="C83" t="s">
-        <v>437</v>
-      </c>
-      <c r="D83" t="s">
-        <v>26</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="G83" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H83" t="s">
         <v>291</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H83" t="s">
+      <c r="I83" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="I83" s="31" t="s">
-        <v>293</v>
-      </c>
       <c r="J83" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -5335,19 +5362,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C84" t="s">
         <v>294</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="D84" t="s">
-        <v>26</v>
-      </c>
-      <c r="E84" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>296</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>19</v>
@@ -5356,10 +5383,10 @@
         <v>19</v>
       </c>
       <c r="I84" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>14</v>
@@ -5370,32 +5397,32 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>297</v>
+      </c>
+      <c r="C85" t="s">
         <v>298</v>
       </c>
-      <c r="C85" t="s">
-        <v>299</v>
-      </c>
       <c r="D85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E85" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I85" s="24"/>
       <c r="J85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K85" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -5403,31 +5430,31 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>299</v>
+      </c>
+      <c r="C86" t="s">
         <v>300</v>
       </c>
-      <c r="C86" t="s">
-        <v>301</v>
-      </c>
       <c r="D86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E86" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F86" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J86" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G86" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J86" s="3" t="s">
+      <c r="K86" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -5435,19 +5462,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>301</v>
+      </c>
+      <c r="C87" t="s">
         <v>302</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s">
         <v>303</v>
-      </c>
-      <c r="D87" t="s">
-        <v>26</v>
-      </c>
-      <c r="E87" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" t="s">
-        <v>304</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>19</v>
@@ -5456,10 +5483,10 @@
         <v>19</v>
       </c>
       <c r="I87" s="24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>14</v>
@@ -5470,32 +5497,32 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>305</v>
+      </c>
+      <c r="C88" t="s">
         <v>306</v>
       </c>
-      <c r="C88" t="s">
-        <v>307</v>
-      </c>
       <c r="D88" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E88" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I88" s="24"/>
       <c r="J88" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K88" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -5503,32 +5530,32 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>307</v>
+      </c>
+      <c r="C89" t="s">
         <v>308</v>
       </c>
-      <c r="C89" t="s">
-        <v>309</v>
-      </c>
       <c r="D89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E89" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I89" s="24"/>
       <c r="J89" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K89" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5536,34 +5563,34 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C90" t="s">
+        <v>437</v>
+      </c>
+      <c r="D90" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C90" t="s">
-        <v>438</v>
-      </c>
-      <c r="D90" t="s">
-        <v>26</v>
-      </c>
-      <c r="E90" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="2" t="s">
+      <c r="G90" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H90" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H90" s="2" t="s">
+      <c r="I90" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="I90" s="32" t="s">
-        <v>313</v>
-      </c>
       <c r="J90" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K90" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -5571,32 +5598,32 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>313</v>
+      </c>
+      <c r="C91" t="s">
         <v>314</v>
       </c>
-      <c r="C91" t="s">
-        <v>315</v>
-      </c>
       <c r="D91" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E91" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I91" s="24"/>
       <c r="J91" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K91" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -5604,32 +5631,32 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>315</v>
+      </c>
+      <c r="C92" t="s">
         <v>316</v>
       </c>
-      <c r="C92" t="s">
-        <v>317</v>
-      </c>
       <c r="D92" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E92" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I92" s="24"/>
       <c r="J92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K92" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K92" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -5637,34 +5664,34 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>317</v>
+      </c>
+      <c r="C93" t="s">
         <v>318</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="D93" t="s">
-        <v>26</v>
-      </c>
-      <c r="E93" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="5" t="s">
+      <c r="G93" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H93" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="G93" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H93" s="5" t="s">
+      <c r="I93" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="I93" s="33" t="s">
-        <v>322</v>
-      </c>
       <c r="J93" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K93" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="K93" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -5672,19 +5699,19 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>322</v>
+      </c>
+      <c r="C94" t="s">
         <v>323</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="D94" t="s">
-        <v>26</v>
-      </c>
-      <c r="E94" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>19</v>
@@ -5693,10 +5720,10 @@
         <v>19</v>
       </c>
       <c r="I94" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>14</v>
@@ -5707,34 +5734,34 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>326</v>
+      </c>
+      <c r="C95" t="s">
         <v>327</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" t="s">
         <v>328</v>
       </c>
-      <c r="D95" t="s">
-        <v>26</v>
-      </c>
-      <c r="E95" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" t="s">
+      <c r="G95" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H95" t="s">
         <v>329</v>
       </c>
-      <c r="G95" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H95" t="s">
+      <c r="I95" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="I95" s="23" t="s">
-        <v>331</v>
-      </c>
       <c r="J95" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K95" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="K95" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5742,34 +5769,34 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>331</v>
+      </c>
+      <c r="C96" t="s">
         <v>332</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="D96" t="s">
-        <v>26</v>
-      </c>
-      <c r="E96" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="10" t="s">
+      <c r="G96" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H96" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="G96" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H96" s="10" t="s">
+      <c r="I96" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="I96" s="31" t="s">
-        <v>336</v>
-      </c>
       <c r="J96" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K96" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5777,34 +5804,34 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>336</v>
+      </c>
+      <c r="C97" t="s">
         <v>337</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" t="s">
         <v>338</v>
       </c>
-      <c r="D97" t="s">
-        <v>26</v>
-      </c>
-      <c r="E97" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="G97" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H97" t="s">
         <v>339</v>
       </c>
-      <c r="G97" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H97" t="s">
+      <c r="I97" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="I97" s="31" t="s">
-        <v>341</v>
-      </c>
       <c r="J97" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K97" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="K97" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5812,19 +5839,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>341</v>
+      </c>
+      <c r="C98" t="s">
         <v>342</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="D98" t="s">
-        <v>26</v>
-      </c>
-      <c r="E98" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>344</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>19</v>
@@ -5833,10 +5860,10 @@
         <v>19</v>
       </c>
       <c r="I98" s="30" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>14</v>
@@ -5847,31 +5874,31 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>345</v>
+      </c>
+      <c r="C99" t="s">
         <v>346</v>
       </c>
-      <c r="C99" t="s">
-        <v>347</v>
-      </c>
       <c r="D99" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E99" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F99" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J99" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G99" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J99" s="3" t="s">
+      <c r="K99" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -5879,32 +5906,32 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C100" t="s">
         <v>348</v>
       </c>
-      <c r="C100" t="s">
-        <v>349</v>
-      </c>
       <c r="D100" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E100" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I100" s="24"/>
       <c r="J100" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -5912,19 +5939,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>349</v>
+      </c>
+      <c r="C101" t="s">
         <v>350</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="D101" t="s">
-        <v>26</v>
-      </c>
-      <c r="E101" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>352</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>19</v>
@@ -5933,10 +5960,10 @@
         <v>19</v>
       </c>
       <c r="I101" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>14</v>
@@ -5947,34 +5974,34 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>353</v>
+      </c>
+      <c r="C102" t="s">
         <v>354</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D102" t="s">
-        <v>26</v>
-      </c>
-      <c r="E102" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="1" t="s">
+      <c r="G102" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H102" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H102" s="1" t="s">
+      <c r="I102" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="I102" s="33" t="s">
-        <v>358</v>
-      </c>
       <c r="J102" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K102" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5982,34 +6009,34 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>358</v>
+      </c>
+      <c r="C103" t="s">
         <v>359</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
+        <v>25</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D103" t="s">
-        <v>26</v>
-      </c>
-      <c r="E103" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" s="1" t="s">
+      <c r="G103" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H103" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="G103" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H103" s="1" t="s">
+      <c r="I103" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="I103" s="33" t="s">
-        <v>363</v>
-      </c>
       <c r="J103" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K103" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="K103" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -6017,32 +6044,32 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>363</v>
+      </c>
+      <c r="C104" t="s">
         <v>364</v>
       </c>
-      <c r="C104" t="s">
-        <v>365</v>
-      </c>
       <c r="D104" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E104" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I104" s="24"/>
       <c r="J104" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K104" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -6050,19 +6077,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>365</v>
+      </c>
+      <c r="C105" t="s">
         <v>366</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="D105" t="s">
-        <v>26</v>
-      </c>
-      <c r="E105" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>368</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>19</v>
@@ -6071,10 +6098,10 @@
         <v>19</v>
       </c>
       <c r="I105" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>14</v>
@@ -6085,19 +6112,19 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>369</v>
+      </c>
+      <c r="C106" t="s">
         <v>370</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
+        <v>25</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" t="s">
         <v>371</v>
-      </c>
-      <c r="D106" t="s">
-        <v>26</v>
-      </c>
-      <c r="E106" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" t="s">
-        <v>372</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>19</v>
@@ -6106,10 +6133,10 @@
         <v>19</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>14</v>
@@ -6120,31 +6147,31 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>373</v>
+      </c>
+      <c r="C107" t="s">
         <v>374</v>
       </c>
-      <c r="C107" t="s">
-        <v>375</v>
-      </c>
       <c r="D107" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E107" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F107" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J107" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G107" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J107" s="3" t="s">
+      <c r="K107" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K107" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -6152,31 +6179,31 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>375</v>
+      </c>
+      <c r="C108" t="s">
         <v>376</v>
       </c>
-      <c r="C108" t="s">
-        <v>377</v>
-      </c>
       <c r="D108" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E108" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F108" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J108" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G108" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J108" s="3" t="s">
+      <c r="K108" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K108" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -6184,31 +6211,31 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>377</v>
+      </c>
+      <c r="C109" t="s">
         <v>378</v>
       </c>
-      <c r="C109" t="s">
-        <v>379</v>
-      </c>
       <c r="D109" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E109" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F109" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J109" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G109" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J109" s="3" t="s">
+      <c r="K109" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -6216,31 +6243,31 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
+        <v>379</v>
+      </c>
+      <c r="C110" t="s">
         <v>380</v>
       </c>
-      <c r="C110" t="s">
-        <v>381</v>
-      </c>
       <c r="D110" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E110" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F110" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J110" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G110" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J110" s="3" t="s">
+      <c r="K110" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K110" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -6248,32 +6275,32 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
+        <v>381</v>
+      </c>
+      <c r="C111" t="s">
         <v>382</v>
       </c>
-      <c r="C111" t="s">
-        <v>383</v>
-      </c>
       <c r="D111" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E111" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I111" s="24"/>
       <c r="J111" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K111" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K111" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -6281,32 +6308,32 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>383</v>
+      </c>
+      <c r="C112" t="s">
         <v>384</v>
       </c>
-      <c r="C112" t="s">
-        <v>385</v>
-      </c>
       <c r="D112" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E112" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I112" s="24"/>
       <c r="J112" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K112" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K112" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -6314,32 +6341,32 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>385</v>
+      </c>
+      <c r="C113" t="s">
         <v>386</v>
       </c>
-      <c r="C113" t="s">
-        <v>387</v>
-      </c>
       <c r="D113" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E113" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I113" s="24"/>
       <c r="J113" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K113" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K113" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -6347,32 +6374,32 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>387</v>
+      </c>
+      <c r="C114" t="s">
         <v>388</v>
       </c>
-      <c r="C114" t="s">
-        <v>389</v>
-      </c>
       <c r="D114" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E114" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I114" s="24"/>
       <c r="J114" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K114" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K114" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -6380,32 +6407,32 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
+        <v>389</v>
+      </c>
+      <c r="C115" t="s">
         <v>390</v>
       </c>
-      <c r="C115" t="s">
-        <v>391</v>
-      </c>
       <c r="D115" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E115" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I115" s="24"/>
       <c r="J115" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K115" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K115" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -6413,32 +6440,32 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>391</v>
+      </c>
+      <c r="C116" t="s">
         <v>392</v>
       </c>
-      <c r="C116" t="s">
-        <v>393</v>
-      </c>
       <c r="D116" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E116" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I116" s="24"/>
       <c r="J116" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K116" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K116" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -6446,32 +6473,32 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>393</v>
+      </c>
+      <c r="C117" t="s">
         <v>394</v>
       </c>
-      <c r="C117" t="s">
-        <v>395</v>
-      </c>
       <c r="D117" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E117" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I117" s="24"/>
       <c r="J117" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K117" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K117" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -6479,32 +6506,32 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C118" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D118" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E118" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I118" s="24"/>
       <c r="J118" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K118" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K118" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -6512,31 +6539,31 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>396</v>
+      </c>
+      <c r="C119" t="s">
         <v>397</v>
       </c>
-      <c r="C119" t="s">
-        <v>398</v>
-      </c>
       <c r="D119" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E119" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F119" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J119" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G119" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J119" s="3" t="s">
+      <c r="K119" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K119" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -6544,31 +6571,31 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
+        <v>398</v>
+      </c>
+      <c r="C120" t="s">
         <v>399</v>
       </c>
-      <c r="C120" t="s">
-        <v>400</v>
-      </c>
       <c r="D120" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E120" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F120" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J120" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G120" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J120" s="3" t="s">
+      <c r="K120" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K120" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -6576,31 +6603,31 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D121" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E121" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F121" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J121" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G121" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H121" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J121" s="3" t="s">
+      <c r="K121" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K121" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -6608,31 +6635,31 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>401</v>
+      </c>
+      <c r="C122" t="s">
         <v>402</v>
       </c>
-      <c r="C122" t="s">
-        <v>403</v>
-      </c>
       <c r="D122" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E122" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F122" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J122" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G122" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J122" s="3" t="s">
+      <c r="K122" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K122" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -6640,31 +6667,31 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
+        <v>403</v>
+      </c>
+      <c r="C123" t="s">
         <v>404</v>
       </c>
-      <c r="C123" t="s">
-        <v>405</v>
-      </c>
       <c r="D123" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E123" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F123" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J123" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G123" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J123" s="3" t="s">
+      <c r="K123" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K123" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -6672,31 +6699,31 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>405</v>
+      </c>
+      <c r="C124" t="s">
         <v>406</v>
       </c>
-      <c r="C124" t="s">
-        <v>407</v>
-      </c>
       <c r="D124" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E124" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F124" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J124" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G124" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J124" s="3" t="s">
+      <c r="K124" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K124" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -6704,31 +6731,31 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>407</v>
+      </c>
+      <c r="C125" t="s">
         <v>408</v>
       </c>
-      <c r="C125" t="s">
-        <v>409</v>
-      </c>
       <c r="D125" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E125" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F125" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J125" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G125" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J125" s="3" t="s">
+      <c r="K125" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K125" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -6736,31 +6763,31 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
+        <v>409</v>
+      </c>
+      <c r="C126" t="s">
         <v>410</v>
       </c>
-      <c r="C126" t="s">
-        <v>411</v>
-      </c>
       <c r="D126" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E126" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F126" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J126" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G126" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H126" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J126" s="3" t="s">
+      <c r="K126" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K126" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -6768,31 +6795,31 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
+        <v>411</v>
+      </c>
+      <c r="C127" t="s">
         <v>412</v>
       </c>
-      <c r="C127" t="s">
-        <v>413</v>
-      </c>
       <c r="D127" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E127" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F127" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J127" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G127" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J127" s="3" t="s">
+      <c r="K127" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K127" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -6800,31 +6827,31 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C128" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D128" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E128" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F128" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J128" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G128" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J128" s="3" t="s">
+      <c r="K128" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K128" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6832,10 +6859,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
+        <v>421</v>
+      </c>
+      <c r="C129" t="s">
         <v>422</v>
-      </c>
-      <c r="C129" t="s">
-        <v>423</v>
       </c>
       <c r="D129" t="s">
         <v>17</v>
@@ -6844,16 +6871,16 @@
         <v>11</v>
       </c>
       <c r="F129" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="G129" s="3" t="s">
         <v>424</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>425</v>
       </c>
       <c r="H129">
         <v>5</v>
       </c>
       <c r="I129" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J129" s="38" t="s">
         <v>13</v>
@@ -6873,6 +6900,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -7113,42 +7161,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8FD927B-486E-4736-8E9F-ABBC39C726CA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7171,9 +7187,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8FD927B-486E-4736-8E9F-ABBC39C726CA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF50BEC-D7F2-45CB-98E5-544213FDB7A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C55481-6B10-4234-B292-21B2A70F316F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1472,21 +1472,20 @@
     <t>case_when</t>
   </si>
   <si>
+    <t>proximate</t>
+  </si>
+  <si>
     <t>case_when(
   AI13ABSC %in% c(4) | AI14ABSC %in% c(0) ~ 7L,
   AI14ABSC %in% c(3,4) ~ 6L,
   AI14ABSC %in% c(2) ~ 4L,
-  AI14ABSC %in% c(5) ~ 9L,
   AI13ABSC %in% c(3) ~ 3L,
   AI13ABSC %in% c(1,2) ~ 2L,
   AI13ABSC %in% c(6) &amp; AI14ABSC %in% c(1) ~ 0L,
   is.na(AI13ABSC) &amp; AI14ABSC %in% c(1) ~ 0L,
   AI13ABSC %in% c(6) &amp; is.na(AI14ABSC) ~ 0L,
-  AI13ABSC %in% c(5) ~ 9L,
+  AI14ABSC %in% c(5) | AI13ABSC %in% c(5) ~ 9L,
   TRUE ~ NA_integer_)</t>
-  </si>
-  <si>
-    <t>proximate</t>
   </si>
 </sst>
 </file>
@@ -2500,7 +2499,7 @@
   <dimension ref="A1:L129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2676,14 +2675,14 @@
         <v>450</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="17" t="s">
         <v>42</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6900,27 +6899,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -7161,10 +7139,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8FD927B-486E-4736-8E9F-ABBC39C726CA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7187,20 +7197,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8FD927B-486E-4736-8E9F-ABBC39C726CA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C55481-6B10-4234-B292-21B2A70F316F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8028C7B-A0AC-4840-AEEF-2C75A31AF7B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="452">
   <si>
     <t>index</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>EDU_LEVEL</t>
-  </si>
-  <si>
-    <t>Education</t>
   </si>
   <si>
     <t>TOT_PA_QX</t>
@@ -155,9 +152,6 @@
   </si>
   <si>
     <t>partial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tentative </t>
   </si>
   <si>
     <t xml:space="preserve">POTATOES_0101 </t>
@@ -1466,9 +1460,6 @@
     <t>AV610 + AV681 + AV684 + AV687 +AV620 + AV630 + AV650 + AV670</t>
   </si>
   <si>
-    <t>AI13ABSC; AI14ABSC</t>
-  </si>
-  <si>
     <t>case_when</t>
   </si>
   <si>
@@ -1476,16 +1467,22 @@
   </si>
   <si>
     <t>case_when(
-  AI13ABSC %in% c(4) | AI14ABSC %in% c(0) ~ 7L,
-  AI14ABSC %in% c(3,4) ~ 6L,
-  AI14ABSC %in% c(2) ~ 4L,
-  AI13ABSC %in% c(3) ~ 3L,
-  AI13ABSC %in% c(1,2) ~ 2L,
-  AI13ABSC %in% c(6) &amp; AI14ABSC %in% c(1) ~ 0L,
-  is.na(AI13ABSC) &amp; AI14ABSC %in% c(1) ~ 0L,
-  AI13ABSC %in% c(6) &amp; is.na(AI14ABSC) ~ 0L,
-  AI14ABSC %in% c(5) | AI13ABSC %in% c(5) ~ 9L,
+  ai13absc %in% c(4) | ai14absc %in% c(0) ~ 7L,
+  ai14absc %in% c(3,4) ~ 6L,
+  ai14absc %in% c(2) ~ 4L,
+  ai13absc %in% c(3) ~ 3L,
+  ai13absc %in% c(1,2) ~ 2L,
+  ai13absc %in% c(6) &amp; ai14absc %in% c(1) ~ 0L,
+  is.na(ai13absc) &amp; ai14absc %in% c(1) ~ 0L,
+  ai13absc %in% c(6) &amp; is.na(ai14absc) ~ 0L,
+  ai14absc %in% c(5) | ai13absc %in% c(5) ~ 9L,
   TRUE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>ai13absc; ai14absc</t>
+  </si>
+  <si>
+    <t>Highest level of education [ISCED 2011]</t>
   </si>
 </sst>
 </file>
@@ -2499,7 +2496,7 @@
   <dimension ref="A1:L129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2558,10 +2555,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -2570,7 +2567,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>12</v>
@@ -2627,10 +2624,10 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>11</v>
@@ -2659,8 +2656,8 @@
       <c r="B5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
+      <c r="C5" s="17" t="s">
+        <v>451</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -2669,20 +2666,20 @@
         <v>11</v>
       </c>
       <c r="F5" s="45" t="s">
+        <v>450</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2690,32 +2687,32 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="17" t="s">
         <v>27</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2723,10 +2720,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -2735,7 +2732,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>19</v>
@@ -2756,19 +2753,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>445</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="36" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>447</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>33</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
@@ -2789,19 +2786,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="36" t="s">
         <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>36</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
@@ -2822,34 +2819,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="J10" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="41" t="s">
-        <v>415</v>
-      </c>
-      <c r="J10" s="39" t="s">
-        <v>42</v>
-      </c>
       <c r="K10" s="39" t="s">
-        <v>43</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2857,34 +2854,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
+      <c r="J11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="23" t="s">
+      <c r="K11" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2892,32 +2889,32 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="150" x14ac:dyDescent="0.25">
@@ -2925,34 +2922,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
+      <c r="G13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="I13" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="J13" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2960,34 +2957,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C14" t="s">
+      <c r="G14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="42" t="s">
-        <v>59</v>
-      </c>
       <c r="I14" s="28" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2995,34 +2992,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C15" t="s">
+      <c r="G15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="I15" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>64</v>
-      </c>
       <c r="J15" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3030,19 +3027,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>19</v>
@@ -3051,10 +3048,10 @@
         <v>19</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>14</v>
@@ -3065,34 +3062,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C17" t="s">
+      <c r="G17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="I17" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>73</v>
-      </c>
       <c r="J17" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3100,31 +3097,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3132,32 +3129,32 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3165,19 +3162,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>19</v>
@@ -3186,10 +3183,10 @@
         <v>19</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>14</v>
@@ -3200,34 +3197,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21" s="42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J21" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="K21" s="39" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3235,32 +3232,32 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I22" s="24"/>
       <c r="J22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3268,34 +3265,34 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="G23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3303,32 +3300,32 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I24" s="24"/>
       <c r="J24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="285" x14ac:dyDescent="0.25">
@@ -3336,34 +3333,34 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C25" t="s">
+      <c r="G25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="34" t="s">
+      <c r="I25" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>95</v>
-      </c>
       <c r="J25" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="240" x14ac:dyDescent="0.25">
@@ -3371,34 +3368,34 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C26" t="s">
+      <c r="G26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="14" t="s">
+      <c r="I26" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>100</v>
-      </c>
       <c r="J26" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3406,19 +3403,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
         <v>101</v>
-      </c>
-      <c r="C27" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>103</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>19</v>
@@ -3427,10 +3424,10 @@
         <v>19</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>14</v>
@@ -3441,34 +3438,34 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C28" t="s">
+      <c r="G28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="I28" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I28" s="29" t="s">
-        <v>109</v>
-      </c>
       <c r="J28" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3476,32 +3473,32 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I29" s="30"/>
       <c r="J29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3509,34 +3506,34 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C30" t="s">
+      <c r="G30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="5" t="s">
+      <c r="I30" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="I30" s="31" t="s">
-        <v>116</v>
-      </c>
       <c r="J30" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3544,19 +3541,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="C31" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>119</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>19</v>
@@ -3565,10 +3562,10 @@
         <v>19</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>14</v>
@@ -3579,32 +3576,32 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I32" s="21"/>
       <c r="J32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3612,19 +3609,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
         <v>123</v>
-      </c>
-      <c r="C33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" t="s">
-        <v>125</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>19</v>
@@ -3633,10 +3630,10 @@
         <v>19</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>14</v>
@@ -3647,19 +3644,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="35" t="s">
         <v>127</v>
-      </c>
-      <c r="C34" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>129</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>19</v>
@@ -3668,10 +3665,10 @@
         <v>19</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>14</v>
@@ -3682,19 +3679,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>19</v>
@@ -3703,10 +3700,10 @@
         <v>19</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>14</v>
@@ -3717,31 +3714,31 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C36" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3749,32 +3746,32 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I37" s="24"/>
       <c r="J37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3782,19 +3779,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
         <v>137</v>
-      </c>
-      <c r="C38" t="s">
-        <v>138</v>
-      </c>
-      <c r="D38" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" t="s">
-        <v>139</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>19</v>
@@ -3803,10 +3800,10 @@
         <v>19</v>
       </c>
       <c r="I38" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>14</v>
@@ -3817,32 +3814,32 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C39" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I39" s="24"/>
       <c r="J39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -3850,19 +3847,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
         <v>142</v>
-      </c>
-      <c r="C40" t="s">
-        <v>143</v>
-      </c>
-      <c r="D40" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" t="s">
-        <v>144</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>19</v>
@@ -3871,10 +3868,10 @@
         <v>19</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>14</v>
@@ -3885,34 +3882,34 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C41" s="44" t="s">
-        <v>430</v>
-      </c>
-      <c r="D41" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="5" t="s">
+      <c r="I41" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="I41" s="31" t="s">
-        <v>149</v>
-      </c>
       <c r="J41" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3920,34 +3917,34 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="C42" t="s">
+      <c r="G42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D42" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="13" t="s">
+      <c r="I42" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I42" s="31" t="s">
-        <v>154</v>
-      </c>
       <c r="J42" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3955,34 +3952,34 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C43" t="s">
+      <c r="G43" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D43" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="4" t="s">
+      <c r="I43" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I43" s="30" t="s">
-        <v>159</v>
-      </c>
       <c r="J43" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3990,34 +3987,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="C44" t="s">
+      <c r="G44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="D44" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="34" t="s">
+      <c r="I44" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H44" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="I44" s="32" t="s">
-        <v>164</v>
-      </c>
       <c r="J44" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L44" s="6"/>
     </row>
@@ -4026,34 +4023,34 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C45" t="s">
+      <c r="G45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H45" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="10" t="s">
+      <c r="I45" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="I45" s="32" t="s">
-        <v>169</v>
-      </c>
       <c r="J45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -4061,19 +4058,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="35" t="s">
         <v>170</v>
-      </c>
-      <c r="C46" t="s">
-        <v>171</v>
-      </c>
-      <c r="D46" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="35" t="s">
-        <v>172</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>19</v>
@@ -4082,10 +4079,10 @@
         <v>19</v>
       </c>
       <c r="I46" s="30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>14</v>
@@ -4096,31 +4093,31 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C47" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -4128,31 +4125,31 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C48" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J48" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J48" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -4160,34 +4157,34 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C49" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I49" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -4195,34 +4192,34 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C50" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C50" t="s">
+      <c r="G50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D50" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="5" t="s">
+      <c r="I50" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I50" s="23" t="s">
-        <v>184</v>
-      </c>
       <c r="J50" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4230,34 +4227,34 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C51" t="s">
+        <v>184</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C51" t="s">
+      <c r="G51" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="1" t="s">
+      <c r="I51" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I51" s="31" t="s">
-        <v>189</v>
-      </c>
       <c r="J51" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -4265,19 +4262,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="C52" t="s">
-        <v>191</v>
-      </c>
-      <c r="D52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>19</v>
@@ -4286,10 +4283,10 @@
         <v>19</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>14</v>
@@ -4300,19 +4297,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" t="s">
+        <v>193</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="C53" t="s">
-        <v>195</v>
-      </c>
-      <c r="D53" t="s">
-        <v>25</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>19</v>
@@ -4321,10 +4318,10 @@
         <v>19</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>14</v>
@@ -4335,19 +4332,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54" t="s">
+        <v>197</v>
+      </c>
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C54" t="s">
-        <v>199</v>
-      </c>
-      <c r="D54" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>19</v>
@@ -4356,10 +4353,10 @@
         <v>19</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>14</v>
@@ -4370,34 +4367,34 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55" t="s">
+        <v>201</v>
+      </c>
+      <c r="D55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C55" t="s">
+      <c r="G55" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H55" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="D55" t="s">
-        <v>25</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="10" t="s">
+      <c r="I55" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H55" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="I55" s="28" t="s">
-        <v>206</v>
-      </c>
       <c r="J55" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K55" s="39" t="s">
-        <v>43</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4405,32 +4402,32 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C56" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H56" s="39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I56" s="24"/>
       <c r="J56" s="39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K56" s="39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4438,34 +4435,34 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C57" t="s">
+        <v>208</v>
+      </c>
+      <c r="D57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H57" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="C57" t="s">
-        <v>210</v>
-      </c>
-      <c r="D57" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="10" t="s">
+      <c r="I57" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H57" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="I57" s="28" t="s">
-        <v>206</v>
-      </c>
       <c r="J57" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K57" s="39" t="s">
-        <v>43</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4473,19 +4470,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C58" t="s">
+        <v>211</v>
+      </c>
+      <c r="D58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
         <v>212</v>
-      </c>
-      <c r="C58" t="s">
-        <v>213</v>
-      </c>
-      <c r="D58" t="s">
-        <v>25</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" t="s">
-        <v>214</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>19</v>
@@ -4494,10 +4491,10 @@
         <v>19</v>
       </c>
       <c r="I58" s="30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>14</v>
@@ -4508,32 +4505,32 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E59" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I59" s="24"/>
       <c r="J59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K59" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -4541,32 +4538,32 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C60" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E60" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I60" s="24"/>
       <c r="J60" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K60" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4574,32 +4571,32 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C61" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E61" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I61" s="24"/>
       <c r="J61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K61" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4607,32 +4604,32 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C62" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E62" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I62" s="24"/>
       <c r="J62" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K62" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4640,32 +4637,32 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C63" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E63" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I63" s="24"/>
       <c r="J63" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K63" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4673,32 +4670,32 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C64" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E64" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I64" s="24"/>
       <c r="J64" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K64" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4706,19 +4703,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C65" t="s">
+        <v>225</v>
+      </c>
+      <c r="D65" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
         <v>226</v>
-      </c>
-      <c r="C65" t="s">
-        <v>227</v>
-      </c>
-      <c r="D65" t="s">
-        <v>25</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" t="s">
-        <v>228</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>19</v>
@@ -4727,10 +4724,10 @@
         <v>19</v>
       </c>
       <c r="I65" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>14</v>
@@ -4741,34 +4738,34 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C66" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="I66" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="I66" s="23" t="s">
-        <v>419</v>
-      </c>
       <c r="J66" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4776,19 +4773,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C67" t="s">
+        <v>231</v>
+      </c>
+      <c r="D67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
         <v>232</v>
-      </c>
-      <c r="C67" t="s">
-        <v>233</v>
-      </c>
-      <c r="D67" t="s">
-        <v>25</v>
-      </c>
-      <c r="E67" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" t="s">
-        <v>234</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>19</v>
@@ -4797,10 +4794,10 @@
         <v>19</v>
       </c>
       <c r="I67" s="30" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>14</v>
@@ -4811,34 +4808,34 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C68" t="s">
+        <v>235</v>
+      </c>
+      <c r="D68" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="C68" t="s">
+      <c r="G68" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H68" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="D68" t="s">
-        <v>25</v>
-      </c>
-      <c r="E68" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="11" t="s">
+      <c r="I68" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="I68" s="23" t="s">
-        <v>240</v>
-      </c>
       <c r="J68" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -4846,19 +4843,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C69" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>19</v>
@@ -4867,10 +4864,10 @@
         <v>19</v>
       </c>
       <c r="I69" s="30" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>14</v>
@@ -4881,32 +4878,32 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C70" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E70" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I70" s="24"/>
       <c r="J70" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K70" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4914,34 +4911,34 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C71" t="s">
+        <v>433</v>
+      </c>
+      <c r="D71" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H71" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C71" t="s">
-        <v>435</v>
-      </c>
-      <c r="D71" t="s">
-        <v>25</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="10" t="s">
+      <c r="I71" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="G71" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H71" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="I71" s="31" t="s">
-        <v>249</v>
-      </c>
       <c r="J71" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4949,34 +4946,34 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>248</v>
+      </c>
+      <c r="C72" t="s">
+        <v>249</v>
+      </c>
+      <c r="D72" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C72" t="s">
+      <c r="G72" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H72" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D72" t="s">
-        <v>25</v>
-      </c>
-      <c r="E72" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="4" t="s">
+      <c r="I72" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="I72" s="30" t="s">
-        <v>254</v>
-      </c>
       <c r="J72" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4984,19 +4981,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C73" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E73" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>19</v>
@@ -5005,10 +5002,10 @@
         <v>19</v>
       </c>
       <c r="I73" s="30" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>14</v>
@@ -5019,34 +5016,34 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>255</v>
+      </c>
+      <c r="C74" t="s">
+        <v>256</v>
+      </c>
+      <c r="D74" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C74" t="s">
+      <c r="G74" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H74" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="D74" t="s">
-        <v>25</v>
-      </c>
-      <c r="E74" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="11" t="s">
+      <c r="I74" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H74" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="I74" s="31" t="s">
-        <v>261</v>
-      </c>
       <c r="J74" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -5054,19 +5051,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>260</v>
+      </c>
+      <c r="C75" t="s">
+        <v>261</v>
+      </c>
+      <c r="D75" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="C75" t="s">
-        <v>263</v>
-      </c>
-      <c r="D75" t="s">
-        <v>25</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>19</v>
@@ -5075,10 +5072,10 @@
         <v>19</v>
       </c>
       <c r="I75" s="30" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>14</v>
@@ -5089,19 +5086,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>264</v>
+      </c>
+      <c r="C76" t="s">
+        <v>265</v>
+      </c>
+      <c r="D76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="C76" t="s">
-        <v>267</v>
-      </c>
-      <c r="D76" t="s">
-        <v>25</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>19</v>
@@ -5110,10 +5107,10 @@
         <v>19</v>
       </c>
       <c r="I76" s="30" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>14</v>
@@ -5124,19 +5121,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>268</v>
+      </c>
+      <c r="C77" t="s">
+        <v>269</v>
+      </c>
+      <c r="D77" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="C77" t="s">
-        <v>271</v>
-      </c>
-      <c r="D77" t="s">
-        <v>25</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>19</v>
@@ -5145,10 +5142,10 @@
         <v>19</v>
       </c>
       <c r="I77" s="30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>14</v>
@@ -5159,32 +5156,32 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C78" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I78" s="24"/>
       <c r="J78" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K78" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -5192,31 +5189,31 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C79" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F79" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J79" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G79" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J79" s="3" t="s">
+      <c r="K79" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -5224,31 +5221,31 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C80" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E80" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F80" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J80" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G80" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J80" s="3" t="s">
+      <c r="K80" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -5256,34 +5253,34 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>278</v>
+      </c>
+      <c r="C81" t="s">
+        <v>279</v>
+      </c>
+      <c r="D81" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="C81" t="s">
+      <c r="G81" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="I81" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="D81" t="s">
-        <v>25</v>
-      </c>
-      <c r="E81" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H81" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="I81" s="31" t="s">
-        <v>283</v>
-      </c>
       <c r="J81" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -5291,34 +5288,34 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>282</v>
+      </c>
+      <c r="C82" t="s">
+        <v>283</v>
+      </c>
+      <c r="D82" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C82" t="s">
+      <c r="G82" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H82" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D82" t="s">
-        <v>25</v>
-      </c>
-      <c r="E82" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="4" t="s">
+      <c r="I82" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="G82" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="I82" s="30" t="s">
-        <v>288</v>
-      </c>
       <c r="J82" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5326,34 +5323,34 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>287</v>
+      </c>
+      <c r="C83" t="s">
+        <v>434</v>
+      </c>
+      <c r="D83" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" t="s">
+        <v>288</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H83" t="s">
         <v>289</v>
       </c>
-      <c r="C83" t="s">
-        <v>436</v>
-      </c>
-      <c r="D83" t="s">
-        <v>25</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="I83" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H83" t="s">
-        <v>291</v>
-      </c>
-      <c r="I83" s="31" t="s">
-        <v>292</v>
-      </c>
       <c r="J83" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -5361,19 +5358,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C84" t="s">
+        <v>292</v>
+      </c>
+      <c r="D84" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="C84" t="s">
-        <v>294</v>
-      </c>
-      <c r="D84" t="s">
-        <v>25</v>
-      </c>
-      <c r="E84" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>19</v>
@@ -5382,10 +5379,10 @@
         <v>19</v>
       </c>
       <c r="I84" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>14</v>
@@ -5396,32 +5393,32 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C85" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E85" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I85" s="24"/>
       <c r="J85" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K85" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -5429,31 +5426,31 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C86" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D86" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E86" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F86" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J86" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G86" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J86" s="3" t="s">
+      <c r="K86" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -5461,19 +5458,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>299</v>
+      </c>
+      <c r="C87" t="s">
+        <v>300</v>
+      </c>
+      <c r="D87" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s">
         <v>301</v>
-      </c>
-      <c r="C87" t="s">
-        <v>302</v>
-      </c>
-      <c r="D87" t="s">
-        <v>25</v>
-      </c>
-      <c r="E87" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" t="s">
-        <v>303</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>19</v>
@@ -5482,10 +5479,10 @@
         <v>19</v>
       </c>
       <c r="I87" s="24" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>14</v>
@@ -5496,32 +5493,32 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C88" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D88" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E88" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I88" s="24"/>
       <c r="J88" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K88" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -5529,32 +5526,32 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C89" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D89" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E89" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I89" s="24"/>
       <c r="J89" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K89" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5562,34 +5559,34 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C90" t="s">
+        <v>435</v>
+      </c>
+      <c r="D90" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H90" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C90" t="s">
-        <v>437</v>
-      </c>
-      <c r="D90" t="s">
-        <v>25</v>
-      </c>
-      <c r="E90" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="2" t="s">
+      <c r="I90" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="I90" s="32" t="s">
-        <v>312</v>
-      </c>
       <c r="J90" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -5597,32 +5594,32 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C91" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D91" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E91" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I91" s="24"/>
       <c r="J91" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K91" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -5630,32 +5627,32 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C92" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E92" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I92" s="24"/>
       <c r="J92" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K92" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K92" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -5663,34 +5660,34 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>315</v>
+      </c>
+      <c r="C93" t="s">
+        <v>316</v>
+      </c>
+      <c r="D93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C93" t="s">
+      <c r="G93" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H93" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="D93" t="s">
-        <v>25</v>
-      </c>
-      <c r="E93" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="5" t="s">
+      <c r="I93" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="G93" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="I93" s="33" t="s">
-        <v>321</v>
-      </c>
       <c r="J93" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -5698,19 +5695,19 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>320</v>
+      </c>
+      <c r="C94" t="s">
+        <v>321</v>
+      </c>
+      <c r="D94" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="C94" t="s">
-        <v>323</v>
-      </c>
-      <c r="D94" t="s">
-        <v>25</v>
-      </c>
-      <c r="E94" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>324</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>19</v>
@@ -5719,10 +5716,10 @@
         <v>19</v>
       </c>
       <c r="I94" s="30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>14</v>
@@ -5733,34 +5730,34 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>324</v>
+      </c>
+      <c r="C95" t="s">
+        <v>325</v>
+      </c>
+      <c r="D95" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" t="s">
         <v>326</v>
       </c>
-      <c r="C95" t="s">
+      <c r="G95" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H95" t="s">
         <v>327</v>
       </c>
-      <c r="D95" t="s">
-        <v>25</v>
-      </c>
-      <c r="E95" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" t="s">
+      <c r="I95" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="G95" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H95" t="s">
-        <v>329</v>
-      </c>
-      <c r="I95" s="23" t="s">
-        <v>330</v>
-      </c>
       <c r="J95" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5768,34 +5765,34 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>329</v>
+      </c>
+      <c r="C96" t="s">
+        <v>330</v>
+      </c>
+      <c r="D96" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="C96" t="s">
+      <c r="G96" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H96" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="D96" t="s">
-        <v>25</v>
-      </c>
-      <c r="E96" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="10" t="s">
+      <c r="I96" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="G96" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H96" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="I96" s="31" t="s">
-        <v>335</v>
-      </c>
       <c r="J96" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5803,34 +5800,34 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>334</v>
+      </c>
+      <c r="C97" t="s">
+        <v>335</v>
+      </c>
+      <c r="D97" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" t="s">
         <v>336</v>
       </c>
-      <c r="C97" t="s">
+      <c r="G97" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H97" t="s">
         <v>337</v>
       </c>
-      <c r="D97" t="s">
-        <v>25</v>
-      </c>
-      <c r="E97" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="I97" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="G97" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H97" t="s">
-        <v>339</v>
-      </c>
-      <c r="I97" s="31" t="s">
-        <v>340</v>
-      </c>
       <c r="J97" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5838,19 +5835,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>339</v>
+      </c>
+      <c r="C98" t="s">
+        <v>340</v>
+      </c>
+      <c r="D98" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="C98" t="s">
-        <v>342</v>
-      </c>
-      <c r="D98" t="s">
-        <v>25</v>
-      </c>
-      <c r="E98" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>343</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>19</v>
@@ -5859,10 +5856,10 @@
         <v>19</v>
       </c>
       <c r="I98" s="30" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>14</v>
@@ -5873,31 +5870,31 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C99" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D99" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E99" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F99" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J99" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G99" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J99" s="3" t="s">
+      <c r="K99" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -5905,32 +5902,32 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C100" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D100" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E100" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I100" s="24"/>
       <c r="J100" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -5938,19 +5935,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>347</v>
+      </c>
+      <c r="C101" t="s">
+        <v>348</v>
+      </c>
+      <c r="D101" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="C101" t="s">
-        <v>350</v>
-      </c>
-      <c r="D101" t="s">
-        <v>25</v>
-      </c>
-      <c r="E101" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>351</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>19</v>
@@ -5959,10 +5956,10 @@
         <v>19</v>
       </c>
       <c r="I101" s="30" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>14</v>
@@ -5973,34 +5970,34 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>351</v>
+      </c>
+      <c r="C102" t="s">
+        <v>352</v>
+      </c>
+      <c r="D102" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C102" t="s">
+      <c r="G102" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H102" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D102" t="s">
-        <v>25</v>
-      </c>
-      <c r="E102" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="1" t="s">
+      <c r="I102" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="I102" s="33" t="s">
-        <v>357</v>
-      </c>
       <c r="J102" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6008,34 +6005,34 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>356</v>
+      </c>
+      <c r="C103" t="s">
+        <v>357</v>
+      </c>
+      <c r="D103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C103" t="s">
+      <c r="G103" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H103" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D103" t="s">
-        <v>25</v>
-      </c>
-      <c r="E103" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" s="1" t="s">
+      <c r="I103" s="33" t="s">
         <v>360</v>
       </c>
-      <c r="G103" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="I103" s="33" t="s">
-        <v>362</v>
-      </c>
       <c r="J103" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -6043,32 +6040,32 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D104" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E104" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I104" s="24"/>
       <c r="J104" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K104" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -6076,19 +6073,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>363</v>
+      </c>
+      <c r="C105" t="s">
+        <v>364</v>
+      </c>
+      <c r="D105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="C105" t="s">
-        <v>366</v>
-      </c>
-      <c r="D105" t="s">
-        <v>25</v>
-      </c>
-      <c r="E105" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>367</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>19</v>
@@ -6097,10 +6094,10 @@
         <v>19</v>
       </c>
       <c r="I105" s="19" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>14</v>
@@ -6111,19 +6108,19 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>367</v>
+      </c>
+      <c r="C106" t="s">
+        <v>368</v>
+      </c>
+      <c r="D106" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" t="s">
         <v>369</v>
-      </c>
-      <c r="C106" t="s">
-        <v>370</v>
-      </c>
-      <c r="D106" t="s">
-        <v>25</v>
-      </c>
-      <c r="E106" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" t="s">
-        <v>371</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>19</v>
@@ -6132,10 +6129,10 @@
         <v>19</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>14</v>
@@ -6146,31 +6143,31 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C107" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D107" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E107" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F107" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J107" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G107" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J107" s="3" t="s">
+      <c r="K107" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K107" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -6178,31 +6175,31 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C108" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D108" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E108" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F108" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J108" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G108" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J108" s="3" t="s">
+      <c r="K108" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K108" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -6210,31 +6207,31 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C109" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D109" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E109" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F109" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J109" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G109" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J109" s="3" t="s">
+      <c r="K109" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -6242,31 +6239,31 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C110" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D110" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E110" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F110" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J110" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G110" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J110" s="3" t="s">
+      <c r="K110" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K110" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -6274,32 +6271,32 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C111" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D111" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E111" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I111" s="24"/>
       <c r="J111" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K111" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K111" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -6307,32 +6304,32 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C112" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E112" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I112" s="24"/>
       <c r="J112" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K112" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K112" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -6340,32 +6337,32 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C113" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D113" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E113" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I113" s="24"/>
       <c r="J113" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K113" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K113" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -6373,32 +6370,32 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C114" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D114" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E114" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I114" s="24"/>
       <c r="J114" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K114" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K114" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -6406,32 +6403,32 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C115" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D115" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E115" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I115" s="24"/>
       <c r="J115" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K115" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K115" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -6439,32 +6436,32 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C116" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D116" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E116" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I116" s="24"/>
       <c r="J116" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K116" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K116" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -6472,32 +6469,32 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C117" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D117" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E117" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I117" s="24"/>
       <c r="J117" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K117" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K117" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -6505,32 +6502,32 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C118" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D118" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E118" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I118" s="24"/>
       <c r="J118" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K118" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K118" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -6538,31 +6535,31 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C119" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D119" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E119" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F119" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J119" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G119" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J119" s="3" t="s">
+      <c r="K119" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K119" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -6570,31 +6567,31 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D120" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E120" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F120" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J120" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G120" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J120" s="3" t="s">
+      <c r="K120" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K120" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -6602,31 +6599,31 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C121" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D121" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E121" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F121" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J121" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G121" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H121" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J121" s="3" t="s">
+      <c r="K121" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K121" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -6634,31 +6631,31 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C122" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D122" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E122" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F122" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J122" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G122" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J122" s="3" t="s">
+      <c r="K122" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K122" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -6666,31 +6663,31 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C123" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D123" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E123" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F123" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J123" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G123" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J123" s="3" t="s">
+      <c r="K123" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K123" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -6698,31 +6695,31 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C124" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D124" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E124" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F124" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J124" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G124" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J124" s="3" t="s">
+      <c r="K124" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K124" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -6730,31 +6727,31 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C125" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D125" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E125" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F125" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J125" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G125" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J125" s="3" t="s">
+      <c r="K125" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K125" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -6762,31 +6759,31 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C126" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E126" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F126" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J126" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G126" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H126" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J126" s="3" t="s">
+      <c r="K126" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K126" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -6794,31 +6791,31 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C127" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D127" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E127" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F127" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J127" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G127" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J127" s="3" t="s">
+      <c r="K127" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K127" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -6826,31 +6823,31 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C128" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D128" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E128" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F128" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J128" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G128" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J128" s="3" t="s">
+      <c r="K128" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K128" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6858,10 +6855,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C129" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D129" t="s">
         <v>17</v>
@@ -6870,16 +6867,16 @@
         <v>11</v>
       </c>
       <c r="F129" s="43" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H129">
         <v>5</v>
       </c>
       <c r="I129" s="19" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J129" s="38" t="s">
         <v>13</v>
@@ -7140,6 +7137,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
@@ -7149,15 +7155,6 @@
     <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7180,6 +7177,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -7194,12 +7199,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>